--- a/cam7_validation_result.xlsx
+++ b/cam7_validation_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voies\Desktop\GodEyesProject\CalibPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C32470-2038-400D-9E57-2BFFB7A421C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C769A85E-49E9-4587-BC22-FBA20ABB8A2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="377" yWindow="377" windowWidth="24686" windowHeight="13217" xr2:uid="{EAD0C716-2208-41AB-B04E-A0280A1A9E7D}"/>
+    <workbookView xWindow="3394" yWindow="3394" windowWidth="24686" windowHeight="13217" xr2:uid="{EAD0C716-2208-41AB-B04E-A0280A1A9E7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -219,274 +219,274 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="108"/>
                 <c:pt idx="0">
-                  <c:v>1.3269938798307521</c:v>
+                  <c:v>-1.2706128740032909</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3269938798307521</c:v>
+                  <c:v>-0.75307643983796879</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3269938798307521</c:v>
+                  <c:v>-0.98835954678861526</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3269938798307521</c:v>
+                  <c:v>0.68777275248658043</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3269938798307521</c:v>
+                  <c:v>1.0428860240685935</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-7.5588211867084283</c:v>
+                  <c:v>0.57285974701153464</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-7.9752468028405019</c:v>
+                  <c:v>0.15227898711236776</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-8.0900774886176805</c:v>
+                  <c:v>-1.0141611307894891</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-7.1403335399500065</c:v>
+                  <c:v>5.1670342787019763E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-6.8715991343660789</c:v>
+                  <c:v>-1.1754354057406999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-7.3916748261449357</c:v>
+                  <c:v>-0.10831800456981</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-6.4707677023070573</c:v>
+                  <c:v>-0.47985187511085314</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-7.2702744771117978</c:v>
+                  <c:v>0.54211263857132508</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-6.9060343249398102</c:v>
+                  <c:v>0.27818674910577101</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-6.2661083870266339</c:v>
+                  <c:v>-0.21476119108820058</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-6.2935677856694383</c:v>
+                  <c:v>0.61895233621953594</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-6.1496010182240752</c:v>
+                  <c:v>0.62900195602242093</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-5.1027628498063677</c:v>
+                  <c:v>2.5112708069023029</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-6.790272606758208</c:v>
+                  <c:v>-0.53893944194214782</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-6.4511470511097286</c:v>
+                  <c:v>-0.78074714491731356</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-6.7886885884258845</c:v>
+                  <c:v>-0.2579983631289906</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-7.0154932247601209</c:v>
+                  <c:v>0.60895763273401826</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-7.5609032658003343</c:v>
+                  <c:v>0.17015078766416991</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-7.2255817353316161</c:v>
+                  <c:v>0.82261070553067839</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-8.0837019278528714</c:v>
+                  <c:v>-0.79477585927816108</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-7.9483736502393185</c:v>
+                  <c:v>0.67260514652434722</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-6.7264036418455362</c:v>
+                  <c:v>-0.34068291749053969</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-6.9672016154004268</c:v>
+                  <c:v>-0.64468851827814433</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-6.8408955000704736</c:v>
+                  <c:v>-0.58559377278106695</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-6.0975832196550073</c:v>
+                  <c:v>1.2534486792901589E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-6.5872027403929678</c:v>
+                  <c:v>-0.72078494542211047</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-6.5876948463728695</c:v>
+                  <c:v>-0.92293354265120797</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-6.1833158525219005</c:v>
+                  <c:v>-0.64391427821647085</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-5.7284091107726454</c:v>
+                  <c:v>-0.75798561920100838</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-6.4157823157815983</c:v>
+                  <c:v>1.6693819521865407</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-5.8874372642503658</c:v>
+                  <c:v>3.1131977330651353</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-7.3602983072505594</c:v>
+                  <c:v>-0.77840007194299687</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-6.5954391340037546</c:v>
+                  <c:v>-0.12860113304168408</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-7.460450816395678</c:v>
+                  <c:v>-0.66937250383443825</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-7.885966028916755</c:v>
+                  <c:v>0.92537738725195595</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-8.0531343888587799</c:v>
+                  <c:v>0.54898005851691778</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-8.4045875767842517</c:v>
+                  <c:v>-0.57616035275168542</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-6.8314317576000576</c:v>
+                  <c:v>-0.37037505736225285</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-7.5876264234743758</c:v>
+                  <c:v>0.20706772387393357</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-8.0628816131047643</c:v>
+                  <c:v>0.63232173450796836</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-7.4017949639469407</c:v>
+                  <c:v>-0.81360437114017259</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-7.3565524703772098</c:v>
+                  <c:v>-0.1519382691485589</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-7.1239349666630005</c:v>
+                  <c:v>-1.1171229395736191</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-7.1949262902276132</c:v>
+                  <c:v>-0.21368306013800975</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-6.8904246939418954</c:v>
+                  <c:v>-0.77639726092365891</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-7.2441457657896535</c:v>
+                  <c:v>-1.0097518643374315</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-6.267853171545994</c:v>
+                  <c:v>0.67143699278130953</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-6.9462551773267478</c:v>
+                  <c:v>0.18036314238452178</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-5.7238090035389178</c:v>
+                  <c:v>1.0901119399391064</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-7.1052218039017134</c:v>
+                  <c:v>0.87766944402937952</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-7.0037694822981393</c:v>
+                  <c:v>-0.65593678060713501</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-8.4189897680953436</c:v>
+                  <c:v>-1.122141510374604</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-7.9203390864540779</c:v>
+                  <c:v>1.0890741854664157</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-8.1713712274290629</c:v>
+                  <c:v>0.35869818833725731</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-8.2882834405440917</c:v>
+                  <c:v>0.23399521023611669</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-7.3304427759071586</c:v>
+                  <c:v>0.52889813814681474</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-7.8827595427919732</c:v>
+                  <c:v>1.4189569347458928</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-6.7688299044261839</c:v>
+                  <c:v>0.6649313175921634</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-7.4751312628663982</c:v>
+                  <c:v>0.85857316144938522</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-6.5484745315370674</c:v>
+                  <c:v>1.592372520139179</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-7.21939045912859</c:v>
+                  <c:v>0.11085249479720005</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-7.1538113642791359</c:v>
+                  <c:v>1.1018786472495776</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-6.9815885141974832</c:v>
+                  <c:v>-0.31791142507290715</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-6.756051745404875</c:v>
+                  <c:v>-1.5557601495975177</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-8.2109526327235471</c:v>
+                  <c:v>0.68223742791815312</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-6.9238200666900411</c:v>
+                  <c:v>-0.14247911829261284</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-6.9771662308075975</c:v>
+                  <c:v>2.3475336335450265</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-7.5922479112414294</c:v>
+                  <c:v>0.81749983636154866</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-8.5042013025886263</c:v>
+                  <c:v>-1.5530293769975287</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-8.8012346056984825</c:v>
+                  <c:v>-1.1363828164458027</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-6.8332517081680635</c:v>
+                  <c:v>0.87976527094951962</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-8.5691496937697593</c:v>
+                  <c:v>0.90286417118159079</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-8.0407995480463796</c:v>
+                  <c:v>1.5404825551586327</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-8.4871297003692234</c:v>
+                  <c:v>0.81992149200823405</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-8.467654781127294</c:v>
+                  <c:v>0.18638848998307367</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-6.6819719588529551</c:v>
+                  <c:v>-2.065087019582279E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-7.586336686051709</c:v>
+                  <c:v>0.63658657399855656</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-6.6634515946384454</c:v>
+                  <c:v>-0.50010011246922659</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-7.7597304815817552</c:v>
+                  <c:v>0.64971154163504252</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-7.5505629015260638</c:v>
+                  <c:v>-0.28822978482276085</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-7.9618883263929092</c:v>
+                  <c:v>-0.29357851534086876</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-8.1266430656000921</c:v>
+                  <c:v>-0.68424347782547557</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-7.2630907695056521</c:v>
+                  <c:v>-1.2712938962354201</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-7.9954503292888148</c:v>
+                  <c:v>0.3122100559021419</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-7.200771809885282</c:v>
+                  <c:v>3.3396193600660808</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>1.7379214493603286</c:v>
@@ -2309,1832 +2309,1832 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>2551.3000000000002</v>
+        <v>2547.1999999999998</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2552.6269938798309</v>
+        <v>2545.9293871259965</v>
       </c>
       <c r="D2">
-        <v>-4.4851907273260024E-3</v>
+        <v>3.8060657890598926E-2</v>
       </c>
       <c r="E2">
-        <v>1.3269938798307521</v>
+        <v>-1.2706128740032909</v>
       </c>
       <c r="F2">
-        <v>-4.4851907273260024E-3</v>
+        <v>3.8060657890598926E-2</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
       </c>
       <c r="I2">
-        <v>1.3269938798307521</v>
+        <v>0.77226195560718025</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2551.3000000000002</v>
+        <v>2547.1999999999998</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="C3">
-        <v>2552.6269938798309</v>
+        <v>2546.4469235601618</v>
       </c>
       <c r="D3">
-        <v>-4.4851907273260024E-3</v>
+        <v>-16.033531404365661</v>
       </c>
       <c r="E3">
-        <v>1.3269938798307521</v>
+        <v>-0.75307643983796879</v>
       </c>
       <c r="F3">
-        <v>-4.4851907273260024E-3</v>
+        <v>-3.3531404365660933E-2</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>2551.3000000000002</v>
+        <v>2547.1999999999998</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>-14.05</v>
       </c>
       <c r="C4">
-        <v>2552.6269938798309</v>
+        <v>2546.2116404532112</v>
       </c>
       <c r="D4">
-        <v>-4.4851907273260024E-3</v>
+        <v>-14.078151024150456</v>
       </c>
       <c r="E4">
-        <v>1.3269938798307521</v>
+        <v>-0.98835954678861526</v>
       </c>
       <c r="F4">
-        <v>-4.4851907273260024E-3</v>
+        <v>-2.8151024150455228E-2</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>2551.3000000000002</v>
+        <v>2547.1999999999998</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-12.03</v>
       </c>
       <c r="C5">
-        <v>2552.6269938798309</v>
+        <v>2547.8877727524864</v>
       </c>
       <c r="D5">
-        <v>-4.4851907273260024E-3</v>
+        <v>-12.024679703019872</v>
       </c>
       <c r="E5">
-        <v>1.3269938798307521</v>
+        <v>0.68777275248658043</v>
       </c>
       <c r="F5">
-        <v>-4.4851907273260024E-3</v>
+        <v>5.3202969801269262E-3</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.9555555555555556</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>2551.3000000000002</v>
+        <v>2547.1999999999998</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="C6">
-        <v>2552.6269938798309</v>
+        <v>2548.2428860240684</v>
       </c>
       <c r="D6">
-        <v>-4.4851907273260024E-3</v>
+        <v>-9.9984464405251838</v>
       </c>
       <c r="E6">
-        <v>1.3269938798307521</v>
+        <v>1.0428860240685935</v>
       </c>
       <c r="F6">
-        <v>-4.4851907273260024E-3</v>
+        <v>1.5535594748161685E-3</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
       </c>
       <c r="I6">
-        <v>1.3269938798307521</v>
+        <v>1.6693819521865407</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>2503.8000000000002</v>
+        <v>2547.1999999999998</v>
       </c>
       <c r="B7">
-        <v>-8.1</v>
+        <v>-8</v>
       </c>
       <c r="C7">
-        <v>2496.2411788132918</v>
+        <v>2547.7728597470114</v>
       </c>
       <c r="D7">
-        <v>-8.3697857044311181</v>
+        <v>-7.9881881569685369</v>
       </c>
       <c r="E7">
-        <v>-7.5588211867084283</v>
+        <v>0.57285974701153464</v>
       </c>
       <c r="F7">
-        <v>-0.26978570443111849</v>
+        <v>1.1811843031463098E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>2503.8000000000002</v>
+        <v>2547.1999999999998</v>
       </c>
       <c r="B8">
-        <v>-6.07</v>
+        <v>-5.97</v>
       </c>
       <c r="C8">
-        <v>2495.8247531971597</v>
+        <v>2547.3522789871122</v>
       </c>
       <c r="D8">
-        <v>-6.2593720473096486</v>
+        <v>-5.9674214421287779</v>
       </c>
       <c r="E8">
-        <v>-7.9752468028405019</v>
+        <v>0.15227898711236776</v>
       </c>
       <c r="F8">
-        <v>-0.18937204730964829</v>
+        <v>2.5785578712218538E-3</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>2503.8000000000002</v>
+        <v>2547.1999999999998</v>
       </c>
       <c r="B9">
-        <v>-4.05</v>
+        <v>-4</v>
       </c>
       <c r="C9">
-        <v>2495.7099225113825</v>
+        <v>2546.1858388692103</v>
       </c>
       <c r="D9">
-        <v>-4.1570391839577363</v>
+        <v>-3.9625402723869576</v>
       </c>
       <c r="E9">
-        <v>-8.0900774886176805</v>
+        <v>-1.0141611307894891</v>
       </c>
       <c r="F9">
-        <v>-0.10703918395773648</v>
+        <v>3.7459727613042393E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>2503.8000000000002</v>
+        <v>2547.1999999999998</v>
       </c>
       <c r="B10">
-        <v>-2.02</v>
+        <v>-1.97</v>
       </c>
       <c r="C10">
-        <v>2496.6596664600502</v>
+        <v>2547.2516703427868</v>
       </c>
       <c r="D10">
-        <v>-2.0728641541344333</v>
+        <v>-1.9383146677688079</v>
       </c>
       <c r="E10">
-        <v>-7.1403335399500065</v>
+        <v>5.1670342787019763E-2</v>
       </c>
       <c r="F10">
-        <v>-5.2864154134433239E-2</v>
+        <v>3.1685332231192076E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>2503.8000000000002</v>
+        <v>2547.1999999999998</v>
       </c>
       <c r="B11">
-        <v>-0.05</v>
+        <v>0.03</v>
       </c>
       <c r="C11">
-        <v>2496.9284008656341</v>
+        <v>2546.0245645942591</v>
       </c>
       <c r="D11">
-        <v>-3.0404659108945655E-2</v>
+        <v>6.1885082286603749E-2</v>
       </c>
       <c r="E11">
-        <v>-6.8715991343660789</v>
+        <v>-1.1754354057406999</v>
       </c>
       <c r="F11">
-        <v>1.9595340891054348E-2</v>
+        <v>3.188508228660375E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>2503.8000000000002</v>
+        <v>2547.1999999999998</v>
       </c>
       <c r="B12">
-        <v>1.98</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="C12">
-        <v>2496.4083251738552</v>
+        <v>2547.09168199543</v>
       </c>
       <c r="D12">
-        <v>2.0497566309857778</v>
+        <v>2.0578829706810189</v>
       </c>
       <c r="E12">
-        <v>-7.3916748261449357</v>
+        <v>-0.10831800456981</v>
       </c>
       <c r="F12">
-        <v>6.9756630985777779E-2</v>
+        <v>2.7882970681019081E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>2503.8000000000002</v>
+        <v>2547.1999999999998</v>
       </c>
       <c r="B13">
-        <v>3.98</v>
+        <v>4.03</v>
       </c>
       <c r="C13">
-        <v>2497.3292322976931</v>
+        <v>2546.720148124889</v>
       </c>
       <c r="D13">
-        <v>4.1018422666443612</v>
+        <v>4.0632395906416958</v>
       </c>
       <c r="E13">
-        <v>-6.4707677023070573</v>
+        <v>-0.47985187511085314</v>
       </c>
       <c r="F13">
-        <v>0.12184226664436126</v>
+        <v>3.3239590641695571E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>2503.8000000000002</v>
+        <v>2547.1999999999998</v>
       </c>
       <c r="B14">
-        <v>5.98</v>
+        <v>6.03</v>
       </c>
       <c r="C14">
-        <v>2496.5297255228884</v>
+        <v>2547.7421126385711</v>
       </c>
       <c r="D14">
-        <v>6.1458288621895756</v>
+        <v>6.0541109786432949</v>
       </c>
       <c r="E14">
-        <v>-7.2702744771117978</v>
+        <v>0.54211263857132508</v>
       </c>
       <c r="F14">
-        <v>0.16582886218957515</v>
+        <v>2.41109786432947E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>2503.8000000000002</v>
+        <v>2547.1999999999998</v>
       </c>
       <c r="B15">
         <v>8.0299999999999994</v>
       </c>
       <c r="C15">
-        <v>2496.8939656750604</v>
+        <v>2547.4781867491056</v>
       </c>
       <c r="D15">
-        <v>8.1861743437266909</v>
+        <v>8.0415012936015593</v>
       </c>
       <c r="E15">
-        <v>-6.9060343249398102</v>
+        <v>0.27818674910577101</v>
       </c>
       <c r="F15">
-        <v>0.15617434372669159</v>
+        <v>1.1501293601559937E-2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>2503.8000000000002</v>
+        <v>2547.1999999999998</v>
       </c>
       <c r="B16">
         <v>10.029999999999999</v>
       </c>
       <c r="C16">
-        <v>2497.5338916129735</v>
+        <v>2546.9852388089116</v>
       </c>
       <c r="D16">
-        <v>10.186165962470456</v>
+        <v>10.024634943072334</v>
       </c>
       <c r="E16">
-        <v>-6.2661083870266339</v>
+        <v>-0.21476119108820058</v>
       </c>
       <c r="F16">
-        <v>0.15616596247045678</v>
+        <v>-5.3650569276655347E-3</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>2503.8000000000002</v>
+        <v>2547.1999999999998</v>
       </c>
       <c r="B17">
-        <v>12</v>
+        <v>12.03</v>
       </c>
       <c r="C17">
-        <v>2497.5064322143307</v>
+        <v>2547.8189523362194</v>
       </c>
       <c r="D17">
-        <v>12.174605791928711</v>
+        <v>11.992059083301765</v>
       </c>
       <c r="E17">
-        <v>-6.2935677856694383</v>
+        <v>0.61895233621953594</v>
       </c>
       <c r="F17">
-        <v>0.17460579192871073</v>
+        <v>-3.7940916698234517E-2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>2503.8000000000002</v>
+        <v>2547.1999999999998</v>
       </c>
       <c r="B18">
         <v>14.03</v>
       </c>
       <c r="C18">
-        <v>2497.6503989817761</v>
+        <v>2547.8290019560222</v>
       </c>
       <c r="D18">
-        <v>14.188421987777579</v>
+        <v>13.960189069617375</v>
       </c>
       <c r="E18">
-        <v>-6.1496010182240752</v>
+        <v>0.62900195602242093</v>
       </c>
       <c r="F18">
-        <v>0.15842198777757943</v>
+        <v>-6.9810930382624647E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>2503.8000000000002</v>
+        <v>2547.1999999999998</v>
       </c>
       <c r="B19">
-        <v>16.03</v>
+        <v>16</v>
       </c>
       <c r="C19">
-        <v>2498.6972371501938</v>
+        <v>2549.7112708069021</v>
       </c>
       <c r="D19">
-        <v>16.161403106758325</v>
+        <v>15.92258331649774</v>
       </c>
       <c r="E19">
-        <v>-5.1027628498063677</v>
+        <v>2.5112708069023029</v>
       </c>
       <c r="F19">
-        <v>0.13140310675832367</v>
+        <v>-7.7416683502260497E-2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>2603.5</v>
+        <v>2646.9</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2596.7097273932418</v>
+        <v>2646.3610605580579</v>
       </c>
       <c r="D20">
-        <v>1.9529443614056962E-2</v>
+        <v>3.6850821786996106E-2</v>
       </c>
       <c r="E20">
-        <v>-6.790272606758208</v>
+        <v>-0.53893944194214782</v>
       </c>
       <c r="F20">
-        <v>1.9529443614056962E-2</v>
+        <v>3.6850821786996106E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>2603.5</v>
+        <v>2646.9</v>
       </c>
       <c r="B21">
-        <v>-15.92</v>
+        <v>-15.97</v>
       </c>
       <c r="C21">
-        <v>2597.0488529488903</v>
+        <v>2646.1192528550828</v>
       </c>
       <c r="D21">
-        <v>-16.617156872767133</v>
+        <v>-16.042089639424518</v>
       </c>
       <c r="E21">
-        <v>-6.4511470511097286</v>
+        <v>-0.78074714491731356</v>
       </c>
       <c r="F21">
-        <v>-0.6971568727671329</v>
+        <v>-7.208963942451696E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>2603.5</v>
+        <v>2646.9</v>
       </c>
       <c r="B22">
-        <v>-14.1</v>
+        <v>-14.05</v>
       </c>
       <c r="C22">
-        <v>2596.7113114115741</v>
+        <v>2646.6420016368711</v>
       </c>
       <c r="D22">
-        <v>-14.667805412980156</v>
+        <v>-14.106678484090734</v>
       </c>
       <c r="E22">
-        <v>-6.7886885884258845</v>
+        <v>-0.2579983631289906</v>
       </c>
       <c r="F22">
-        <v>-0.56780541298015663</v>
+        <v>-5.6678484090733505E-2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>2603.5</v>
+        <v>2646.9</v>
       </c>
       <c r="B23">
-        <v>-12.1</v>
+        <v>-12.03</v>
       </c>
       <c r="C23">
-        <v>2596.4845067752399</v>
+        <v>2647.5089576327341</v>
       </c>
       <c r="D23">
-        <v>-12.577177230235511</v>
+        <v>-12.054648554778868</v>
       </c>
       <c r="E23">
-        <v>-7.0154932247601209</v>
+        <v>0.60895763273401826</v>
       </c>
       <c r="F23">
-        <v>-0.47717723023551173</v>
+        <v>-2.464855477886907E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>2603.5</v>
+        <v>2646.9</v>
       </c>
       <c r="B24">
-        <v>-10.1</v>
+        <v>-10</v>
       </c>
       <c r="C24">
-        <v>2595.9390967341997</v>
+        <v>2647.0701507876643</v>
       </c>
       <c r="D24">
-        <v>-10.471638818160269</v>
+        <v>-10.02196129359316</v>
       </c>
       <c r="E24">
-        <v>-7.5609032658003343</v>
+        <v>0.17015078766416991</v>
       </c>
       <c r="F24">
-        <v>-0.37163881816026922</v>
+        <v>-2.1961293593159681E-2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>2603.5</v>
+        <v>2646.9</v>
       </c>
       <c r="B25">
-        <v>-8.1</v>
+        <v>-8</v>
       </c>
       <c r="C25">
-        <v>2596.2744182646684</v>
+        <v>2647.7226107055308</v>
       </c>
       <c r="D25">
-        <v>-8.363534890148614</v>
+        <v>-7.9981208567201794</v>
       </c>
       <c r="E25">
-        <v>-7.2255817353316161</v>
+        <v>0.82261070553067839</v>
       </c>
       <c r="F25">
-        <v>-0.26353489014861431</v>
+        <v>1.8791432798206387E-3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>2603.5</v>
+        <v>2646.9</v>
       </c>
       <c r="B26">
-        <v>-6.05</v>
+        <v>-5.97</v>
       </c>
       <c r="C26">
-        <v>2595.4162980721471</v>
+        <v>2646.1052241407219</v>
       </c>
       <c r="D26">
-        <v>-6.2581059220139803</v>
+        <v>-6.0037713475129646</v>
       </c>
       <c r="E26">
-        <v>-8.0837019278528714</v>
+        <v>-0.79477585927816108</v>
       </c>
       <c r="F26">
-        <v>-0.20810592201398048</v>
+        <v>-3.3771347512964844E-2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>2603.5</v>
+        <v>2646.9</v>
       </c>
       <c r="B27">
-        <v>-4.07</v>
+        <v>-4</v>
       </c>
       <c r="C27">
-        <v>2595.5516263497607</v>
+        <v>2647.5726051465244</v>
       </c>
       <c r="D27">
-        <v>-4.1714191812708714</v>
+        <v>-3.982384789331276</v>
       </c>
       <c r="E27">
-        <v>-7.9483736502393185</v>
+        <v>0.67260514652434722</v>
       </c>
       <c r="F27">
-        <v>-0.10141918127087113</v>
+        <v>1.7615210668723957E-2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>2603.5</v>
+        <v>2646.9</v>
       </c>
       <c r="B28">
-        <v>-2.02</v>
+        <v>-1.95</v>
       </c>
       <c r="C28">
-        <v>2596.7735963581545</v>
+        <v>2646.5593170825096</v>
       </c>
       <c r="D28">
-        <v>-2.0700357807338858</v>
+        <v>-1.9608438950179123</v>
       </c>
       <c r="E28">
-        <v>-6.7264036418455362</v>
+        <v>-0.34068291749053969</v>
       </c>
       <c r="F28">
-        <v>-5.0035780733885815E-2</v>
+        <v>-1.0843895017912386E-2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>2603.5</v>
+        <v>2646.9</v>
       </c>
       <c r="B29">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>2596.5327983845996</v>
+        <v>2646.2553114817219</v>
       </c>
       <c r="D29">
-        <v>-3.8330361523261698E-2</v>
+        <v>1.6188854917623723E-2</v>
       </c>
       <c r="E29">
-        <v>-6.9672016154004268</v>
+        <v>-0.64468851827814433</v>
       </c>
       <c r="F29">
-        <v>1.1669638476738305E-2</v>
+        <v>1.6188854917623723E-2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>2603.5</v>
+        <v>2646.9</v>
       </c>
       <c r="B30">
-        <v>1.98</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="C30">
-        <v>2596.6591044999295</v>
+        <v>2646.314406227219</v>
       </c>
       <c r="D30">
-        <v>2.043660000702741</v>
+        <v>2.0480865812900926</v>
       </c>
       <c r="E30">
-        <v>-6.8408955000704736</v>
+        <v>-0.58559377278106695</v>
       </c>
       <c r="F30">
-        <v>6.3660000702741026E-2</v>
+        <v>1.8086581290092774E-2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>2603.5</v>
+        <v>2646.9</v>
       </c>
       <c r="B31">
-        <v>3.98</v>
+        <v>4.03</v>
       </c>
       <c r="C31">
-        <v>2597.402416780345</v>
+        <v>2646.912534486793</v>
       </c>
       <c r="D31">
-        <v>4.0944358951306468</v>
+        <v>4.0353755074811728</v>
       </c>
       <c r="E31">
-        <v>-6.0975832196550073</v>
+        <v>1.2534486792901589E-2</v>
       </c>
       <c r="F31">
-        <v>0.11443589513064678</v>
+        <v>5.3755074811725478E-3</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>2603.5</v>
+        <v>2646.9</v>
       </c>
       <c r="B32">
-        <v>5.98</v>
+        <v>6.03</v>
       </c>
       <c r="C32">
-        <v>2596.912797259607</v>
+        <v>2646.179215054578</v>
       </c>
       <c r="D32">
-        <v>6.1449824916214792</v>
+        <v>6.0259192125261736</v>
       </c>
       <c r="E32">
-        <v>-6.5872027403929678</v>
+        <v>-0.72078494542211047</v>
       </c>
       <c r="F32">
-        <v>0.16498249162147882</v>
+        <v>-4.0807874738266747E-3</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>2603.5</v>
+        <v>2646.9</v>
       </c>
       <c r="B33">
         <v>8.0299999999999994</v>
       </c>
       <c r="C33">
-        <v>2596.9123051536271</v>
+        <v>2645.9770664573489</v>
       </c>
       <c r="D33">
-        <v>8.1764768206075189</v>
+        <v>8.0181237872681397</v>
       </c>
       <c r="E33">
-        <v>-6.5876948463728695</v>
+        <v>-0.92293354265120797</v>
       </c>
       <c r="F33">
-        <v>0.14647682060751954</v>
+        <v>-1.1876212731859681E-2</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>2603.5</v>
+        <v>2646.9</v>
       </c>
       <c r="B34">
         <v>10.029999999999999</v>
       </c>
       <c r="C34">
-        <v>2597.3166841474781</v>
+        <v>2646.2560857217836</v>
       </c>
       <c r="D34">
-        <v>10.169078334240636</v>
+        <v>9.992180477943748</v>
       </c>
       <c r="E34">
-        <v>-6.1833158525219005</v>
+        <v>-0.64391427821647085</v>
       </c>
       <c r="F34">
-        <v>0.13907833424063654</v>
+        <v>-3.7819522056251387E-2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>2603.5</v>
+        <v>2646.9</v>
       </c>
       <c r="B35">
-        <v>12</v>
+        <v>12.03</v>
       </c>
       <c r="C35">
-        <v>2597.7715908892274</v>
+        <v>2646.1420143807991</v>
       </c>
       <c r="D35">
-        <v>12.148563571576039</v>
+        <v>11.978943235304008</v>
       </c>
       <c r="E35">
-        <v>-5.7284091107726454</v>
+        <v>-0.75798561920100838</v>
       </c>
       <c r="F35">
-        <v>0.14856357157603917</v>
+        <v>-5.1056764695990964E-2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>2603.5</v>
+        <v>2646.9</v>
       </c>
       <c r="B36">
-        <v>14.05</v>
+        <v>14.03</v>
       </c>
       <c r="C36">
-        <v>2597.0842176842184</v>
+        <v>2648.5693819521866</v>
       </c>
       <c r="D36">
-        <v>14.158266372085592</v>
+        <v>13.933970261828611</v>
       </c>
       <c r="E36">
-        <v>-6.4157823157815983</v>
+        <v>1.6693819521865407</v>
       </c>
       <c r="F36">
-        <v>0.1082663720855912</v>
+        <v>-9.6029738171388601E-2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>2603.5</v>
+        <v>2646.9</v>
       </c>
       <c r="B37">
-        <v>16</v>
+        <v>16.03</v>
       </c>
       <c r="C37">
-        <v>2597.6125627357496</v>
+        <v>2650.0131977330652</v>
       </c>
       <c r="D37">
-        <v>16.10497842509406</v>
+        <v>15.906436037463779</v>
       </c>
       <c r="E37">
-        <v>-5.8874372642503658</v>
+        <v>3.1131977330651353</v>
       </c>
       <c r="F37">
-        <v>0.10497842509406041</v>
+        <v>-0.12356396253622215</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>2703.2</v>
+        <v>2746.6</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>2695.8397016927493</v>
+        <v>2745.8215999280569</v>
       </c>
       <c r="D38">
-        <v>4.0162879234007507E-4</v>
+        <v>3.4519289343824491E-2</v>
       </c>
       <c r="E38">
-        <v>-7.3602983072505594</v>
+        <v>-0.77840007194299687</v>
       </c>
       <c r="F38">
-        <v>4.0162879234007507E-4</v>
+        <v>3.4519289343824491E-2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>2703.2</v>
+        <v>2746.6</v>
       </c>
       <c r="B39">
-        <v>-15.92</v>
+        <v>-15.98</v>
       </c>
       <c r="C39">
-        <v>2696.6045608659961</v>
+        <v>2746.4713988669582</v>
       </c>
       <c r="D39">
-        <v>-16.619937232429074</v>
+        <v>-16.032749827529244</v>
       </c>
       <c r="E39">
-        <v>-6.5954391340037546</v>
+        <v>-0.12860113304168408</v>
       </c>
       <c r="F39">
-        <v>-0.69993723242907357</v>
+        <v>-5.2749827529243731E-2</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>2703.2</v>
+        <v>2746.6</v>
       </c>
       <c r="B40">
-        <v>-14.1</v>
+        <v>-14.05</v>
       </c>
       <c r="C40">
-        <v>2695.7395491836041</v>
+        <v>2745.9306274961655</v>
       </c>
       <c r="D40">
-        <v>-14.676716060913851</v>
+        <v>-14.089411544356251</v>
       </c>
       <c r="E40">
-        <v>-7.460450816395678</v>
+        <v>-0.66937250383443825</v>
       </c>
       <c r="F40">
-        <v>-0.57671606091385108</v>
+        <v>-3.9411544356250161E-2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>2703.2</v>
+        <v>2746.6</v>
       </c>
       <c r="B41">
-        <v>-12.1</v>
+        <v>-12.03</v>
       </c>
       <c r="C41">
-        <v>2695.3140339710831</v>
+        <v>2747.5253773872519</v>
       </c>
       <c r="D41">
-        <v>-12.60030140522176</v>
+        <v>-12.048237717160211</v>
       </c>
       <c r="E41">
-        <v>-7.885966028916755</v>
+        <v>0.92537738725195595</v>
       </c>
       <c r="F41">
-        <v>-0.50030140522176048</v>
+        <v>-1.8237717160211275E-2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>2703.2</v>
+        <v>2746.6</v>
       </c>
       <c r="B42">
-        <v>-10.1</v>
+        <v>-10</v>
       </c>
       <c r="C42">
-        <v>2695.146865611141</v>
+        <v>2747.1489800585168</v>
       </c>
       <c r="D42">
-        <v>-10.469407515837494</v>
+        <v>-10.020598658471252</v>
       </c>
       <c r="E42">
-        <v>-8.0531343888587799</v>
+        <v>0.54898005851691778</v>
       </c>
       <c r="F42">
-        <v>-0.36940751583749432</v>
+        <v>-2.0598658471252307E-2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>2703.2</v>
+        <v>2746.6</v>
       </c>
       <c r="B43">
-        <v>-8.1</v>
+        <v>-8</v>
       </c>
       <c r="C43">
-        <v>2694.7954124232156</v>
+        <v>2746.0238396472482</v>
       </c>
       <c r="D43">
-        <v>-8.3712806455429423</v>
+        <v>-8.0097229676237021</v>
       </c>
       <c r="E43">
-        <v>-8.4045875767842517</v>
+        <v>-0.57616035275168542</v>
       </c>
       <c r="F43">
-        <v>-0.27128064554294262</v>
+        <v>-9.7229676237020612E-3</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>2703.2</v>
+        <v>2746.6</v>
       </c>
       <c r="B44">
-        <v>-6.05</v>
+        <v>-5.98</v>
       </c>
       <c r="C44">
-        <v>2696.3685682423998</v>
+        <v>2746.2296249426377</v>
       </c>
       <c r="D44">
-        <v>-6.2571384547293976</v>
+        <v>-5.989479192743131</v>
       </c>
       <c r="E44">
-        <v>-6.8314317576000576</v>
+        <v>-0.37037505736225285</v>
       </c>
       <c r="F44">
-        <v>-0.20713845472939774</v>
+        <v>-9.4791927431305822E-3</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>2703.2</v>
+        <v>2746.6</v>
       </c>
       <c r="B45">
-        <v>-4.07</v>
+        <v>-3.98</v>
       </c>
       <c r="C45">
-        <v>2695.6123735765254</v>
+        <v>2746.8070677238738</v>
       </c>
       <c r="D45">
-        <v>-4.1730370367198324</v>
+        <v>-3.9970672761787207</v>
       </c>
       <c r="E45">
-        <v>-7.5876264234743758</v>
+        <v>0.20706772387393357</v>
       </c>
       <c r="F45">
-        <v>-0.10303703671983211</v>
+        <v>-1.7067276178720725E-2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>2703.2</v>
+        <v>2746.6</v>
       </c>
       <c r="B46">
-        <v>-2.02</v>
+        <v>-1.98</v>
       </c>
       <c r="C46">
-        <v>2695.1371183868951</v>
+        <v>2747.2323217345079</v>
       </c>
       <c r="D46">
-        <v>-2.0802511431607829</v>
+        <v>-1.9909126053283168</v>
       </c>
       <c r="E46">
-        <v>-8.0628816131047643</v>
+        <v>0.63232173450796836</v>
       </c>
       <c r="F46">
-        <v>-6.0251143160782838E-2</v>
+        <v>-1.0912605328316838E-2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>2703.2</v>
+        <v>2746.6</v>
       </c>
       <c r="B47">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>2695.7982050360529</v>
+        <v>2745.7863956288597</v>
       </c>
       <c r="D47">
-        <v>-4.6082395594950969E-2</v>
+        <v>1.5591486340602763E-2</v>
       </c>
       <c r="E47">
-        <v>-7.4017949639469407</v>
+        <v>-0.81360437114017259</v>
       </c>
       <c r="F47">
-        <v>3.9176044050490341E-3</v>
+        <v>1.5591486340602763E-2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>2703.2</v>
+        <v>2746.6</v>
       </c>
       <c r="B48">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="C48">
-        <v>2695.8434475296226</v>
+        <v>2746.4480617308514</v>
       </c>
       <c r="D48">
-        <v>2.0380471851293285</v>
+        <v>2.0326067914318404</v>
       </c>
       <c r="E48">
-        <v>-7.3565524703772098</v>
+        <v>-0.1519382691485589</v>
       </c>
       <c r="F48">
-        <v>5.8047185129328494E-2</v>
+        <v>1.2606791431840403E-2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>2703.2</v>
+        <v>2746.6</v>
       </c>
       <c r="B49">
-        <v>3.98</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="C49">
-        <v>2696.0760650333368</v>
+        <v>2745.4828770604263</v>
       </c>
       <c r="D49">
-        <v>4.0919960469829837</v>
+        <v>4.0398961147861154</v>
       </c>
       <c r="E49">
-        <v>-7.1239349666630005</v>
+        <v>-1.1171229395736191</v>
       </c>
       <c r="F49">
-        <v>0.11199604698298371</v>
+        <v>1.9896114786115859E-2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>2703.2</v>
+        <v>2746.6</v>
       </c>
       <c r="B50">
-        <v>6</v>
+        <v>6.02</v>
       </c>
       <c r="C50">
-        <v>2696.0050737097722</v>
+        <v>2746.3863169398619</v>
       </c>
       <c r="D50">
-        <v>6.1304429633772202</v>
+        <v>6.0409060582087264</v>
       </c>
       <c r="E50">
-        <v>-7.1949262902276132</v>
+        <v>-0.21368306013800975</v>
       </c>
       <c r="F50">
-        <v>0.13044296337722017</v>
+        <v>2.0906058208726819E-2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>2703.2</v>
+        <v>2746.6</v>
       </c>
       <c r="B51">
-        <v>8</v>
+        <v>8.02</v>
       </c>
       <c r="C51">
-        <v>2696.3095753060579</v>
+        <v>2745.8236027390763</v>
       </c>
       <c r="D51">
-        <v>8.1545484530168721</v>
+        <v>8.0198259233273799</v>
       </c>
       <c r="E51">
-        <v>-6.8904246939418954</v>
+        <v>-0.77639726092365891</v>
       </c>
       <c r="F51">
-        <v>0.15454845301687214</v>
+        <v>-1.7407667261970516E-4</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>2703.2</v>
+        <v>2746.6</v>
       </c>
       <c r="B52">
-        <v>10.029999999999999</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="C52">
-        <v>2695.9558542342102</v>
+        <v>2745.5902481356625</v>
       </c>
       <c r="D52">
-        <v>10.155231860698313</v>
+        <v>10.003923573001162</v>
       </c>
       <c r="E52">
-        <v>-7.2441457657896535</v>
+        <v>-1.0097518643374315</v>
       </c>
       <c r="F52">
-        <v>0.12523186069831382</v>
+        <v>-4.6076426998839182E-2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>2703.2</v>
+        <v>2746.6</v>
       </c>
       <c r="B53">
-        <v>12.03</v>
+        <v>12.02</v>
       </c>
       <c r="C53">
-        <v>2696.9321468284538</v>
+        <v>2747.2714369927812</v>
       </c>
       <c r="D53">
-        <v>12.126796436998964</v>
+        <v>11.959817032145448</v>
       </c>
       <c r="E53">
-        <v>-6.267853171545994</v>
+        <v>0.67143699278130953</v>
       </c>
       <c r="F53">
-        <v>9.6796436998964452E-2</v>
+        <v>-6.018296785455135E-2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>2703.2</v>
+        <v>2746.6</v>
       </c>
       <c r="B54">
-        <v>14.03</v>
+        <v>14.02</v>
       </c>
       <c r="C54">
-        <v>2696.2537448226731</v>
+        <v>2746.7803631423844</v>
       </c>
       <c r="D54">
-        <v>14.105096120263466</v>
+        <v>13.941249912397863</v>
       </c>
       <c r="E54">
-        <v>-6.9462551773267478</v>
+        <v>0.18036314238452178</v>
       </c>
       <c r="F54">
-        <v>7.5096120263467014E-2</v>
+        <v>-7.8750087602136531E-2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>2703.2</v>
+        <v>2746.6</v>
       </c>
       <c r="B55">
         <v>16</v>
       </c>
       <c r="C55">
-        <v>2697.4761909964609</v>
+        <v>2747.690111939939</v>
       </c>
       <c r="D55">
-        <v>16.064899658214507</v>
+        <v>15.90495471653329</v>
       </c>
       <c r="E55">
-        <v>-5.7238090035389178</v>
+        <v>1.0901119399391064</v>
       </c>
       <c r="F55">
-        <v>6.4899658214507383E-2</v>
+        <v>-9.5045283466710373E-2</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>2802.9</v>
+        <v>2846.3</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>2795.7947781960984</v>
+        <v>2847.1776694440296</v>
       </c>
       <c r="D56">
-        <v>-1.4027392161715059E-2</v>
+        <v>3.079232954715734E-2</v>
       </c>
       <c r="E56">
-        <v>-7.1052218039017134</v>
+        <v>0.87766944402937952</v>
       </c>
       <c r="F56">
-        <v>-1.4027392161715059E-2</v>
+        <v>3.079232954715734E-2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>2802.9</v>
+        <v>2846.3</v>
       </c>
       <c r="B57">
-        <v>-15.9</v>
+        <v>-15.97</v>
       </c>
       <c r="C57">
-        <v>2795.896230517702</v>
+        <v>2845.644063219393</v>
       </c>
       <c r="D57">
-        <v>-16.605901942546009</v>
+        <v>-16.026286410829165</v>
       </c>
       <c r="E57">
-        <v>-7.0037694822981393</v>
+        <v>-0.65593678060713501</v>
       </c>
       <c r="F57">
-        <v>-0.70590194254600824</v>
+        <v>-5.6286410829164524E-2</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>2802.9</v>
+        <v>2846.3</v>
       </c>
       <c r="B58">
-        <v>-14.08</v>
+        <v>-14.07</v>
       </c>
       <c r="C58">
-        <v>2794.4810102319047</v>
+        <v>2845.1778584896256</v>
       </c>
       <c r="D58">
-        <v>-14.672862763213463</v>
+        <v>-14.088973711307702</v>
       </c>
       <c r="E58">
-        <v>-8.4189897680953436</v>
+        <v>-1.122141510374604</v>
       </c>
       <c r="F58">
-        <v>-0.59286276321346243</v>
+        <v>-1.8973711307701535E-2</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>2802.9</v>
+        <v>2846.3</v>
       </c>
       <c r="B59">
-        <v>-12.08</v>
+        <v>-12</v>
       </c>
       <c r="C59">
-        <v>2794.979660913546</v>
+        <v>2847.3890741854666</v>
       </c>
       <c r="D59">
-        <v>-12.577099459206813</v>
+        <v>-12.022449548791368</v>
       </c>
       <c r="E59">
-        <v>-7.9203390864540779</v>
+        <v>1.0890741854664157</v>
       </c>
       <c r="F59">
-        <v>-0.49709945920681342</v>
+        <v>-2.2449548791367846E-2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>2802.9</v>
+        <v>2846.3</v>
       </c>
       <c r="B60">
-        <v>-10.08</v>
+        <v>-10.02</v>
       </c>
       <c r="C60">
-        <v>2794.728628772571</v>
+        <v>2846.6586981883374</v>
       </c>
       <c r="D60">
-        <v>-10.477166740430521</v>
+        <v>-10.020285107856646</v>
       </c>
       <c r="E60">
-        <v>-8.1713712274290629</v>
+        <v>0.35869818833725731</v>
       </c>
       <c r="F60">
-        <v>-0.3971667404305208</v>
+        <v>-2.8510785664614957E-4</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>2802.9</v>
+        <v>2846.3</v>
       </c>
       <c r="B61">
-        <v>-8.08</v>
+        <v>-8</v>
       </c>
       <c r="C61">
-        <v>2794.611716559456</v>
+        <v>2846.5339952102363</v>
       </c>
       <c r="D61">
-        <v>-8.3879160412159717</v>
+        <v>-7.9945112060019206</v>
       </c>
       <c r="E61">
-        <v>-8.2882834405440917</v>
+        <v>0.23399521023611669</v>
       </c>
       <c r="F61">
-        <v>-0.3079160412159716</v>
+        <v>5.4887939980794442E-3</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>2802.9</v>
+        <v>2846.3</v>
       </c>
       <c r="B62">
-        <v>-6.08</v>
+        <v>-5.97</v>
       </c>
       <c r="C62">
-        <v>2795.5695572240929</v>
+        <v>2846.828898138147</v>
       </c>
       <c r="D62">
-        <v>-6.2873149033130069</v>
+        <v>-5.9816452622932479</v>
       </c>
       <c r="E62">
-        <v>-7.3304427759071586</v>
+        <v>0.52889813814681474</v>
       </c>
       <c r="F62">
-        <v>-0.20731490331300684</v>
+        <v>-1.1645262293248138E-2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>2802.9</v>
+        <v>2846.3</v>
       </c>
       <c r="B63">
-        <v>-4.05</v>
+        <v>-3.97</v>
       </c>
       <c r="C63">
-        <v>2795.0172404572081</v>
+        <v>2847.7189569347461</v>
       </c>
       <c r="D63">
-        <v>-4.1843785093905606</v>
+        <v>-3.9806370970456171</v>
       </c>
       <c r="E63">
-        <v>-7.8827595427919732</v>
+        <v>1.4189569347458928</v>
       </c>
       <c r="F63">
-        <v>-0.13437850939056073</v>
+        <v>-1.0637097045616883E-2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>2802.9</v>
+        <v>2846.3</v>
       </c>
       <c r="B64">
-        <v>-2.0499999999999998</v>
+        <v>-1.97</v>
       </c>
       <c r="C64">
-        <v>2796.1311700955739</v>
+        <v>2846.9649313175923</v>
       </c>
       <c r="D64">
-        <v>-2.1238684254234075</v>
+        <v>-1.9785733071779366</v>
       </c>
       <c r="E64">
-        <v>-6.7688299044261839</v>
+        <v>0.6649313175921634</v>
       </c>
       <c r="F64">
-        <v>-7.3868425423407658E-2</v>
+        <v>-8.5733071779365844E-3</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>2802.9</v>
+        <v>2846.3</v>
       </c>
       <c r="B65">
-        <v>-0.03</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>2795.4248687371337</v>
+        <v>2847.1585731614496</v>
       </c>
       <c r="D65">
-        <v>-4.3179158366356135E-2</v>
+        <v>2.2347810717806761E-2</v>
       </c>
       <c r="E65">
-        <v>-7.4751312628663982</v>
+        <v>0.85857316144938522</v>
       </c>
       <c r="F65">
-        <v>-1.3179158366356136E-2</v>
+        <v>2.2347810717806761E-2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>2802.9</v>
+        <v>2846.3</v>
       </c>
       <c r="B66">
-        <v>1.95</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="C66">
-        <v>2796.351525468463</v>
+        <v>2847.8923725201394</v>
       </c>
       <c r="D66">
-        <v>2.0088827758918102</v>
+        <v>2.0437523136970488</v>
       </c>
       <c r="E66">
-        <v>-6.5484745315370674</v>
+        <v>1.592372520139179</v>
       </c>
       <c r="F66">
-        <v>5.8882775891810235E-2</v>
+        <v>1.375231369704899E-2</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>2802.9</v>
+        <v>2846.3</v>
       </c>
       <c r="B67">
-        <v>4</v>
+        <v>4.03</v>
       </c>
       <c r="C67">
-        <v>2795.6806095408715</v>
+        <v>2846.4108524947974</v>
       </c>
       <c r="D67">
-        <v>4.0820809002120448</v>
+        <v>4.0448230442652102</v>
       </c>
       <c r="E67">
-        <v>-7.21939045912859</v>
+        <v>0.11085249479720005</v>
       </c>
       <c r="F67">
-        <v>8.2080900212044838E-2</v>
+        <v>1.4823044265209973E-2</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>2802.9</v>
+        <v>2846.3</v>
       </c>
       <c r="B68">
-        <v>6</v>
+        <v>6.03</v>
       </c>
       <c r="C68">
-        <v>2795.746188635721</v>
+        <v>2847.4018786472498</v>
       </c>
       <c r="D68">
-        <v>6.1022636380323076</v>
+        <v>6.0499747081435453</v>
       </c>
       <c r="E68">
-        <v>-7.1538113642791359</v>
+        <v>1.1018786472495776</v>
       </c>
       <c r="F68">
-        <v>0.10226363803230765</v>
+        <v>1.9974708143545072E-2</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>2802.9</v>
+        <v>2846.3</v>
       </c>
       <c r="B69">
-        <v>8</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="C69">
-        <v>2795.9184114858026</v>
+        <v>2845.9820885749273</v>
       </c>
       <c r="D69">
-        <v>8.1218776663112457</v>
+        <v>8.0218148624212233</v>
       </c>
       <c r="E69">
-        <v>-6.9815885141974832</v>
+        <v>-0.31791142507290715</v>
       </c>
       <c r="F69">
-        <v>0.12187766631124575</v>
+        <v>-8.1851375787760361E-3</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>2802.9</v>
+        <v>2846.3</v>
       </c>
       <c r="B70">
-        <v>10.02</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="C70">
-        <v>2796.1439482545952</v>
+        <v>2844.7442398504027</v>
       </c>
       <c r="D70">
-        <v>10.125733522139594</v>
+        <v>10.010255424347752</v>
       </c>
       <c r="E70">
-        <v>-6.756051745404875</v>
+        <v>-1.5557601495975177</v>
       </c>
       <c r="F70">
-        <v>0.10573352213959453</v>
+        <v>-1.9744575652246965E-2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>2802.9</v>
+        <v>2846.3</v>
       </c>
       <c r="B71">
-        <v>12.02</v>
+        <v>12.03</v>
       </c>
       <c r="C71">
-        <v>2794.6890473672765</v>
+        <v>2846.9822374279183</v>
       </c>
       <c r="D71">
-        <v>12.101475494714952</v>
+        <v>11.979109888484302</v>
       </c>
       <c r="E71">
-        <v>-8.2109526327235471</v>
+        <v>0.68223742791815312</v>
       </c>
       <c r="F71">
-        <v>8.1475494714952745E-2</v>
+        <v>-5.0890111515697001E-2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>2802.9</v>
+        <v>2846.3</v>
       </c>
       <c r="B72">
-        <v>14.02</v>
+        <v>14.03</v>
       </c>
       <c r="C72">
-        <v>2795.97617993331</v>
+        <v>2846.1575208817076</v>
       </c>
       <c r="D72">
-        <v>14.063340534285325</v>
+        <v>13.950538958454292</v>
       </c>
       <c r="E72">
-        <v>-6.9238200666900411</v>
+        <v>-0.14247911829261284</v>
       </c>
       <c r="F72">
-        <v>4.3340534285325916E-2</v>
+        <v>-7.9461041545707545E-2</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>2802.9</v>
+        <v>2846.3</v>
       </c>
       <c r="B73">
-        <v>16.02</v>
+        <v>16.03</v>
       </c>
       <c r="C73">
-        <v>2795.9228337691925</v>
+        <v>2848.6475336335452</v>
       </c>
       <c r="D73">
-        <v>16.040178403942591</v>
+        <v>15.91862826524571</v>
       </c>
       <c r="E73">
-        <v>-6.9771662308075975</v>
+        <v>2.3475336335450265</v>
       </c>
       <c r="F73">
-        <v>2.0178403942590961E-2</v>
+        <v>-0.1113717347542913</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>2902.6</v>
+        <v>2946</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>2895.0077520887585</v>
+        <v>2946.8174998363615</v>
       </c>
       <c r="D74">
-        <v>-1.1263801690872039E-2</v>
+        <v>2.1785954570295717E-2</v>
       </c>
       <c r="E74">
-        <v>-7.5922479112414294</v>
+        <v>0.81749983636154866</v>
       </c>
       <c r="F74">
-        <v>-1.1263801690872039E-2</v>
+        <v>2.1785954570295717E-2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>2902.6</v>
+        <v>2946</v>
       </c>
       <c r="B75">
-        <v>-15.9</v>
+        <v>-15.97</v>
       </c>
       <c r="C75">
-        <v>2894.0957986974113</v>
+        <v>2944.4469706230025</v>
       </c>
       <c r="D75">
-        <v>-16.613289495649415</v>
+        <v>-16.028679506645556</v>
       </c>
       <c r="E75">
-        <v>-8.5042013025886263</v>
+        <v>-1.5530293769975287</v>
       </c>
       <c r="F75">
-        <v>-0.71328949564941446</v>
+        <v>-5.8679506645555435E-2</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>2902.6</v>
+        <v>2946</v>
       </c>
       <c r="B76">
-        <v>-14.08</v>
+        <v>-14.07</v>
       </c>
       <c r="C76">
-        <v>2893.7987653943014</v>
+        <v>2944.8636171835542</v>
       </c>
       <c r="D76">
-        <v>-14.67505372604475</v>
+        <v>-14.087537232352965</v>
       </c>
       <c r="E76">
-        <v>-8.8012346056984825</v>
+        <v>-1.1363828164458027</v>
       </c>
       <c r="F76">
-        <v>-0.59505372604474971</v>
+        <v>-1.7537232352964338E-2</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>2902.6</v>
+        <v>2946</v>
       </c>
       <c r="B77">
-        <v>-12.08</v>
+        <v>-12.03</v>
       </c>
       <c r="C77">
-        <v>2895.7667482918318</v>
+        <v>2946.8797652709495</v>
       </c>
       <c r="D77">
-        <v>-12.557252445683966</v>
+        <v>-12.021637834770777</v>
       </c>
       <c r="E77">
-        <v>-6.8332517081680635</v>
+        <v>0.87976527094951962</v>
       </c>
       <c r="F77">
-        <v>-0.47725244568396619</v>
+        <v>8.3621652292222848E-3</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>2902.6</v>
+        <v>2946</v>
       </c>
       <c r="B78">
-        <v>-10.08</v>
+        <v>-10</v>
       </c>
       <c r="C78">
-        <v>2894.0308503062301</v>
+        <v>2946.9028641711816</v>
       </c>
       <c r="D78">
-        <v>-10.472621852844481</v>
+        <v>-9.9903141596305964</v>
       </c>
       <c r="E78">
-        <v>-8.5691496937697593</v>
+        <v>0.90286417118159079</v>
       </c>
       <c r="F78">
-        <v>-0.39262185284448137</v>
+        <v>9.6858403694035644E-3</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>2902.6</v>
+        <v>2946</v>
       </c>
       <c r="B79">
-        <v>-8.08</v>
+        <v>-8</v>
       </c>
       <c r="C79">
-        <v>2894.5592004519535</v>
+        <v>2947.5404825551586</v>
       </c>
       <c r="D79">
-        <v>-8.3746107382014561</v>
+        <v>-7.9903477662259244</v>
       </c>
       <c r="E79">
-        <v>-8.0407995480463796</v>
+        <v>1.5404825551586327</v>
       </c>
       <c r="F79">
-        <v>-0.294610738201456</v>
+        <v>9.652233774075647E-3</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>2902.6</v>
+        <v>2946</v>
       </c>
       <c r="B80">
-        <v>-6.08</v>
+        <v>-5.97</v>
       </c>
       <c r="C80">
-        <v>2894.1128702996307</v>
+        <v>2946.8199214920082</v>
       </c>
       <c r="D80">
-        <v>-6.2842973021131145</v>
+        <v>-5.9758157635188542</v>
       </c>
       <c r="E80">
-        <v>-8.4871297003692234</v>
+        <v>0.81992149200823405</v>
       </c>
       <c r="F80">
-        <v>-0.20429730211311448</v>
+        <v>-5.8157635188544887E-3</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>2902.6</v>
+        <v>2946</v>
       </c>
       <c r="B81">
-        <v>-4.05</v>
+        <v>-3.97</v>
       </c>
       <c r="C81">
-        <v>2894.1323452188726</v>
+        <v>2946.1863884899831</v>
       </c>
       <c r="D81">
-        <v>-4.1772211518863216</v>
+        <v>-3.9814055826177954</v>
       </c>
       <c r="E81">
-        <v>-8.467654781127294</v>
+        <v>0.18638848998307367</v>
       </c>
       <c r="F81">
-        <v>-0.12722115188632177</v>
+        <v>-1.1405582617795229E-2</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>2902.6</v>
+        <v>2946</v>
       </c>
       <c r="B82">
-        <v>-2.0499999999999998</v>
+        <v>-1.97</v>
       </c>
       <c r="C82">
-        <v>2895.918028041147</v>
+        <v>2945.9793491298042</v>
       </c>
       <c r="D82">
-        <v>-2.0985463575942265</v>
+        <v>-1.9818855537732203</v>
       </c>
       <c r="E82">
-        <v>-6.6819719588529551</v>
+        <v>-2.065087019582279E-2</v>
       </c>
       <c r="F82">
-        <v>-4.8546357594226652E-2</v>
+        <v>-1.1885553773220314E-2</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>2902.6</v>
+        <v>2946</v>
       </c>
       <c r="B83">
-        <v>-0.03</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>2895.0136633139482</v>
+        <v>2946.6365865739986</v>
       </c>
       <c r="D83">
-        <v>-3.6404837761887132E-2</v>
+        <v>2.5180960199385226E-2</v>
       </c>
       <c r="E83">
-        <v>-7.586336686051709</v>
+        <v>0.63658657399855656</v>
       </c>
       <c r="F83">
-        <v>-6.4048377618871333E-3</v>
+        <v>2.5180960199385226E-2</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>2902.6</v>
+        <v>2946</v>
       </c>
       <c r="B84">
-        <v>1.97</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="C84">
-        <v>2895.9365484053615</v>
+        <v>2945.4998998875308</v>
       </c>
       <c r="D84">
-        <v>2.0079514400331369</v>
+        <v>2.0430602467397323</v>
       </c>
       <c r="E84">
-        <v>-6.6634515946384454</v>
+        <v>-0.50010011246922659</v>
       </c>
       <c r="F84">
-        <v>3.7951440033136885E-2</v>
+        <v>1.3060246739732495E-2</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>2902.6</v>
+        <v>2946</v>
       </c>
       <c r="B85">
-        <v>3.97</v>
+        <v>4.03</v>
       </c>
       <c r="C85">
-        <v>2894.8402695184182</v>
+        <v>2946.649711541635</v>
       </c>
       <c r="D85">
-        <v>4.0655633090313499</v>
+        <v>4.0402344763663018</v>
       </c>
       <c r="E85">
-        <v>-7.7597304815817552</v>
+        <v>0.64971154163504252</v>
       </c>
       <c r="F85">
-        <v>9.5563309031349686E-2</v>
+        <v>1.0234476366301593E-2</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>2902.6</v>
+        <v>2946</v>
       </c>
       <c r="B86">
-        <v>6</v>
+        <v>6.03</v>
       </c>
       <c r="C86">
-        <v>2895.0494370984738</v>
+        <v>2945.7117702151772</v>
       </c>
       <c r="D86">
-        <v>6.099114323476746</v>
+        <v>6.0344119643785357</v>
       </c>
       <c r="E86">
-        <v>-7.5505629015260638</v>
+        <v>-0.28822978482276085</v>
       </c>
       <c r="F86">
-        <v>9.911432347674598E-2</v>
+        <v>4.4119643785354157E-3</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>2902.6</v>
+        <v>2946</v>
       </c>
       <c r="B87">
-        <v>8</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="C87">
-        <v>2894.638111673607</v>
+        <v>2945.7064214846591</v>
       </c>
       <c r="D87">
-        <v>8.111967087899119</v>
+        <v>8.0137368450131579</v>
       </c>
       <c r="E87">
-        <v>-7.9618883263929092</v>
+        <v>-0.29357851534086876</v>
       </c>
       <c r="F87">
-        <v>0.11196708789911902</v>
+        <v>-1.6263154986841499E-2</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>2902.6</v>
+        <v>2946</v>
       </c>
       <c r="B88">
-        <v>10.02</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="C88">
-        <v>2894.4733569343998</v>
+        <v>2945.3157565221745</v>
       </c>
       <c r="D88">
-        <v>10.12411363335873</v>
+        <v>9.9898889579841867</v>
       </c>
       <c r="E88">
-        <v>-8.1266430656000921</v>
+        <v>-0.68424347782547557</v>
       </c>
       <c r="F88">
-        <v>0.1041136333587307</v>
+        <v>-4.0111042015812615E-2</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>2902.6</v>
+        <v>2946</v>
       </c>
       <c r="B89">
-        <v>12.02</v>
+        <v>12.03</v>
       </c>
       <c r="C89">
-        <v>2895.3369092304943</v>
+        <v>2944.7287061037646</v>
       </c>
       <c r="D89">
-        <v>12.100494316985833</v>
+        <v>11.975317306127099</v>
       </c>
       <c r="E89">
-        <v>-7.2630907695056521</v>
+        <v>-1.2712938962354201</v>
       </c>
       <c r="F89">
-        <v>8.0494316985832981E-2</v>
+        <v>-5.4682693872900145E-2</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>2902.6</v>
+        <v>2946</v>
       </c>
       <c r="B90">
-        <v>14.02</v>
+        <v>14.03</v>
       </c>
       <c r="C90">
-        <v>2894.6045496707111</v>
+        <v>2946.3122100559021</v>
       </c>
       <c r="D90">
-        <v>14.07167379534496</v>
+        <v>13.933669024325058</v>
       </c>
       <c r="E90">
-        <v>-7.9954503292888148</v>
+        <v>0.3122100559021419</v>
       </c>
       <c r="F90">
-        <v>5.1673795344960638E-2</v>
+        <v>-9.6330975674941755E-2</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>2902.6</v>
+        <v>2946</v>
       </c>
       <c r="B91">
-        <v>16.02</v>
+        <v>16.03</v>
       </c>
       <c r="C91">
-        <v>2895.3992281901146</v>
+        <v>2949.3396193600661</v>
       </c>
       <c r="D91">
-        <v>16.015227093196291</v>
+        <v>15.912805030424813</v>
       </c>
       <c r="E91">
-        <v>-7.200771809885282</v>
+        <v>3.3396193600660808</v>
       </c>
       <c r="F91">
-        <v>-4.7729068037085653E-3</v>
+        <v>-0.11719496957518771</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">

--- a/cam7_validation_result.xlsx
+++ b/cam7_validation_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voies\Desktop\GodEyesProject\CalibPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C769A85E-49E9-4587-BC22-FBA20ABB8A2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DA1B83-BE51-4B41-8C84-832F01053232}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3394" yWindow="3394" windowWidth="24686" windowHeight="13217" xr2:uid="{EAD0C716-2208-41AB-B04E-A0280A1A9E7D}"/>
+    <workbookView xWindow="8229" yWindow="3729" windowWidth="24685" windowHeight="13217" xr2:uid="{EAD0C716-2208-41AB-B04E-A0280A1A9E7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -219,328 +219,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="108"/>
                 <c:pt idx="0">
-                  <c:v>-1.2706128740032909</c:v>
+                  <c:v>-0.50919464378421253</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.75307643983796879</c:v>
+                  <c:v>-0.51022752024118745</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.98835954678861526</c:v>
+                  <c:v>-0.86938982526817199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.68777275248658043</c:v>
+                  <c:v>0.30153493681700638</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0428860240685935</c:v>
+                  <c:v>-0.91727930531214952</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.57285974701153464</c:v>
+                  <c:v>3.8047717894187372E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.15227898711236776</c:v>
+                  <c:v>-0.91463634019237361</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.0141611307894891</c:v>
+                  <c:v>-1.777579912499732</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.1670342787019763E-2</c:v>
+                  <c:v>-0.31935118150659036</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.1754354057406999</c:v>
+                  <c:v>-0.59852793790832948</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.10831800456981</c:v>
+                  <c:v>-1.055057423263861</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.47985187511085314</c:v>
+                  <c:v>-1.4807379479534575</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.54211263857132508</c:v>
+                  <c:v>1.3952814592357754E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.27818674910577101</c:v>
+                  <c:v>-1.2356005837200428</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.21476119108820058</c:v>
+                  <c:v>-0.11647982191743722</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.61895233621953594</c:v>
+                  <c:v>-1.0005346422267394</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.62900195602242093</c:v>
+                  <c:v>1.1821990122502939</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.5112708069023029</c:v>
+                  <c:v>0.8683151367335995</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.53893944194214782</c:v>
+                  <c:v>-0.7288673664243106</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.78074714491731356</c:v>
+                  <c:v>-7.0878671618629596E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.2579983631289906</c:v>
+                  <c:v>-0.71387380742999085</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.60895763273401826</c:v>
+                  <c:v>-0.45171999120248074</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.17015078766416991</c:v>
+                  <c:v>-0.22689607527672706</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.82261070553067839</c:v>
+                  <c:v>-1.0053055563084854</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.79477585927816108</c:v>
+                  <c:v>-0.21487301861770902</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.67260514652434722</c:v>
+                  <c:v>-1.7016278106138998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.34068291749053969</c:v>
+                  <c:v>-0.77713883453816379</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.64468851827814433</c:v>
+                  <c:v>-0.79635462946953339</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.58559377278106695</c:v>
+                  <c:v>0.39298593628654999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.2534486792901589E-2</c:v>
+                  <c:v>0.3461634623986356</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.72078494542211047</c:v>
+                  <c:v>-0.97626969212251424</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.92293354265120797</c:v>
+                  <c:v>-0.59930824430148277</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.64391427821647085</c:v>
+                  <c:v>-0.91044077326341721</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.75798561920100838</c:v>
+                  <c:v>-1.0435172260408763</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.6693819521865407</c:v>
+                  <c:v>0.64813143010223939</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.1131977330651353</c:v>
+                  <c:v>0.86441215404965988</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.77840007194299687</c:v>
+                  <c:v>-2.9603575478631683E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.12860113304168408</c:v>
+                  <c:v>0.6538634799603642</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.66937250383443825</c:v>
+                  <c:v>-0.1135868852816202</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.92537738725195595</c:v>
+                  <c:v>-1.2646251645619486</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.54898005851691778</c:v>
+                  <c:v>-0.47409911374961666</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.57616035275168542</c:v>
+                  <c:v>-0.64670244680428368</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.37037505736225285</c:v>
+                  <c:v>-0.6764980334505708</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.20706772387393357</c:v>
+                  <c:v>-0.69355337021715968</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.63232173450796836</c:v>
+                  <c:v>0.12421138780382535</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.81360437114017259</c:v>
+                  <c:v>-0.2412873364760344</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.1519382691485589</c:v>
+                  <c:v>0.29091931007769745</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-1.1171229395736191</c:v>
+                  <c:v>-0.24397135552180771</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.21368306013800975</c:v>
+                  <c:v>-0.57235810908923668</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.77639726092365891</c:v>
+                  <c:v>-0.66844295360715478</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-1.0097518643374315</c:v>
+                  <c:v>-0.47241782618993966</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.67143699278130953</c:v>
+                  <c:v>-1.0857519080036582</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.18036314238452178</c:v>
+                  <c:v>0.47941415245213648</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.0901119399391064</c:v>
+                  <c:v>0.32293463448968396</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.87766944402937952</c:v>
+                  <c:v>5.1085413607324881E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.65593678060713501</c:v>
+                  <c:v>-0.57253976534002504</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-1.122141510374604</c:v>
+                  <c:v>-0.13879903254019155</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.0890741854664157</c:v>
+                  <c:v>-0.12414065966504495</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.35869818833725731</c:v>
+                  <c:v>0.25537991287410478</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.23399521023611669</c:v>
+                  <c:v>-6.0384305493244028E-3</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.52889813814681474</c:v>
+                  <c:v>-0.20974985824750547</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.4189569347458928</c:v>
+                  <c:v>-0.34963255645470781</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.6649313175921634</c:v>
+                  <c:v>0.4798955589126308</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.85857316144938522</c:v>
+                  <c:v>-0.13904765919323836</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.592372520139179</c:v>
+                  <c:v>-9.5060889139404026E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.11085249479720005</c:v>
+                  <c:v>0.58320117435869179</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.1018786472495776</c:v>
+                  <c:v>0.67307461839209282</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-0.31791142507290715</c:v>
+                  <c:v>-2.0067220712917333E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-1.5557601495975177</c:v>
+                  <c:v>-2.4040512841611417</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.68223742791815312</c:v>
+                  <c:v>-1.5314437542033374</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-0.14247911829261284</c:v>
+                  <c:v>0.33307589816104155</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.3475336335450265</c:v>
+                  <c:v>1.3793666545811902</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.81749983636154866</c:v>
+                  <c:v>-0.62984073986035582</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-1.5530293769975287</c:v>
+                  <c:v>-1.1768637516274794</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-1.1363828164458027</c:v>
+                  <c:v>-0.69253844958075206</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.87976527094951962</c:v>
+                  <c:v>-1.1568881974626493</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.90286417118159079</c:v>
+                  <c:v>7.6230750502872979E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.5404825551586327</c:v>
+                  <c:v>-0.30568004592942088</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.81992149200823405</c:v>
+                  <c:v>0.87393265090349814</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.18638848998307367</c:v>
+                  <c:v>0.58422080848276892</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-2.065087019582279E-2</c:v>
+                  <c:v>-0.8197302846169805</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.63658657399855656</c:v>
+                  <c:v>-0.54781410602754477</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.50010011246922659</c:v>
+                  <c:v>-0.20127896263602452</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.64971154163504252</c:v>
+                  <c:v>-0.64647175483878527</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-0.28822978482276085</c:v>
+                  <c:v>0.51801860136265532</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-0.29357851534086876</c:v>
+                  <c:v>-1.3946094310035733</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-0.68424347782547557</c:v>
+                  <c:v>-1.2105535459018029</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-1.2712938962354201</c:v>
+                  <c:v>-1.4324645678839261</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.3122100559021419</c:v>
+                  <c:v>-0.66645405211875186</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.3396193600660808</c:v>
+                  <c:v>0.89534708034761934</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.7379214493603286</c:v>
+                  <c:v>1.3009636540114116</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-0.30763284304612171</c:v>
+                  <c:v>-0.62838015595525576</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-0.48958952869406858</c:v>
+                  <c:v>-1.4921328420095961</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-0.14053180160408374</c:v>
+                  <c:v>0.53896410885954538</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.10069936608715579</c:v>
+                  <c:v>0.5414855848807747</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.17870709251155859</c:v>
+                  <c:v>1.2677425289220992</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.36591197273537546</c:v>
+                  <c:v>0.17274755670541708</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6.4403776430026483E-2</c:v>
+                  <c:v>1.2271518107272641</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.4329557898136045</c:v>
+                  <c:v>1.4408564501432011</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.591508036245159</c:v>
+                  <c:v>1.5580984206617359</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.49119245460951788</c:v>
+                  <c:v>2.5641564998454669</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1.2825891487045737</c:v>
+                  <c:v>0.25037564338390439</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-0.39339776389806502</c:v>
+                  <c:v>1.1302561381653504</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1.6324345970033391</c:v>
+                  <c:v>-1.197242206946612</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.31564407228461278</c:v>
+                  <c:v>-1.0938791767703151</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>-0.42799277225776677</c:v>
+                  <c:v>0.11779273185038619</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.74153609685254196</c:v>
+                  <c:v>1.2209700414227882</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>-0.44806703780932366</c:v>
+                  <c:v>1.6473874581251948</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2309,48 +2309,48 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>2547.1999999999998</v>
+        <v>2547.9</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2545.9293871259965</v>
+        <v>2547.3908053562159</v>
       </c>
       <c r="D2">
-        <v>3.8060657890598926E-2</v>
+        <v>-1.8506106252085105E-3</v>
       </c>
       <c r="E2">
-        <v>-1.2706128740032909</v>
+        <v>-0.50919464378421253</v>
       </c>
       <c r="F2">
-        <v>3.8060657890598926E-2</v>
+        <v>-1.8506106252085105E-3</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
       </c>
       <c r="I2">
-        <v>0.77226195560718025</v>
+        <v>0.64895822832826422</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2547.1999999999998</v>
+        <v>2547.9</v>
       </c>
       <c r="B3">
-        <v>-16</v>
+        <v>-16.079999999999998</v>
       </c>
       <c r="C3">
-        <v>2546.4469235601618</v>
+        <v>2547.3897724797589</v>
       </c>
       <c r="D3">
-        <v>-16.033531404365661</v>
+        <v>-15.954766032882031</v>
       </c>
       <c r="E3">
-        <v>-0.75307643983796879</v>
+        <v>-0.51022752024118745</v>
       </c>
       <c r="F3">
-        <v>-3.3531404365660933E-2</v>
+        <v>0.12523396711796764</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
@@ -2361,2140 +2361,2140 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>2547.1999999999998</v>
+        <v>2547.9</v>
       </c>
       <c r="B4">
-        <v>-14.05</v>
+        <v>-13.95</v>
       </c>
       <c r="C4">
-        <v>2546.2116404532112</v>
+        <v>2547.0306101747319</v>
       </c>
       <c r="D4">
-        <v>-14.078151024150456</v>
+        <v>-13.845098799482992</v>
       </c>
       <c r="E4">
-        <v>-0.98835954678861526</v>
+        <v>-0.86938982526817199</v>
       </c>
       <c r="F4">
-        <v>-2.8151024150455228E-2</v>
+        <v>0.10490120051700735</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
       </c>
       <c r="I4">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>2547.1999999999998</v>
+        <v>2547.9</v>
       </c>
       <c r="B5">
-        <v>-12.03</v>
+        <v>-11.93</v>
       </c>
       <c r="C5">
-        <v>2547.8877727524864</v>
+        <v>2548.2015349368171</v>
       </c>
       <c r="D5">
-        <v>-12.024679703019872</v>
+        <v>-11.851490752100572</v>
       </c>
       <c r="E5">
-        <v>0.68777275248658043</v>
+        <v>0.30153493681700638</v>
       </c>
       <c r="F5">
-        <v>5.3202969801269262E-3</v>
+        <v>7.8509247899427592E-2</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
       </c>
       <c r="I5">
-        <v>0.9555555555555556</v>
+        <v>0.98888888888888893</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>2547.1999999999998</v>
+        <v>2547.9</v>
       </c>
       <c r="B6">
-        <v>-10</v>
+        <v>-9.93</v>
       </c>
       <c r="C6">
-        <v>2548.2428860240684</v>
+        <v>2546.9827206946879</v>
       </c>
       <c r="D6">
-        <v>-9.9984464405251838</v>
+        <v>-9.8866591882544892</v>
       </c>
       <c r="E6">
-        <v>1.0428860240685935</v>
+        <v>-0.91727930531214952</v>
       </c>
       <c r="F6">
-        <v>1.5535594748161685E-3</v>
+        <v>4.3340811745510521E-2</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
       </c>
       <c r="I6">
-        <v>1.6693819521865407</v>
+        <v>1.4807379479534575</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>2547.1999999999998</v>
+        <v>2547.9</v>
       </c>
       <c r="B7">
-        <v>-8</v>
+        <v>-7.93</v>
       </c>
       <c r="C7">
-        <v>2547.7728597470114</v>
+        <v>2547.9380477178943</v>
       </c>
       <c r="D7">
-        <v>-7.9881881569685369</v>
+        <v>-7.908060227036577</v>
       </c>
       <c r="E7">
-        <v>0.57285974701153464</v>
+        <v>3.8047717894187372E-2</v>
       </c>
       <c r="F7">
-        <v>1.1811843031463098E-2</v>
+        <v>2.1939772963422755E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>2547.1999999999998</v>
+        <v>2547.9</v>
       </c>
       <c r="B8">
-        <v>-5.97</v>
+        <v>-5.93</v>
       </c>
       <c r="C8">
-        <v>2547.3522789871122</v>
+        <v>2546.9853636598077</v>
       </c>
       <c r="D8">
-        <v>-5.9674214421287779</v>
+        <v>-5.9202178835141614</v>
       </c>
       <c r="E8">
-        <v>0.15227898711236776</v>
+        <v>-0.91463634019237361</v>
       </c>
       <c r="F8">
-        <v>2.5785578712218538E-3</v>
+        <v>9.7821164858382659E-3</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>2547.1999999999998</v>
+        <v>2547.9</v>
       </c>
       <c r="B9">
-        <v>-4</v>
+        <v>-3.9</v>
       </c>
       <c r="C9">
-        <v>2546.1858388692103</v>
+        <v>2546.1224200875004</v>
       </c>
       <c r="D9">
-        <v>-3.9625402723869576</v>
+        <v>-3.9221037955614371</v>
       </c>
       <c r="E9">
-        <v>-1.0141611307894891</v>
+        <v>-1.777579912499732</v>
       </c>
       <c r="F9">
-        <v>3.7459727613042393E-2</v>
+        <v>-2.2103795561437156E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>2547.1999999999998</v>
+        <v>2547.9</v>
       </c>
       <c r="B10">
-        <v>-1.97</v>
+        <v>-1.93</v>
       </c>
       <c r="C10">
-        <v>2547.2516703427868</v>
+        <v>2547.5806488184935</v>
       </c>
       <c r="D10">
-        <v>-1.9383146677688079</v>
+        <v>-1.9455650073876263</v>
       </c>
       <c r="E10">
-        <v>5.1670342787019763E-2</v>
+        <v>-0.31935118150659036</v>
       </c>
       <c r="F10">
-        <v>3.1685332231192076E-2</v>
+        <v>-1.556500738762634E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>2547.1999999999998</v>
+        <v>2547.9</v>
       </c>
       <c r="B11">
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C11">
-        <v>2546.0245645942591</v>
+        <v>2547.3014720620918</v>
       </c>
       <c r="D11">
-        <v>6.1885082286603749E-2</v>
+        <v>5.2956812877562848E-2</v>
       </c>
       <c r="E11">
-        <v>-1.1754354057406999</v>
+        <v>-0.59852793790832948</v>
       </c>
       <c r="F11">
-        <v>3.188508228660375E-2</v>
+        <v>-1.7043187122437159E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>2547.1999999999998</v>
+        <v>2547.9</v>
       </c>
       <c r="B12">
-        <v>2.0299999999999998</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="C12">
-        <v>2547.09168199543</v>
+        <v>2546.8449425767362</v>
       </c>
       <c r="D12">
-        <v>2.0578829706810189</v>
+        <v>2.0526421688409111</v>
       </c>
       <c r="E12">
-        <v>-0.10831800456981</v>
+        <v>-1.055057423263861</v>
       </c>
       <c r="F12">
-        <v>2.7882970681019081E-2</v>
+        <v>-1.7357831159088732E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>2547.1999999999998</v>
+        <v>2547.9</v>
       </c>
       <c r="B13">
-        <v>4.03</v>
+        <v>4.05</v>
       </c>
       <c r="C13">
-        <v>2546.720148124889</v>
+        <v>2546.4192620520466</v>
       </c>
       <c r="D13">
-        <v>4.0632395906416958</v>
+        <v>4.0492235223661561</v>
       </c>
       <c r="E13">
-        <v>-0.47985187511085314</v>
+        <v>-1.4807379479534575</v>
       </c>
       <c r="F13">
-        <v>3.3239590641695571E-2</v>
+        <v>-7.7647763384369739E-4</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>2547.1999999999998</v>
+        <v>2547.9</v>
       </c>
       <c r="B14">
-        <v>6.03</v>
+        <v>6.05</v>
       </c>
       <c r="C14">
-        <v>2547.7421126385711</v>
+        <v>2547.9139528145924</v>
       </c>
       <c r="D14">
-        <v>6.0541109786432949</v>
+        <v>6.055428692077613</v>
       </c>
       <c r="E14">
-        <v>0.54211263857132508</v>
+        <v>1.3952814592357754E-2</v>
       </c>
       <c r="F14">
-        <v>2.41109786432947E-2</v>
+        <v>5.4286920776132064E-3</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>2547.1999999999998</v>
+        <v>2547.9</v>
       </c>
       <c r="B15">
-        <v>8.0299999999999994</v>
+        <v>8.07</v>
       </c>
       <c r="C15">
-        <v>2547.4781867491056</v>
+        <v>2546.66439941628</v>
       </c>
       <c r="D15">
-        <v>8.0415012936015593</v>
+        <v>8.0786184262891805</v>
       </c>
       <c r="E15">
-        <v>0.27818674910577101</v>
+        <v>-1.2356005837200428</v>
       </c>
       <c r="F15">
-        <v>1.1501293601559937E-2</v>
+        <v>8.6184262891801922E-3</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>2547.1999999999998</v>
+        <v>2547.9</v>
       </c>
       <c r="B16">
-        <v>10.029999999999999</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="C16">
-        <v>2546.9852388089116</v>
+        <v>2547.7835201780827</v>
       </c>
       <c r="D16">
-        <v>10.024634943072334</v>
+        <v>10.077614521371531</v>
       </c>
       <c r="E16">
-        <v>-0.21476119108820058</v>
+        <v>-0.11647982191743722</v>
       </c>
       <c r="F16">
-        <v>-5.3650569276655347E-3</v>
+        <v>2.7614521371530643E-2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>2547.1999999999998</v>
+        <v>2547.9</v>
       </c>
       <c r="B17">
-        <v>12.03</v>
+        <v>12.05</v>
       </c>
       <c r="C17">
-        <v>2547.8189523362194</v>
+        <v>2546.8994653577734</v>
       </c>
       <c r="D17">
-        <v>11.992059083301765</v>
+        <v>12.074064049641185</v>
       </c>
       <c r="E17">
-        <v>0.61895233621953594</v>
+        <v>-1.0005346422267394</v>
       </c>
       <c r="F17">
-        <v>-3.7940916698234517E-2</v>
+        <v>2.4064049641184582E-2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>2547.1999999999998</v>
+        <v>2547.9</v>
       </c>
       <c r="B18">
-        <v>14.03</v>
+        <v>14.02</v>
       </c>
       <c r="C18">
-        <v>2547.8290019560222</v>
+        <v>2549.0821990122504</v>
       </c>
       <c r="D18">
-        <v>13.960189069617375</v>
+        <v>14.078963193687342</v>
       </c>
       <c r="E18">
-        <v>0.62900195602242093</v>
+        <v>1.1821990122502939</v>
       </c>
       <c r="F18">
-        <v>-6.9810930382624647E-2</v>
+        <v>5.8963193687342041E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>2547.1999999999998</v>
+        <v>2547.9</v>
       </c>
       <c r="B19">
-        <v>16</v>
+        <v>16.02</v>
       </c>
       <c r="C19">
-        <v>2549.7112708069021</v>
+        <v>2548.7683151367337</v>
       </c>
       <c r="D19">
-        <v>15.92258331649774</v>
+        <v>16.077683230819066</v>
       </c>
       <c r="E19">
-        <v>2.5112708069023029</v>
+        <v>0.8683151367335995</v>
       </c>
       <c r="F19">
-        <v>-7.7416683502260497E-2</v>
+        <v>5.7683230819066011E-2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>2646.9</v>
+        <v>2647.6</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2646.3610605580579</v>
+        <v>2646.8711326335756</v>
       </c>
       <c r="D20">
-        <v>3.6850821786996106E-2</v>
+        <v>-2.6587411063582474E-3</v>
       </c>
       <c r="E20">
-        <v>-0.53893944194214782</v>
+        <v>-0.7288673664243106</v>
       </c>
       <c r="F20">
-        <v>3.6850821786996106E-2</v>
+        <v>-2.6587411063582474E-3</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>2646.9</v>
+        <v>2647.6</v>
       </c>
       <c r="B21">
-        <v>-15.97</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="C21">
-        <v>2646.1192528550828</v>
+        <v>2647.5291213283813</v>
       </c>
       <c r="D21">
-        <v>-16.042089639424518</v>
+        <v>-15.948165612820443</v>
       </c>
       <c r="E21">
-        <v>-0.78074714491731356</v>
+        <v>-7.0878671618629596E-2</v>
       </c>
       <c r="F21">
-        <v>-7.208963942451696E-2</v>
+        <v>0.15183438717955866</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>2646.9</v>
+        <v>2647.6</v>
       </c>
       <c r="B22">
-        <v>-14.05</v>
+        <v>-13.95</v>
       </c>
       <c r="C22">
-        <v>2646.6420016368711</v>
+        <v>2646.8861261925699</v>
       </c>
       <c r="D22">
-        <v>-14.106678484090734</v>
+        <v>-13.826768173015489</v>
       </c>
       <c r="E22">
-        <v>-0.2579983631289906</v>
+        <v>-0.71387380742999085</v>
       </c>
       <c r="F22">
-        <v>-5.6678484090733505E-2</v>
+        <v>0.12323182698450985</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>2646.9</v>
+        <v>2647.6</v>
       </c>
       <c r="B23">
-        <v>-12.03</v>
+        <v>-11.92</v>
       </c>
       <c r="C23">
-        <v>2647.5089576327341</v>
+        <v>2647.1482800087974</v>
       </c>
       <c r="D23">
-        <v>-12.054648554778868</v>
+        <v>-11.83728345242015</v>
       </c>
       <c r="E23">
-        <v>0.60895763273401826</v>
+        <v>-0.45171999120248074</v>
       </c>
       <c r="F23">
-        <v>-2.464855477886907E-2</v>
+        <v>8.2716547579849475E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>2646.9</v>
+        <v>2647.6</v>
       </c>
       <c r="B24">
-        <v>-10</v>
+        <v>-9.92</v>
       </c>
       <c r="C24">
-        <v>2647.0701507876643</v>
+        <v>2647.3731039247232</v>
       </c>
       <c r="D24">
-        <v>-10.02196129359316</v>
+        <v>-9.8759944674707079</v>
       </c>
       <c r="E24">
-        <v>0.17015078766416991</v>
+        <v>-0.22689607527672706</v>
       </c>
       <c r="F24">
-        <v>-2.1961293593159681E-2</v>
+        <v>4.4005532529292068E-2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>2646.9</v>
+        <v>2647.6</v>
       </c>
       <c r="B25">
-        <v>-8</v>
+        <v>-7.95</v>
       </c>
       <c r="C25">
-        <v>2647.7226107055308</v>
+        <v>2646.5946944436914</v>
       </c>
       <c r="D25">
-        <v>-7.9981208567201794</v>
+        <v>-7.8983432229480854</v>
       </c>
       <c r="E25">
-        <v>0.82261070553067839</v>
+        <v>-1.0053055563084854</v>
       </c>
       <c r="F25">
-        <v>1.8791432798206387E-3</v>
+        <v>5.1656777051914737E-2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>2646.9</v>
+        <v>2647.6</v>
       </c>
       <c r="B26">
-        <v>-5.97</v>
+        <v>-5.92</v>
       </c>
       <c r="C26">
-        <v>2646.1052241407219</v>
+        <v>2647.3851269813822</v>
       </c>
       <c r="D26">
-        <v>-6.0037713475129646</v>
+        <v>-5.9072178611390793</v>
       </c>
       <c r="E26">
-        <v>-0.79477585927816108</v>
+        <v>-0.21487301861770902</v>
       </c>
       <c r="F26">
-        <v>-3.3771347512964844E-2</v>
+        <v>1.2782138860920611E-2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>2646.9</v>
+        <v>2647.6</v>
       </c>
       <c r="B27">
-        <v>-4</v>
+        <v>-3.95</v>
       </c>
       <c r="C27">
-        <v>2647.5726051465244</v>
+        <v>2645.898372189386</v>
       </c>
       <c r="D27">
-        <v>-3.982384789331276</v>
+        <v>-3.9497438192719883</v>
       </c>
       <c r="E27">
-        <v>0.67260514652434722</v>
+        <v>-1.7016278106138998</v>
       </c>
       <c r="F27">
-        <v>1.7615210668723957E-2</v>
+        <v>2.5618072801192326E-4</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>2646.9</v>
+        <v>2647.6</v>
       </c>
       <c r="B28">
-        <v>-1.95</v>
+        <v>-1.92</v>
       </c>
       <c r="C28">
-        <v>2646.5593170825096</v>
+        <v>2646.8228611654617</v>
       </c>
       <c r="D28">
-        <v>-1.9608438950179123</v>
+        <v>-1.9195142188194698</v>
       </c>
       <c r="E28">
-        <v>-0.34068291749053969</v>
+        <v>-0.77713883453816379</v>
       </c>
       <c r="F28">
-        <v>-1.0843895017912386E-2</v>
+        <v>4.8578118053010932E-4</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>2646.9</v>
+        <v>2647.6</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="C29">
-        <v>2646.2553114817219</v>
+        <v>2646.8036453705304</v>
       </c>
       <c r="D29">
-        <v>1.6188854917623723E-2</v>
+        <v>6.6650784996735796E-2</v>
       </c>
       <c r="E29">
-        <v>-0.64468851827814433</v>
+        <v>-0.79635462946953339</v>
       </c>
       <c r="F29">
-        <v>1.6188854917623723E-2</v>
+        <v>-1.3349215003264206E-2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>2646.9</v>
+        <v>2647.6</v>
       </c>
       <c r="B30">
-        <v>2.0299999999999998</v>
+        <v>2.08</v>
       </c>
       <c r="C30">
-        <v>2646.314406227219</v>
+        <v>2647.9929859362865</v>
       </c>
       <c r="D30">
-        <v>2.0480865812900926</v>
+        <v>2.0688872605283151</v>
       </c>
       <c r="E30">
-        <v>-0.58559377278106695</v>
+        <v>0.39298593628654999</v>
       </c>
       <c r="F30">
-        <v>1.8086581290092774E-2</v>
+        <v>-1.1112739471685007E-2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>2646.9</v>
+        <v>2647.6</v>
       </c>
       <c r="B31">
-        <v>4.03</v>
+        <v>4.05</v>
       </c>
       <c r="C31">
-        <v>2646.912534486793</v>
+        <v>2647.9461634623985</v>
       </c>
       <c r="D31">
-        <v>4.0353755074811728</v>
+        <v>4.0638900065056367</v>
       </c>
       <c r="E31">
-        <v>1.2534486792901589E-2</v>
+        <v>0.3461634623986356</v>
       </c>
       <c r="F31">
-        <v>5.3755074811725478E-3</v>
+        <v>1.3890006505636876E-2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>2646.9</v>
+        <v>2647.6</v>
       </c>
       <c r="B32">
-        <v>6.03</v>
+        <v>6.05</v>
       </c>
       <c r="C32">
-        <v>2646.179215054578</v>
+        <v>2646.6237303078774</v>
       </c>
       <c r="D32">
-        <v>6.0259192125261736</v>
+        <v>6.0643674057463217</v>
       </c>
       <c r="E32">
-        <v>-0.72078494542211047</v>
+        <v>-0.97626969212251424</v>
       </c>
       <c r="F32">
-        <v>-4.0807874738266747E-3</v>
+        <v>1.4367405746321893E-2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>2646.9</v>
+        <v>2647.6</v>
       </c>
       <c r="B33">
-        <v>8.0299999999999994</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="C33">
-        <v>2645.9770664573489</v>
+        <v>2647.0006917556984</v>
       </c>
       <c r="D33">
-        <v>8.0181237872681397</v>
+        <v>8.0829273396554733</v>
       </c>
       <c r="E33">
-        <v>-0.92293354265120797</v>
+        <v>-0.59930824430148277</v>
       </c>
       <c r="F33">
-        <v>-1.1876212731859681E-2</v>
+        <v>3.2927339655472565E-2</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>2646.9</v>
+        <v>2647.6</v>
       </c>
       <c r="B34">
-        <v>10.029999999999999</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="C34">
-        <v>2646.2560857217836</v>
+        <v>2646.6895592267365</v>
       </c>
       <c r="D34">
-        <v>9.992180477943748</v>
+        <v>10.092988362345812</v>
       </c>
       <c r="E34">
-        <v>-0.64391427821647085</v>
+        <v>-0.91044077326341721</v>
       </c>
       <c r="F34">
-        <v>-3.7819522056251387E-2</v>
+        <v>4.2988362345811382E-2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>2646.9</v>
+        <v>2647.6</v>
       </c>
       <c r="B35">
-        <v>12.03</v>
+        <v>12.05</v>
       </c>
       <c r="C35">
-        <v>2646.1420143807991</v>
+        <v>2646.556482773959</v>
       </c>
       <c r="D35">
-        <v>11.978943235304008</v>
+        <v>12.095953071241723</v>
       </c>
       <c r="E35">
-        <v>-0.75798561920100838</v>
+        <v>-1.0435172260408763</v>
       </c>
       <c r="F35">
-        <v>-5.1056764695990964E-2</v>
+        <v>4.5953071241722654E-2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>2646.9</v>
+        <v>2647.6</v>
       </c>
       <c r="B36">
         <v>14.03</v>
       </c>
       <c r="C36">
-        <v>2648.5693819521866</v>
+        <v>2648.2481314301021</v>
       </c>
       <c r="D36">
-        <v>13.933970261828611</v>
+        <v>14.084419953454907</v>
       </c>
       <c r="E36">
-        <v>1.6693819521865407</v>
+        <v>0.64813143010223939</v>
       </c>
       <c r="F36">
-        <v>-9.6029738171388601E-2</v>
+        <v>5.4419953454907244E-2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>2646.9</v>
+        <v>2647.6</v>
       </c>
       <c r="B37">
         <v>16.03</v>
       </c>
       <c r="C37">
-        <v>2650.0131977330652</v>
+        <v>2648.4644121540496</v>
       </c>
       <c r="D37">
-        <v>15.906436037463779</v>
+        <v>16.128215081482352</v>
       </c>
       <c r="E37">
-        <v>3.1131977330651353</v>
+        <v>0.86441215404965988</v>
       </c>
       <c r="F37">
-        <v>-0.12356396253622215</v>
+        <v>9.8215081482351252E-2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>2746.6</v>
+        <v>2747.3</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>2745.8215999280569</v>
+        <v>2747.2703964245216</v>
       </c>
       <c r="D38">
-        <v>3.4519289343824491E-2</v>
+        <v>3.2109728764586043E-3</v>
       </c>
       <c r="E38">
-        <v>-0.77840007194299687</v>
+        <v>-2.9603575478631683E-2</v>
       </c>
       <c r="F38">
-        <v>3.4519289343824491E-2</v>
+        <v>3.2109728764586043E-3</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>2746.6</v>
+        <v>2747.3</v>
       </c>
       <c r="B39">
-        <v>-15.98</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="C39">
-        <v>2746.4713988669582</v>
+        <v>2747.9538634799605</v>
       </c>
       <c r="D39">
-        <v>-16.032749827529244</v>
+        <v>-15.960032361623689</v>
       </c>
       <c r="E39">
-        <v>-0.12860113304168408</v>
+        <v>0.6538634799603642</v>
       </c>
       <c r="F39">
-        <v>-5.2749827529243731E-2</v>
+        <v>0.13996763837631221</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>2746.6</v>
+        <v>2747.3</v>
       </c>
       <c r="B40">
-        <v>-14.05</v>
+        <v>-13.95</v>
       </c>
       <c r="C40">
-        <v>2745.9306274961655</v>
+        <v>2747.1864131147186</v>
       </c>
       <c r="D40">
-        <v>-14.089411544356251</v>
+        <v>-13.829837892354298</v>
       </c>
       <c r="E40">
-        <v>-0.66937250383443825</v>
+        <v>-0.1135868852816202</v>
       </c>
       <c r="F40">
-        <v>-3.9411544356250161E-2</v>
+        <v>0.1201621076457009</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>2746.6</v>
+        <v>2747.3</v>
       </c>
       <c r="B41">
-        <v>-12.03</v>
+        <v>-11.92</v>
       </c>
       <c r="C41">
-        <v>2747.5253773872519</v>
+        <v>2746.0353748354382</v>
       </c>
       <c r="D41">
-        <v>-12.048237717160211</v>
+        <v>-11.836198961619813</v>
       </c>
       <c r="E41">
-        <v>0.92537738725195595</v>
+        <v>-1.2646251645619486</v>
       </c>
       <c r="F41">
-        <v>-1.8237717160211275E-2</v>
+        <v>8.3801038380187265E-2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>2746.6</v>
+        <v>2747.3</v>
       </c>
       <c r="B42">
-        <v>-10</v>
+        <v>-9.92</v>
       </c>
       <c r="C42">
-        <v>2747.1489800585168</v>
+        <v>2746.8259008862506</v>
       </c>
       <c r="D42">
-        <v>-10.020598658471252</v>
+        <v>-9.8792743365756444</v>
       </c>
       <c r="E42">
-        <v>0.54898005851691778</v>
+        <v>-0.47409911374961666</v>
       </c>
       <c r="F42">
-        <v>-2.0598658471252307E-2</v>
+        <v>4.0725663424355574E-2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>2746.6</v>
+        <v>2747.3</v>
       </c>
       <c r="B43">
-        <v>-8</v>
+        <v>-7.92</v>
       </c>
       <c r="C43">
-        <v>2746.0238396472482</v>
+        <v>2746.6532975531959</v>
       </c>
       <c r="D43">
-        <v>-8.0097229676237021</v>
+        <v>-7.894833394675203</v>
       </c>
       <c r="E43">
-        <v>-0.57616035275168542</v>
+        <v>-0.64670244680428368</v>
       </c>
       <c r="F43">
-        <v>-9.7229676237020612E-3</v>
+        <v>2.5166605324796976E-2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>2746.6</v>
+        <v>2747.3</v>
       </c>
       <c r="B44">
-        <v>-5.98</v>
+        <v>-5.92</v>
       </c>
       <c r="C44">
-        <v>2746.2296249426377</v>
+        <v>2746.6235019665496</v>
       </c>
       <c r="D44">
-        <v>-5.989479192743131</v>
+        <v>-5.9005575561967953</v>
       </c>
       <c r="E44">
-        <v>-0.37037505736225285</v>
+        <v>-0.6764980334505708</v>
       </c>
       <c r="F44">
-        <v>-9.4791927431305822E-3</v>
+        <v>1.944244380320459E-2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>2746.6</v>
+        <v>2747.3</v>
       </c>
       <c r="B45">
-        <v>-3.98</v>
+        <v>-3.92</v>
       </c>
       <c r="C45">
-        <v>2746.8070677238738</v>
+        <v>2746.606446629783</v>
       </c>
       <c r="D45">
-        <v>-3.9970672761787207</v>
+        <v>-3.9374938639102548</v>
       </c>
       <c r="E45">
-        <v>0.20706772387393357</v>
+        <v>-0.69355337021715968</v>
       </c>
       <c r="F45">
-        <v>-1.7067276178720725E-2</v>
+        <v>-1.749386391025487E-2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>2746.6</v>
+        <v>2747.3</v>
       </c>
       <c r="B46">
-        <v>-1.98</v>
+        <v>-1.95</v>
       </c>
       <c r="C46">
-        <v>2747.2323217345079</v>
+        <v>2747.424211387804</v>
       </c>
       <c r="D46">
-        <v>-1.9909126053283168</v>
+        <v>-1.9565753254984752</v>
       </c>
       <c r="E46">
-        <v>0.63232173450796836</v>
+        <v>0.12421138780382535</v>
       </c>
       <c r="F46">
-        <v>-1.0912605328316838E-2</v>
+        <v>-6.5753254984752818E-3</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>2746.6</v>
+        <v>2747.3</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="C47">
-        <v>2745.7863956288597</v>
+        <v>2747.0587126635241</v>
       </c>
       <c r="D47">
-        <v>1.5591486340602763E-2</v>
+        <v>6.8869822289024066E-2</v>
       </c>
       <c r="E47">
-        <v>-0.81360437114017259</v>
+        <v>-0.2412873364760344</v>
       </c>
       <c r="F47">
-        <v>1.5591486340602763E-2</v>
+        <v>-1.1130177710975936E-2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>2746.6</v>
+        <v>2747.3</v>
       </c>
       <c r="B48">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="C48">
-        <v>2746.4480617308514</v>
+        <v>2747.5909193100779</v>
       </c>
       <c r="D48">
-        <v>2.0326067914318404</v>
+        <v>2.0643896386506109</v>
       </c>
       <c r="E48">
-        <v>-0.1519382691485589</v>
+        <v>0.29091931007769745</v>
       </c>
       <c r="F48">
-        <v>1.2606791431840403E-2</v>
+        <v>-1.5610361349389201E-2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>2746.6</v>
+        <v>2747.3</v>
       </c>
       <c r="B49">
-        <v>4.0199999999999996</v>
+        <v>4.05</v>
       </c>
       <c r="C49">
-        <v>2745.4828770604263</v>
+        <v>2747.0560286444784</v>
       </c>
       <c r="D49">
-        <v>4.0398961147861154</v>
+        <v>4.054092790998987</v>
       </c>
       <c r="E49">
-        <v>-1.1171229395736191</v>
+        <v>-0.24397135552180771</v>
       </c>
       <c r="F49">
-        <v>1.9896114786115859E-2</v>
+        <v>4.0927909989871836E-3</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>2746.6</v>
+        <v>2747.3</v>
       </c>
       <c r="B50">
-        <v>6.02</v>
+        <v>6.05</v>
       </c>
       <c r="C50">
-        <v>2746.3863169398619</v>
+        <v>2746.7276418909109</v>
       </c>
       <c r="D50">
-        <v>6.0409060582087264</v>
+        <v>6.0658597040132021</v>
       </c>
       <c r="E50">
-        <v>-0.21368306013800975</v>
+        <v>-0.57235810908923668</v>
       </c>
       <c r="F50">
-        <v>2.0906058208726819E-2</v>
+        <v>1.5859704013202247E-2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>2746.6</v>
+        <v>2747.3</v>
       </c>
       <c r="B51">
-        <v>8.02</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="C51">
-        <v>2745.8236027390763</v>
+        <v>2746.631557046393</v>
       </c>
       <c r="D51">
-        <v>8.0198259233273799</v>
+        <v>8.0704171765852752</v>
       </c>
       <c r="E51">
-        <v>-0.77639726092365891</v>
+        <v>-0.66844295360715478</v>
       </c>
       <c r="F51">
-        <v>-1.7407667261970516E-4</v>
+        <v>2.0417176585274532E-2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>2746.6</v>
+        <v>2747.3</v>
       </c>
       <c r="B52">
         <v>10.050000000000001</v>
       </c>
       <c r="C52">
-        <v>2745.5902481356625</v>
+        <v>2746.8275821738102</v>
       </c>
       <c r="D52">
-        <v>10.003923573001162</v>
+        <v>10.092277579009316</v>
       </c>
       <c r="E52">
-        <v>-1.0097518643374315</v>
+        <v>-0.47241782618993966</v>
       </c>
       <c r="F52">
-        <v>-4.6076426998839182E-2</v>
+        <v>4.2277579009315502E-2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>2746.6</v>
+        <v>2747.3</v>
       </c>
       <c r="B53">
-        <v>12.02</v>
+        <v>12.05</v>
       </c>
       <c r="C53">
-        <v>2747.2714369927812</v>
+        <v>2746.2142480919965</v>
       </c>
       <c r="D53">
-        <v>11.959817032145448</v>
+        <v>12.081027098474943</v>
       </c>
       <c r="E53">
-        <v>0.67143699278130953</v>
+        <v>-1.0857519080036582</v>
       </c>
       <c r="F53">
-        <v>-6.018296785455135E-2</v>
+        <v>3.1027098474941894E-2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>2746.6</v>
+        <v>2747.3</v>
       </c>
       <c r="B54">
-        <v>14.02</v>
+        <v>14.03</v>
       </c>
       <c r="C54">
-        <v>2746.7803631423844</v>
+        <v>2747.7794141524523</v>
       </c>
       <c r="D54">
-        <v>13.941249912397863</v>
+        <v>14.092171631141888</v>
       </c>
       <c r="E54">
-        <v>0.18036314238452178</v>
+        <v>0.47941415245213648</v>
       </c>
       <c r="F54">
-        <v>-7.8750087602136531E-2</v>
+        <v>6.2171631141888284E-2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>2746.6</v>
+        <v>2747.3</v>
       </c>
       <c r="B55">
-        <v>16</v>
+        <v>16.03</v>
       </c>
       <c r="C55">
-        <v>2747.690111939939</v>
+        <v>2747.6229346344899</v>
       </c>
       <c r="D55">
-        <v>15.90495471653329</v>
+        <v>16.096612563799795</v>
       </c>
       <c r="E55">
-        <v>1.0901119399391064</v>
+        <v>0.32293463448968396</v>
       </c>
       <c r="F55">
-        <v>-9.5045283466710373E-2</v>
+        <v>6.6612563799793634E-2</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>2846.3</v>
+        <v>2847</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>2847.1776694440296</v>
+        <v>2847.0510854136073</v>
       </c>
       <c r="D56">
-        <v>3.079232954715734E-2</v>
+        <v>1.2594430102957446E-3</v>
       </c>
       <c r="E56">
-        <v>0.87766944402937952</v>
+        <v>5.1085413607324881E-2</v>
       </c>
       <c r="F56">
-        <v>3.079232954715734E-2</v>
+        <v>1.2594430102957446E-3</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>2846.3</v>
+        <v>2847</v>
       </c>
       <c r="B57">
-        <v>-15.97</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="C57">
-        <v>2845.644063219393</v>
+        <v>2846.42746023466</v>
       </c>
       <c r="D57">
-        <v>-16.026286410829165</v>
+        <v>-15.959807552249982</v>
       </c>
       <c r="E57">
-        <v>-0.65593678060713501</v>
+        <v>-0.57253976534002504</v>
       </c>
       <c r="F57">
-        <v>-5.6286410829164524E-2</v>
+        <v>0.14019244775001916</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>2846.3</v>
+        <v>2847</v>
       </c>
       <c r="B58">
-        <v>-14.07</v>
+        <v>-13.95</v>
       </c>
       <c r="C58">
-        <v>2845.1778584896256</v>
+        <v>2846.8612009674598</v>
       </c>
       <c r="D58">
-        <v>-14.088973711307702</v>
+        <v>-13.83940718549594</v>
       </c>
       <c r="E58">
-        <v>-1.122141510374604</v>
+        <v>-0.13879903254019155</v>
       </c>
       <c r="F58">
-        <v>-1.8973711307701535E-2</v>
+        <v>0.11059281450405933</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>2846.3</v>
+        <v>2847</v>
       </c>
       <c r="B59">
-        <v>-12</v>
+        <v>-11.92</v>
       </c>
       <c r="C59">
-        <v>2847.3890741854666</v>
+        <v>2846.875859340335</v>
       </c>
       <c r="D59">
-        <v>-12.022449548791368</v>
+        <v>-11.852156326864181</v>
       </c>
       <c r="E59">
-        <v>1.0890741854664157</v>
+        <v>-0.12414065966504495</v>
       </c>
       <c r="F59">
-        <v>-2.2449548791367846E-2</v>
+        <v>6.784367313581896E-2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>2846.3</v>
+        <v>2847</v>
       </c>
       <c r="B60">
-        <v>-10.02</v>
+        <v>-9.92</v>
       </c>
       <c r="C60">
-        <v>2846.6586981883374</v>
+        <v>2847.2553799128741</v>
       </c>
       <c r="D60">
-        <v>-10.020285107856646</v>
+        <v>-9.8797649426282703</v>
       </c>
       <c r="E60">
-        <v>0.35869818833725731</v>
+        <v>0.25537991287410478</v>
       </c>
       <c r="F60">
-        <v>-2.8510785664614957E-4</v>
+        <v>4.023505737172961E-2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>2846.3</v>
+        <v>2847</v>
       </c>
       <c r="B61">
-        <v>-8</v>
+        <v>-7.92</v>
       </c>
       <c r="C61">
-        <v>2846.5339952102363</v>
+        <v>2846.9939615694507</v>
       </c>
       <c r="D61">
-        <v>-7.9945112060019206</v>
+        <v>-7.9020585665342766</v>
       </c>
       <c r="E61">
-        <v>0.23399521023611669</v>
+        <v>-6.0384305493244028E-3</v>
       </c>
       <c r="F61">
-        <v>5.4887939980794442E-3</v>
+        <v>1.79414334657233E-2</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>2846.3</v>
+        <v>2847</v>
       </c>
       <c r="B62">
-        <v>-5.97</v>
+        <v>-5.92</v>
       </c>
       <c r="C62">
-        <v>2846.828898138147</v>
+        <v>2846.7902501417525</v>
       </c>
       <c r="D62">
-        <v>-5.9816452622932479</v>
+        <v>-5.9126402003661296</v>
       </c>
       <c r="E62">
-        <v>0.52889813814681474</v>
+        <v>-0.20974985824750547</v>
       </c>
       <c r="F62">
-        <v>-1.1645262293248138E-2</v>
+        <v>7.3597996338703453E-3</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>2846.3</v>
+        <v>2847</v>
       </c>
       <c r="B63">
-        <v>-3.97</v>
+        <v>-3.92</v>
       </c>
       <c r="C63">
-        <v>2847.7189569347461</v>
+        <v>2846.6503674435453</v>
       </c>
       <c r="D63">
-        <v>-3.9806370970456171</v>
+        <v>-3.934111187387372</v>
       </c>
       <c r="E63">
-        <v>1.4189569347458928</v>
+        <v>-0.34963255645470781</v>
       </c>
       <c r="F63">
-        <v>-1.0637097045616883E-2</v>
+        <v>-1.4111187387372048E-2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>2846.3</v>
+        <v>2847</v>
       </c>
       <c r="B64">
-        <v>-1.97</v>
+        <v>-1.92</v>
       </c>
       <c r="C64">
-        <v>2846.9649313175923</v>
+        <v>2847.4798955589126</v>
       </c>
       <c r="D64">
-        <v>-1.9785733071779366</v>
+        <v>-1.9366797746014528</v>
       </c>
       <c r="E64">
-        <v>0.6649313175921634</v>
+        <v>0.4798955589126308</v>
       </c>
       <c r="F64">
-        <v>-8.5733071779365844E-3</v>
+        <v>-1.6679774601452868E-2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>2846.3</v>
+        <v>2847</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C65">
-        <v>2847.1585731614496</v>
+        <v>2846.8609523408068</v>
       </c>
       <c r="D65">
-        <v>2.2347810717806761E-2</v>
+        <v>2.2814763291599562E-2</v>
       </c>
       <c r="E65">
-        <v>0.85857316144938522</v>
+        <v>-0.13904765919323836</v>
       </c>
       <c r="F65">
-        <v>2.2347810717806761E-2</v>
+        <v>-2.7185236708400441E-2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>2846.3</v>
+        <v>2847</v>
       </c>
       <c r="B66">
-        <v>2.0299999999999998</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="C66">
-        <v>2847.8923725201394</v>
+        <v>2846.9049391108606</v>
       </c>
       <c r="D66">
-        <v>2.0437523136970488</v>
+        <v>2.0550548484002622</v>
       </c>
       <c r="E66">
-        <v>1.592372520139179</v>
+        <v>-9.5060889139404026E-2</v>
       </c>
       <c r="F66">
-        <v>1.375231369704899E-2</v>
+        <v>5.0548484002623795E-3</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>2846.3</v>
+        <v>2847</v>
       </c>
       <c r="B67">
-        <v>4.03</v>
+        <v>4.08</v>
       </c>
       <c r="C67">
-        <v>2846.4108524947974</v>
+        <v>2847.5832011743587</v>
       </c>
       <c r="D67">
-        <v>4.0448230442652102</v>
+        <v>4.0966306056230017</v>
       </c>
       <c r="E67">
-        <v>0.11085249479720005</v>
+        <v>0.58320117435869179</v>
       </c>
       <c r="F67">
-        <v>1.4823044265209973E-2</v>
+        <v>1.6630605623001671E-2</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>2846.3</v>
+        <v>2847</v>
       </c>
       <c r="B68">
-        <v>6.03</v>
+        <v>6.05</v>
       </c>
       <c r="C68">
-        <v>2847.4018786472498</v>
+        <v>2847.6730746183921</v>
       </c>
       <c r="D68">
-        <v>6.0499747081435453</v>
+        <v>6.0134575206050078</v>
       </c>
       <c r="E68">
-        <v>1.1018786472495776</v>
+        <v>0.67307461839209282</v>
       </c>
       <c r="F68">
-        <v>1.9974708143545072E-2</v>
+        <v>-3.6542479394992E-2</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>2846.3</v>
+        <v>2847</v>
       </c>
       <c r="B69">
-        <v>8.0299999999999994</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="C69">
-        <v>2845.9820885749273</v>
+        <v>2846.9799327792871</v>
       </c>
       <c r="D69">
-        <v>8.0218148624212233</v>
+        <v>8.0806448374329154</v>
       </c>
       <c r="E69">
-        <v>-0.31791142507290715</v>
+        <v>-2.0067220712917333E-2</v>
       </c>
       <c r="F69">
-        <v>-8.1851375787760361E-3</v>
+        <v>3.0644837432914684E-2</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>2846.3</v>
+        <v>2847</v>
       </c>
       <c r="B70">
-        <v>10.029999999999999</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="C70">
-        <v>2844.7442398504027</v>
+        <v>2844.5959487158389</v>
       </c>
       <c r="D70">
-        <v>10.010255424347752</v>
+        <v>10.079188664389159</v>
       </c>
       <c r="E70">
-        <v>-1.5557601495975177</v>
+        <v>-2.4040512841611417</v>
       </c>
       <c r="F70">
-        <v>-1.9744575652246965E-2</v>
+        <v>2.9188664389158347E-2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>2846.3</v>
+        <v>2847</v>
       </c>
       <c r="B71">
-        <v>12.03</v>
+        <v>12.05</v>
       </c>
       <c r="C71">
-        <v>2846.9822374279183</v>
+        <v>2845.4685562457967</v>
       </c>
       <c r="D71">
-        <v>11.979109888484302</v>
+        <v>12.077968736939505</v>
       </c>
       <c r="E71">
-        <v>0.68223742791815312</v>
+        <v>-1.5314437542033374</v>
       </c>
       <c r="F71">
-        <v>-5.0890111515697001E-2</v>
+        <v>2.7968736939504524E-2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>2846.3</v>
+        <v>2847</v>
       </c>
       <c r="B72">
         <v>14.03</v>
       </c>
       <c r="C72">
-        <v>2846.1575208817076</v>
+        <v>2847.333075898161</v>
       </c>
       <c r="D72">
-        <v>13.950538958454292</v>
+        <v>14.083569886795827</v>
       </c>
       <c r="E72">
-        <v>-0.14247911829261284</v>
+        <v>0.33307589816104155</v>
       </c>
       <c r="F72">
-        <v>-7.9461041545707545E-2</v>
+        <v>5.3569886795827415E-2</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>2846.3</v>
+        <v>2847</v>
       </c>
       <c r="B73">
         <v>16.03</v>
       </c>
       <c r="C73">
-        <v>2848.6475336335452</v>
+        <v>2848.3793666545812</v>
       </c>
       <c r="D73">
-        <v>15.91862826524571</v>
+        <v>16.112558958619289</v>
       </c>
       <c r="E73">
-        <v>2.3475336335450265</v>
+        <v>1.3793666545811902</v>
       </c>
       <c r="F73">
-        <v>-0.1113717347542913</v>
+        <v>8.2558958619287637E-2</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>2946</v>
+        <v>2946.7</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>2946.8174998363615</v>
+        <v>2946.0701592601395</v>
       </c>
       <c r="D74">
-        <v>2.1785954570295717E-2</v>
+        <v>9.6260719274731711E-3</v>
       </c>
       <c r="E74">
-        <v>0.81749983636154866</v>
+        <v>-0.62984073986035582</v>
       </c>
       <c r="F74">
-        <v>2.1785954570295717E-2</v>
+        <v>9.6260719274731711E-3</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>2946</v>
+        <v>2946.7</v>
       </c>
       <c r="B75">
-        <v>-15.97</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="C75">
-        <v>2944.4469706230025</v>
+        <v>2945.5231362483723</v>
       </c>
       <c r="D75">
-        <v>-16.028679506645556</v>
+        <v>-15.958728263996953</v>
       </c>
       <c r="E75">
-        <v>-1.5530293769975287</v>
+        <v>-1.1768637516274794</v>
       </c>
       <c r="F75">
-        <v>-5.8679506645555435E-2</v>
+        <v>0.14127173600304843</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>2946</v>
+        <v>2946.7</v>
       </c>
       <c r="B76">
-        <v>-14.07</v>
+        <v>-13.95</v>
       </c>
       <c r="C76">
-        <v>2944.8636171835542</v>
+        <v>2946.0074615504191</v>
       </c>
       <c r="D76">
-        <v>-14.087537232352965</v>
+        <v>-13.841223314794812</v>
       </c>
       <c r="E76">
-        <v>-1.1363828164458027</v>
+        <v>-0.69253844958075206</v>
       </c>
       <c r="F76">
-        <v>-1.7537232352964338E-2</v>
+        <v>0.10877668520518746</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>2946</v>
+        <v>2946.7</v>
       </c>
       <c r="B77">
-        <v>-12.03</v>
+        <v>-11.92</v>
       </c>
       <c r="C77">
-        <v>2946.8797652709495</v>
+        <v>2945.5431118025372</v>
       </c>
       <c r="D77">
-        <v>-12.021637834770777</v>
+        <v>-11.860769199206249</v>
       </c>
       <c r="E77">
-        <v>0.87976527094951962</v>
+        <v>-1.1568881974626493</v>
       </c>
       <c r="F77">
-        <v>8.3621652292222848E-3</v>
+        <v>5.923080079375076E-2</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>2946</v>
+        <v>2946.7</v>
       </c>
       <c r="B78">
-        <v>-10</v>
+        <v>-9.92</v>
       </c>
       <c r="C78">
-        <v>2946.9028641711816</v>
+        <v>2946.7762307505027</v>
       </c>
       <c r="D78">
-        <v>-9.9903141596305964</v>
+        <v>-9.8815690786566517</v>
       </c>
       <c r="E78">
-        <v>0.90286417118159079</v>
+        <v>7.6230750502872979E-2</v>
       </c>
       <c r="F78">
-        <v>9.6858403694035644E-3</v>
+        <v>3.8430921343348246E-2</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>2946</v>
+        <v>2946.7</v>
       </c>
       <c r="B79">
-        <v>-8</v>
+        <v>-7.92</v>
       </c>
       <c r="C79">
-        <v>2947.5404825551586</v>
+        <v>2946.3943199540704</v>
       </c>
       <c r="D79">
-        <v>-7.9903477662259244</v>
+        <v>-7.90609856165789</v>
       </c>
       <c r="E79">
-        <v>1.5404825551586327</v>
+        <v>-0.30568004592942088</v>
       </c>
       <c r="F79">
-        <v>9.652233774075647E-3</v>
+        <v>1.3901438342109884E-2</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>2946</v>
+        <v>2946.7</v>
       </c>
       <c r="B80">
-        <v>-5.97</v>
+        <v>-5.92</v>
       </c>
       <c r="C80">
-        <v>2946.8199214920082</v>
+        <v>2947.5739326509033</v>
       </c>
       <c r="D80">
-        <v>-5.9758157635188542</v>
+        <v>-5.9224456762427913</v>
       </c>
       <c r="E80">
-        <v>0.81992149200823405</v>
+        <v>0.87393265090349814</v>
       </c>
       <c r="F80">
-        <v>-5.8157635188544887E-3</v>
+        <v>-2.4456762427913503E-3</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>2946</v>
+        <v>2946.7</v>
       </c>
       <c r="B81">
-        <v>-3.97</v>
+        <v>-3.92</v>
       </c>
       <c r="C81">
-        <v>2946.1863884899831</v>
+        <v>2947.2842208084826</v>
       </c>
       <c r="D81">
-        <v>-3.9814055826177954</v>
+        <v>-3.9283339702307494</v>
       </c>
       <c r="E81">
-        <v>0.18638848998307367</v>
+        <v>0.58422080848276892</v>
       </c>
       <c r="F81">
-        <v>-1.1405582617795229E-2</v>
+        <v>-8.3339702307494434E-3</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>2946</v>
+        <v>2946.7</v>
       </c>
       <c r="B82">
-        <v>-1.97</v>
+        <v>-1.92</v>
       </c>
       <c r="C82">
-        <v>2945.9793491298042</v>
+        <v>2945.8802697153828</v>
       </c>
       <c r="D82">
-        <v>-1.9818855537732203</v>
+        <v>-1.9427271138282638</v>
       </c>
       <c r="E82">
-        <v>-2.065087019582279E-2</v>
+        <v>-0.8197302846169805</v>
       </c>
       <c r="F82">
-        <v>-1.1885553773220314E-2</v>
+        <v>-2.2727113828263867E-2</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>2946</v>
+        <v>2946.7</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C83">
-        <v>2946.6365865739986</v>
+        <v>2946.1521858939723</v>
       </c>
       <c r="D83">
-        <v>2.5180960199385226E-2</v>
+        <v>2.8178801323098808E-2</v>
       </c>
       <c r="E83">
-        <v>0.63658657399855656</v>
+        <v>-0.54781410602754477</v>
       </c>
       <c r="F83">
-        <v>2.5180960199385226E-2</v>
+        <v>-2.1821198676901195E-2</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>2946</v>
+        <v>2946.7</v>
       </c>
       <c r="B84">
-        <v>2.0299999999999998</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="C84">
-        <v>2945.4998998875308</v>
+        <v>2946.4987210373638</v>
       </c>
       <c r="D84">
-        <v>2.0430602467397323</v>
+        <v>2.0253263203598038</v>
       </c>
       <c r="E84">
-        <v>-0.50010011246922659</v>
+        <v>-0.20127896263602452</v>
       </c>
       <c r="F84">
-        <v>1.3060246739732495E-2</v>
+        <v>-2.4673679640196067E-2</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>2946</v>
+        <v>2946.7</v>
       </c>
       <c r="B85">
-        <v>4.03</v>
+        <v>4.08</v>
       </c>
       <c r="C85">
-        <v>2946.649711541635</v>
+        <v>2946.053528245161</v>
       </c>
       <c r="D85">
-        <v>4.0402344763663018</v>
+        <v>4.0601047548778366</v>
       </c>
       <c r="E85">
-        <v>0.64971154163504252</v>
+        <v>-0.64647175483878527</v>
       </c>
       <c r="F85">
-        <v>1.0234476366301593E-2</v>
+        <v>-1.9895245122163452E-2</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>2946</v>
+        <v>2946.7</v>
       </c>
       <c r="B86">
-        <v>6.03</v>
+        <v>6.05</v>
       </c>
       <c r="C86">
-        <v>2945.7117702151772</v>
+        <v>2947.2180186013625</v>
       </c>
       <c r="D86">
-        <v>6.0344119643785357</v>
+        <v>6.0372450730054918</v>
       </c>
       <c r="E86">
-        <v>-0.28822978482276085</v>
+        <v>0.51801860136265532</v>
       </c>
       <c r="F86">
-        <v>4.4119643785354157E-3</v>
+        <v>-1.2754926994507976E-2</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>2946</v>
+        <v>2946.7</v>
       </c>
       <c r="B87">
-        <v>8.0299999999999994</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="C87">
-        <v>2945.7064214846591</v>
+        <v>2945.3053905689962</v>
       </c>
       <c r="D87">
-        <v>8.0137368450131579</v>
+        <v>8.0661507939706638</v>
       </c>
       <c r="E87">
-        <v>-0.29357851534086876</v>
+        <v>-1.3946094310035733</v>
       </c>
       <c r="F87">
-        <v>-1.6263154986841499E-2</v>
+        <v>1.6150793970663102E-2</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>2946</v>
+        <v>2946.7</v>
       </c>
       <c r="B88">
-        <v>10.029999999999999</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="C88">
-        <v>2945.3157565221745</v>
+        <v>2945.489446454098</v>
       </c>
       <c r="D88">
-        <v>9.9898889579841867</v>
+        <v>10.063767039288535</v>
       </c>
       <c r="E88">
-        <v>-0.68424347782547557</v>
+        <v>-1.2105535459018029</v>
       </c>
       <c r="F88">
-        <v>-4.0111042015812615E-2</v>
+        <v>1.3767039288534733E-2</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>2946</v>
+        <v>2946.7</v>
       </c>
       <c r="B89">
-        <v>12.03</v>
+        <v>12.05</v>
       </c>
       <c r="C89">
-        <v>2944.7287061037646</v>
+        <v>2945.2675354321159</v>
       </c>
       <c r="D89">
-        <v>11.975317306127099</v>
+        <v>12.049178519238962</v>
       </c>
       <c r="E89">
-        <v>-1.2712938962354201</v>
+        <v>-1.4324645678839261</v>
       </c>
       <c r="F89">
-        <v>-5.4682693872900145E-2</v>
+        <v>-8.214807610382735E-4</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>2946</v>
+        <v>2946.7</v>
       </c>
       <c r="B90">
         <v>14.03</v>
       </c>
       <c r="C90">
-        <v>2946.3122100559021</v>
+        <v>2946.0335459478811</v>
       </c>
       <c r="D90">
-        <v>13.933669024325058</v>
+        <v>14.078933202632706</v>
       </c>
       <c r="E90">
-        <v>0.3122100559021419</v>
+        <v>-0.66645405211875186</v>
       </c>
       <c r="F90">
-        <v>-9.6330975674941755E-2</v>
+        <v>4.8933202632706951E-2</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>2946</v>
+        <v>2946.7</v>
       </c>
       <c r="B91">
         <v>16.03</v>
       </c>
       <c r="C91">
-        <v>2949.3396193600661</v>
+        <v>2947.5953470803474</v>
       </c>
       <c r="D91">
-        <v>15.912805030424813</v>
+        <v>16.049850605236244</v>
       </c>
       <c r="E91">
-        <v>3.3396193600660808</v>
+        <v>0.89534708034761934</v>
       </c>
       <c r="F91">
-        <v>-0.11719496957518771</v>
+        <v>1.9850605236243268E-2</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>3003.3</v>
+        <v>3049.8</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>3005.0379214493605</v>
+        <v>3051.1009636540116</v>
       </c>
       <c r="D92">
-        <v>2.9769849157821705E-2</v>
+        <v>-9.3369145127660588E-3</v>
       </c>
       <c r="E92">
-        <v>1.7379214493603286</v>
+        <v>1.3009636540114116</v>
       </c>
       <c r="F92">
-        <v>2.9769849157821705E-2</v>
+        <v>-9.3369145127660588E-3</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>3003.3</v>
+        <v>3049.8</v>
       </c>
       <c r="B93">
-        <v>-15.9</v>
+        <v>-16.079999999999998</v>
       </c>
       <c r="C93">
-        <v>3002.9923671569541</v>
+        <v>3049.1716198440449</v>
       </c>
       <c r="D93">
-        <v>-15.91358832362492</v>
+        <v>-16.020720521158321</v>
       </c>
       <c r="E93">
-        <v>-0.30763284304612171</v>
+        <v>-0.62838015595525576</v>
       </c>
       <c r="F93">
-        <v>-1.3588323624919241E-2</v>
+        <v>5.9279478841677502E-2</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>3003.3</v>
+        <v>3049.8</v>
       </c>
       <c r="B94">
-        <v>-14.07</v>
+        <v>-14</v>
       </c>
       <c r="C94">
-        <v>3002.8104104713061</v>
+        <v>3048.3078671579906</v>
       </c>
       <c r="D94">
-        <v>-14.111962352645113</v>
+        <v>-13.925118739408296</v>
       </c>
       <c r="E94">
-        <v>-0.48958952869406858</v>
+        <v>-1.4921328420095961</v>
       </c>
       <c r="F94">
-        <v>-4.1962352645112944E-2</v>
+        <v>7.4881260591704191E-2</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>3003.3</v>
+        <v>3049.8</v>
       </c>
       <c r="B95">
-        <v>-12.03</v>
+        <v>-11.98</v>
       </c>
       <c r="C95">
-        <v>3003.1594681983961</v>
+        <v>3050.3389641088597</v>
       </c>
       <c r="D95">
-        <v>-12.035909426193975</v>
+        <v>-11.931501176489983</v>
       </c>
       <c r="E95">
-        <v>-0.14053180160408374</v>
+        <v>0.53896410885954538</v>
       </c>
       <c r="F95">
-        <v>-5.9094261939751647E-3</v>
+        <v>4.8498823510017885E-2</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>3003.3</v>
+        <v>3049.8</v>
       </c>
       <c r="B96">
-        <v>-10.029999999999999</v>
+        <v>-9.98</v>
       </c>
       <c r="C96">
-        <v>3003.4006993660873</v>
+        <v>3050.341485584881</v>
       </c>
       <c r="D96">
-        <v>-10.018093087692842</v>
+        <v>-9.9528684418877731</v>
       </c>
       <c r="E96">
-        <v>0.10069936608715579</v>
+        <v>0.5414855848807747</v>
       </c>
       <c r="F96">
-        <v>1.1906912307157569E-2</v>
+        <v>2.7131558112227339E-2</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>3003.3</v>
+        <v>3049.8</v>
       </c>
       <c r="B97">
-        <v>-7.97</v>
+        <v>-7.98</v>
       </c>
       <c r="C97">
-        <v>3003.4787070925117</v>
+        <v>3051.0677425289223</v>
       </c>
       <c r="D97">
-        <v>-7.999065519368922</v>
+        <v>-7.947910745445542</v>
       </c>
       <c r="E97">
-        <v>0.17870709251155859</v>
+        <v>1.2677425289220992</v>
       </c>
       <c r="F97">
-        <v>-2.906551936892221E-2</v>
+        <v>3.2089254554458435E-2</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>3003.3</v>
+        <v>3049.8</v>
       </c>
       <c r="B98">
-        <v>-6.03</v>
+        <v>-5.98</v>
       </c>
       <c r="C98">
-        <v>3003.6659119727356</v>
+        <v>3049.9727475567056</v>
       </c>
       <c r="D98">
-        <v>-6.0199036270156245</v>
+        <v>-5.9590016263197878</v>
       </c>
       <c r="E98">
-        <v>0.36591197273537546</v>
+        <v>0.17274755670541708</v>
       </c>
       <c r="F98">
-        <v>1.0096372984375712E-2</v>
+        <v>2.0998373680212623E-2</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>3003.3</v>
+        <v>3049.8</v>
       </c>
       <c r="B99">
-        <v>-3.97</v>
+        <v>-3.98</v>
       </c>
       <c r="C99">
-        <v>3003.3644037764302</v>
+        <v>3051.0271518107274</v>
       </c>
       <c r="D99">
-        <v>-3.9765329673762193</v>
+        <v>-3.9549087542606638</v>
       </c>
       <c r="E99">
-        <v>6.4403776430026483E-2</v>
+        <v>1.2271518107272641</v>
       </c>
       <c r="F99">
-        <v>-6.5329673762191121E-3</v>
+        <v>2.5091245739336188E-2</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>3003.3</v>
+        <v>3049.8</v>
       </c>
       <c r="B100">
-        <v>-2</v>
+        <v>-1.98</v>
       </c>
       <c r="C100">
-        <v>3003.7329557898138</v>
+        <v>3051.2408564501434</v>
       </c>
       <c r="D100">
-        <v>-2.0017434015888265</v>
+        <v>-1.9524368032274537</v>
       </c>
       <c r="E100">
-        <v>0.4329557898136045</v>
+        <v>1.4408564501432011</v>
       </c>
       <c r="F100">
-        <v>-1.7434015888264653E-3</v>
+        <v>2.7563196772546261E-2</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>3003.3</v>
+        <v>3049.8</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="C101">
-        <v>3004.8915080362453</v>
+        <v>3051.3580984206619</v>
       </c>
       <c r="D101">
-        <v>1.1362491027444174E-2</v>
+        <v>6.8094819925383826E-2</v>
       </c>
       <c r="E101">
-        <v>1.591508036245159</v>
+        <v>1.5580984206617359</v>
       </c>
       <c r="F101">
-        <v>1.1362491027444174E-2</v>
+        <v>4.8094819925383822E-2</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>3003.3</v>
+        <v>3049.8</v>
       </c>
       <c r="B102">
         <v>2</v>
       </c>
       <c r="C102">
-        <v>3003.7911924546097</v>
+        <v>3052.3641564998456</v>
       </c>
       <c r="D102">
-        <v>2.0190080026244219</v>
+        <v>2.072075064157417</v>
       </c>
       <c r="E102">
-        <v>0.49119245460951788</v>
+        <v>2.5641564998454669</v>
       </c>
       <c r="F102">
-        <v>1.9008002624421927E-2</v>
+        <v>7.2075064157417046E-2</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>3003.3</v>
+        <v>3049.8</v>
       </c>
       <c r="B103">
-        <v>4.03</v>
+        <v>4</v>
       </c>
       <c r="C103">
-        <v>3004.5825891487048</v>
+        <v>3050.0503756433841</v>
       </c>
       <c r="D103">
-        <v>4.0329729099201206</v>
+        <v>4.1014412343967983</v>
       </c>
       <c r="E103">
-        <v>1.2825891487045737</v>
+        <v>0.25037564338390439</v>
       </c>
       <c r="F103">
-        <v>2.9729099201203368E-3</v>
+        <v>0.10144123439679831</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>3003.3</v>
+        <v>3049.8</v>
       </c>
       <c r="B104">
         <v>6</v>
       </c>
       <c r="C104">
-        <v>3002.9066022361021</v>
+        <v>3050.9302561381655</v>
       </c>
       <c r="D104">
-        <v>6.006180135761328</v>
+        <v>6.1108718798474024</v>
       </c>
       <c r="E104">
-        <v>-0.39339776389806502</v>
+        <v>1.1302561381653504</v>
       </c>
       <c r="F104">
-        <v>6.1801357613280317E-3</v>
+        <v>0.11087187984740243</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>3003.3</v>
+        <v>3049.8</v>
       </c>
       <c r="B105">
-        <v>8</v>
+        <v>7.98</v>
       </c>
       <c r="C105">
-        <v>3004.9324345970035</v>
+        <v>3048.6027577930536</v>
       </c>
       <c r="D105">
-        <v>8.0233268492949836</v>
+        <v>8.1353314754393953</v>
       </c>
       <c r="E105">
-        <v>1.6324345970033391</v>
+        <v>-1.197242206946612</v>
       </c>
       <c r="F105">
-        <v>2.3326849294983631E-2</v>
+        <v>0.15533147543939485</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>3003.3</v>
+        <v>3049.8</v>
       </c>
       <c r="B106">
-        <v>10.050000000000001</v>
+        <v>9.98</v>
       </c>
       <c r="C106">
-        <v>3003.6156440722848</v>
+        <v>3048.7061208232299</v>
       </c>
       <c r="D106">
-        <v>10.011499277631481</v>
+        <v>10.174777453453805</v>
       </c>
       <c r="E106">
-        <v>0.31564407228461278</v>
+        <v>-1.0938791767703151</v>
       </c>
       <c r="F106">
-        <v>-3.8500722368519646E-2</v>
+        <v>0.19477745345380448</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>3003.3</v>
+        <v>3049.8</v>
       </c>
       <c r="B107">
-        <v>12</v>
+        <v>11.98</v>
       </c>
       <c r="C107">
-        <v>3002.8720072277424</v>
+        <v>3049.9177927318506</v>
       </c>
       <c r="D107">
-        <v>11.959676315009549</v>
+        <v>12.20576142007128</v>
       </c>
       <c r="E107">
-        <v>-0.42799277225776677</v>
+        <v>0.11779273185038619</v>
       </c>
       <c r="F107">
-        <v>-4.0323684990450914E-2</v>
+        <v>0.22576142007127942</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>3003.3</v>
+        <v>3049.8</v>
       </c>
       <c r="B108">
         <v>14</v>
       </c>
       <c r="C108">
-        <v>3004.0415360968527</v>
+        <v>3051.020970041423</v>
       </c>
       <c r="D108">
-        <v>13.939408082362048</v>
+        <v>14.22084819713716</v>
       </c>
       <c r="E108">
-        <v>0.74153609685254196</v>
+        <v>1.2209700414227882</v>
       </c>
       <c r="F108">
-        <v>-6.0591917637951909E-2</v>
+        <v>0.22084819713716008</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>3003.3</v>
+        <v>3049.8</v>
       </c>
       <c r="B109">
-        <v>16</v>
+        <v>15.95</v>
       </c>
       <c r="C109">
-        <v>3002.8519329621909</v>
+        <v>3051.4473874581254</v>
       </c>
       <c r="D109">
-        <v>15.891454172069608</v>
+        <v>16.199319380295073</v>
       </c>
       <c r="E109">
-        <v>-0.44806703780932366</v>
+        <v>1.6473874581251948</v>
       </c>
       <c r="F109">
-        <v>-0.10854582793039214</v>
+        <v>0.2493193802950735</v>
       </c>
     </row>
   </sheetData>

--- a/cam7_validation_result.xlsx
+++ b/cam7_validation_result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voies\Desktop\GodEyesProject\CalibPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DA1B83-BE51-4B41-8C84-832F01053232}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BDD771-FA45-4D8A-98E0-154515C122C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8229" yWindow="3729" windowWidth="24685" windowHeight="13217" xr2:uid="{EAD0C716-2208-41AB-B04E-A0280A1A9E7D}"/>
+    <workbookView xWindow="15257" yWindow="3086" windowWidth="16192" windowHeight="13225" xr2:uid="{EAD0C716-2208-41AB-B04E-A0280A1A9E7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/cam7_validation_result.xlsx
+++ b/cam7_validation_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voies\Desktop\GodEyesProject\CalibPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BDD771-FA45-4D8A-98E0-154515C122C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C34FA4-62A0-4D2C-9CD1-ED05A7BE9C2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15257" yWindow="3086" windowWidth="16192" windowHeight="13225" xr2:uid="{EAD0C716-2208-41AB-B04E-A0280A1A9E7D}"/>
+    <workbookView xWindow="16774" yWindow="4500" windowWidth="16192" windowHeight="13226" xr2:uid="{EAD0C716-2208-41AB-B04E-A0280A1A9E7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -219,271 +219,271 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="108"/>
                 <c:pt idx="0">
-                  <c:v>-0.50919464378421253</c:v>
+                  <c:v>1.6708667443544982</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.51022752024118745</c:v>
+                  <c:v>-0.4490346227662485</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.86938982526817199</c:v>
+                  <c:v>0.42522505138913402</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.30153493681700638</c:v>
+                  <c:v>1.299802727878614</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.91727930531214952</c:v>
+                  <c:v>0.53850364794834604</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8047717894187372E-2</c:v>
+                  <c:v>1.6622835468533594</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.91463634019237361</c:v>
+                  <c:v>0.94320018265261751</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.777579912499732</c:v>
+                  <c:v>1.7260331537308957</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.31935118150659036</c:v>
+                  <c:v>-0.627675052943232</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.59852793790832948</c:v>
+                  <c:v>-6.9968649816928519E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.055057423263861</c:v>
+                  <c:v>0.23504591033542965</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.4807379479534575</c:v>
+                  <c:v>0.13644324141387187</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3952814592357754E-2</c:v>
+                  <c:v>0.48793385348699303</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.2356005837200428</c:v>
+                  <c:v>0.93946407216071748</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.11647982191743722</c:v>
+                  <c:v>2.2154066691969092</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.0005346422267394</c:v>
+                  <c:v>3.1707341801134135</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.1821990122502939</c:v>
+                  <c:v>1.6789487390260547</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.8683151367335995</c:v>
+                  <c:v>1.416582513620142</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.7288673664243106</c:v>
+                  <c:v>2.4947642972156245</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-7.0878671618629596E-2</c:v>
+                  <c:v>1.409626665887572</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.71387380742999085</c:v>
+                  <c:v>2.4269011598394172</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.45171999120248074</c:v>
+                  <c:v>1.2267449111104725</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.22689607527672706</c:v>
+                  <c:v>2.2573240583005827</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1.0053055563084854</c:v>
+                  <c:v>0.80042053033139382</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.21487301861770902</c:v>
+                  <c:v>1.6391721463191971</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1.7016278106138998</c:v>
+                  <c:v>-0.49703032000115854</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.77713883453816379</c:v>
+                  <c:v>-0.79510647807910573</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.79635462946953339</c:v>
+                  <c:v>-0.40050631358008104</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.39298593628654999</c:v>
+                  <c:v>-0.76852576894862068</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.3461634623986356</c:v>
+                  <c:v>-0.49147895980013345</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.97626969212251424</c:v>
+                  <c:v>0.68828696541231693</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.59930824430148277</c:v>
+                  <c:v>0.73134282822320529</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.91044077326341721</c:v>
+                  <c:v>1.5069994793138903</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1.0435172260408763</c:v>
+                  <c:v>0.67839096461739246</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.64813143010223939</c:v>
+                  <c:v>5.3343203039730724E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.86441215404965988</c:v>
+                  <c:v>-0.17136536890620846</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-2.9603575478631683E-2</c:v>
+                  <c:v>1.3771072867475596</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.6538634799603642</c:v>
+                  <c:v>0.42042243281639458</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.1135868852816202</c:v>
+                  <c:v>1.4380045340280958</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-1.2646251645619486</c:v>
+                  <c:v>0.18791291949128208</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.47409911374961666</c:v>
+                  <c:v>0.51000366449079593</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.64670244680428368</c:v>
+                  <c:v>-0.38506017873032761</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.6764980334505708</c:v>
+                  <c:v>-0.32605500047066016</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.69355337021715968</c:v>
+                  <c:v>-2.3313498710767817</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.12421138780382535</c:v>
+                  <c:v>-1.5091886649943262</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.2412873364760344</c:v>
+                  <c:v>-2.7703500156480914</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.29091931007769745</c:v>
+                  <c:v>-1.4480162257445954</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.24397135552180771</c:v>
+                  <c:v>-2.3170852989342166</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.57235810908923668</c:v>
+                  <c:v>-1.4709385231662964</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.66844295360715478</c:v>
+                  <c:v>-0.29654772836374832</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-0.47241782618993966</c:v>
+                  <c:v>-1.1620817006769357</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-1.0857519080036582</c:v>
+                  <c:v>-1.1988478962321096</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.47941415245213648</c:v>
+                  <c:v>0.45828692995428355</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.32293463448968396</c:v>
+                  <c:v>1.632137471725855</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5.1085413607324881E-2</c:v>
+                  <c:v>0.69003225939923141</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.57253976534002504</c:v>
+                  <c:v>-0.3900626557006035</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-0.13879903254019155</c:v>
+                  <c:v>1.495171685276091</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.12414065966504495</c:v>
+                  <c:v>-0.20396251810780086</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.25537991287410478</c:v>
+                  <c:v>-0.83262334306982666</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-6.0384305493244028E-3</c:v>
+                  <c:v>-3.2132981661507074</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.20974985824750547</c:v>
+                  <c:v>-1.1789180935788863</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.34963255645470781</c:v>
+                  <c:v>-2.8129096583902538</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.4798955589126308</c:v>
+                  <c:v>-5.4678559149001558</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.13904765919323836</c:v>
+                  <c:v>-4.388946662246326</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-9.5060889139404026E-2</c:v>
+                  <c:v>-5.5166172050612658</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.58320117435869179</c:v>
+                  <c:v>-4.5521344322787627</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.67307461839209282</c:v>
+                  <c:v>-0.10726513300596707</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-2.0067220712917333E-2</c:v>
+                  <c:v>-2.1590425125414185</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-2.4040512841611417</c:v>
+                  <c:v>-0.93285219098515881</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-1.5314437542033374</c:v>
+                  <c:v>-0.73409392915800709</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.33307589816104155</c:v>
+                  <c:v>0.94699018267601787</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.3793666545811902</c:v>
+                  <c:v>1.1186269817280845</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-0.62984073986035582</c:v>
+                  <c:v>1.3869239158470918</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-1.1768637516274794</c:v>
+                  <c:v>1.6710544898887747</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-0.69253844958075206</c:v>
+                  <c:v>0.5332998548856267</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-1.1568881974626493</c:v>
+                  <c:v>0.33144217709877921</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>7.6230750502872979E-2</c:v>
+                  <c:v>-0.79747598112817286</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.30568004592942088</c:v>
+                  <c:v>-1.4212662044992612</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.87393265090349814</c:v>
+                  <c:v>-4.6343683668615085</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.58422080848276892</c:v>
+                  <c:v>-4.0248962378436772</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-0.8197302846169805</c:v>
+                  <c:v>-5.369009306668886</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-0.54781410602754477</c:v>
+                  <c:v>-7.5041657895208118</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.20127896263602452</c:v>
+                  <c:v>-7.5624024210374046</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-0.64647175483878527</c:v>
+                  <c:v>-8.1934170890785936</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.51801860136265532</c:v>
+                  <c:v>-4.0248962378436772</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-1.3946094310035733</c:v>
+                  <c:v>-5.369009306668886</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-1.2105535459018029</c:v>
+                  <c:v>-7.5041657895208118</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-1.4324645678839261</c:v>
+                  <c:v>-7.5624024210374046</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.66645405211875186</c:v>
+                  <c:v>-8.1934170890785936</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>0.89534708034761934</c:v>
@@ -1864,16 +1864,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>402771</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>435427</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>16329</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>97971</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>21772</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>119742</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>103415</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2309,1812 +2309,1812 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>2547.9</v>
+        <v>2550.4</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2547.3908053562159</v>
+        <v>2552.0708667443546</v>
       </c>
       <c r="D2">
-        <v>-1.8506106252085105E-3</v>
+        <v>-2.2265955053336822E-2</v>
       </c>
       <c r="E2">
-        <v>-0.50919464378421253</v>
+        <v>1.6708667443544982</v>
       </c>
       <c r="F2">
-        <v>-1.8506106252085105E-3</v>
+        <v>-2.2265955053336822E-2</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
       </c>
       <c r="I2">
-        <v>0.64895822832826422</v>
+        <v>1.6677737594974198</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2547.9</v>
+        <v>2550.4</v>
       </c>
       <c r="B3">
-        <v>-16.079999999999998</v>
+        <v>-16.07</v>
       </c>
       <c r="C3">
-        <v>2547.3897724797589</v>
+        <v>2549.9509653772338</v>
       </c>
       <c r="D3">
-        <v>-15.954766032882031</v>
+        <v>-15.91852539070025</v>
       </c>
       <c r="E3">
-        <v>-0.51022752024118745</v>
+        <v>-0.4490346227662485</v>
       </c>
       <c r="F3">
-        <v>0.12523396711796764</v>
+        <v>0.15147460929975054</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
       </c>
       <c r="I3">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>2547.9</v>
+        <v>2550.4</v>
       </c>
       <c r="B4">
-        <v>-13.95</v>
+        <v>-12</v>
       </c>
       <c r="C4">
-        <v>2547.0306101747319</v>
+        <v>2550.8252250513892</v>
       </c>
       <c r="D4">
-        <v>-13.845098799482992</v>
+        <v>-12.335994851572979</v>
       </c>
       <c r="E4">
-        <v>-0.86938982526817199</v>
+        <v>0.42522505138913402</v>
       </c>
       <c r="F4">
-        <v>0.10490120051700735</v>
+        <v>-0.3359948515729787</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
       </c>
       <c r="I4">
-        <v>89</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>2547.9</v>
+        <v>2550.4</v>
       </c>
       <c r="B5">
-        <v>-11.93</v>
+        <v>-9.9700000000000006</v>
       </c>
       <c r="C5">
-        <v>2548.2015349368171</v>
+        <v>2551.6998027278787</v>
       </c>
       <c r="D5">
-        <v>-11.851490752100572</v>
+        <v>-10.766410770819125</v>
       </c>
       <c r="E5">
-        <v>0.30153493681700638</v>
+        <v>1.299802727878614</v>
       </c>
       <c r="F5">
-        <v>7.8509247899427592E-2</v>
+        <v>-0.79641077081912393</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
       </c>
       <c r="I5">
-        <v>0.98888888888888893</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>2547.9</v>
+        <v>2550.4</v>
       </c>
       <c r="B6">
-        <v>-9.93</v>
+        <v>-7.97</v>
       </c>
       <c r="C6">
-        <v>2546.9827206946879</v>
+        <v>2550.9385036479484</v>
       </c>
       <c r="D6">
-        <v>-9.8866591882544892</v>
+        <v>-8.0879348165326803</v>
       </c>
       <c r="E6">
-        <v>-0.91727930531214952</v>
+        <v>0.53850364794834604</v>
       </c>
       <c r="F6">
-        <v>4.3340811745510521E-2</v>
+        <v>-0.11793481653268056</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
       </c>
       <c r="I6">
-        <v>1.4807379479534575</v>
+        <v>5.4678559149001558</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>2547.9</v>
+        <v>2550.4</v>
       </c>
       <c r="B7">
-        <v>-7.93</v>
+        <v>-3.97</v>
       </c>
       <c r="C7">
-        <v>2547.9380477178943</v>
+        <v>2552.0622835468535</v>
       </c>
       <c r="D7">
-        <v>-7.908060227036577</v>
+        <v>-4.0219132839328546</v>
       </c>
       <c r="E7">
-        <v>3.8047717894187372E-2</v>
+        <v>1.6622835468533594</v>
       </c>
       <c r="F7">
-        <v>2.1939772963422755E-2</v>
+        <v>-5.1913283932854437E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>2547.9</v>
+        <v>2550.4</v>
       </c>
       <c r="B8">
-        <v>-5.93</v>
+        <v>-2</v>
       </c>
       <c r="C8">
-        <v>2546.9853636598077</v>
+        <v>2551.3432001826527</v>
       </c>
       <c r="D8">
-        <v>-5.9202178835141614</v>
+        <v>-2.0226726127882064</v>
       </c>
       <c r="E8">
-        <v>-0.91463634019237361</v>
+        <v>0.94320018265261751</v>
       </c>
       <c r="F8">
-        <v>9.7821164858382659E-3</v>
+        <v>-2.2672612788206425E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>2547.9</v>
+        <v>2550.4</v>
       </c>
       <c r="B9">
-        <v>-3.9</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>2546.1224200875004</v>
+        <v>2552.126033153731</v>
       </c>
       <c r="D9">
-        <v>-3.9221037955614371</v>
+        <v>-1.2747969196065719E-2</v>
       </c>
       <c r="E9">
-        <v>-1.777579912499732</v>
+        <v>1.7260331537308957</v>
       </c>
       <c r="F9">
-        <v>-2.2103795561437156E-2</v>
+        <v>-1.2747969196065719E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>2547.9</v>
+        <v>2550.4</v>
       </c>
       <c r="B10">
-        <v>-1.93</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>2547.5806488184935</v>
+        <v>2549.7723249470569</v>
       </c>
       <c r="D10">
-        <v>-1.9455650073876263</v>
+        <v>1.9841567644723581</v>
       </c>
       <c r="E10">
-        <v>-0.31935118150659036</v>
+        <v>-0.627675052943232</v>
       </c>
       <c r="F10">
-        <v>-1.556500738762634E-2</v>
+        <v>-1.5843235527641886E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>2547.9</v>
+        <v>2550.4</v>
       </c>
       <c r="B11">
-        <v>7.0000000000000007E-2</v>
+        <v>3.98</v>
       </c>
       <c r="C11">
-        <v>2547.3014720620918</v>
+        <v>2550.3300313501832</v>
       </c>
       <c r="D11">
-        <v>5.2956812877562848E-2</v>
+        <v>3.9967172097784727</v>
       </c>
       <c r="E11">
-        <v>-0.59852793790832948</v>
+        <v>-6.9968649816928519E-2</v>
       </c>
       <c r="F11">
-        <v>-1.7043187122437159E-2</v>
+        <v>1.6717209778472686E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>2547.9</v>
+        <v>2550.4</v>
       </c>
       <c r="B12">
-        <v>2.0699999999999998</v>
+        <v>5.98</v>
       </c>
       <c r="C12">
-        <v>2546.8449425767362</v>
+        <v>2550.6350459103355</v>
       </c>
       <c r="D12">
-        <v>2.0526421688409111</v>
+        <v>6.0214092281677285</v>
       </c>
       <c r="E12">
-        <v>-1.055057423263861</v>
+        <v>0.23504591033542965</v>
       </c>
       <c r="F12">
-        <v>-1.7357831159088732E-2</v>
+        <v>4.1409228167728074E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>2547.9</v>
+        <v>2550.4</v>
       </c>
       <c r="B13">
-        <v>4.05</v>
+        <v>7.95</v>
       </c>
       <c r="C13">
-        <v>2546.4192620520466</v>
+        <v>2550.536443241414</v>
       </c>
       <c r="D13">
-        <v>4.0492235223661561</v>
+        <v>8.0278754877571448</v>
       </c>
       <c r="E13">
-        <v>-1.4807379479534575</v>
+        <v>0.13644324141387187</v>
       </c>
       <c r="F13">
-        <v>-7.7647763384369739E-4</v>
+        <v>7.787548775714459E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>2547.9</v>
+        <v>2550.4</v>
       </c>
       <c r="B14">
-        <v>6.05</v>
+        <v>9.98</v>
       </c>
       <c r="C14">
-        <v>2547.9139528145924</v>
+        <v>2550.8879338534871</v>
       </c>
       <c r="D14">
-        <v>6.055428692077613</v>
+        <v>10.056343040959758</v>
       </c>
       <c r="E14">
-        <v>1.3952814592357754E-2</v>
+        <v>0.48793385348699303</v>
       </c>
       <c r="F14">
-        <v>5.4286920776132064E-3</v>
+        <v>7.6343040959757857E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>2547.9</v>
+        <v>2550.4</v>
       </c>
       <c r="B15">
-        <v>8.07</v>
+        <v>11.98</v>
       </c>
       <c r="C15">
-        <v>2546.66439941628</v>
+        <v>2551.3394640721608</v>
       </c>
       <c r="D15">
-        <v>8.0786184262891805</v>
+        <v>12.026793667155641</v>
       </c>
       <c r="E15">
-        <v>-1.2356005837200428</v>
+        <v>0.93946407216071748</v>
       </c>
       <c r="F15">
-        <v>8.6184262891801922E-3</v>
+        <v>4.6793667155640151E-2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>2547.9</v>
+        <v>2550.4</v>
       </c>
       <c r="B16">
-        <v>10.050000000000001</v>
+        <v>13.98</v>
       </c>
       <c r="C16">
-        <v>2547.7835201780827</v>
+        <v>2552.615406669197</v>
       </c>
       <c r="D16">
-        <v>10.077614521371531</v>
+        <v>13.982601976384547</v>
       </c>
       <c r="E16">
-        <v>-0.11647982191743722</v>
+        <v>2.2154066691969092</v>
       </c>
       <c r="F16">
-        <v>2.7614521371530643E-2</v>
+        <v>2.6019763845468447E-3</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>2547.9</v>
+        <v>2550.4</v>
       </c>
       <c r="B17">
-        <v>12.05</v>
+        <v>15.93</v>
       </c>
       <c r="C17">
-        <v>2546.8994653577734</v>
+        <v>2553.5707341801135</v>
       </c>
       <c r="D17">
-        <v>12.074064049641185</v>
+        <v>15.940861748834779</v>
       </c>
       <c r="E17">
-        <v>-1.0005346422267394</v>
+        <v>3.1707341801134135</v>
       </c>
       <c r="F17">
-        <v>2.4064049641184582E-2</v>
+        <v>1.0861748834779306E-2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>2547.9</v>
+        <v>2650.1</v>
       </c>
       <c r="B18">
-        <v>14.02</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>2549.0821990122504</v>
+        <v>2651.778948739026</v>
       </c>
       <c r="D18">
-        <v>14.078963193687342</v>
+        <v>2.162300802010033E-2</v>
       </c>
       <c r="E18">
-        <v>1.1821990122502939</v>
+        <v>1.6789487390260547</v>
       </c>
       <c r="F18">
-        <v>5.8963193687342041E-2</v>
+        <v>2.162300802010033E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>2547.9</v>
+        <v>2650.1</v>
       </c>
       <c r="B19">
-        <v>16.02</v>
+        <v>-16.07</v>
       </c>
       <c r="C19">
-        <v>2548.7683151367337</v>
+        <v>2651.5165825136201</v>
       </c>
       <c r="D19">
-        <v>16.077683230819066</v>
+        <v>-15.933057756338322</v>
       </c>
       <c r="E19">
-        <v>0.8683151367335995</v>
+        <v>1.416582513620142</v>
       </c>
       <c r="F19">
-        <v>5.7683230819066011E-2</v>
+        <v>0.13694224366167873</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>2647.6</v>
+        <v>2650.1</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>-11.97</v>
       </c>
       <c r="C20">
-        <v>2646.8711326335756</v>
+        <v>2652.5947642972155</v>
       </c>
       <c r="D20">
-        <v>-2.6587411063582474E-3</v>
+        <v>-11.92888134853181</v>
       </c>
       <c r="E20">
-        <v>-0.7288673664243106</v>
+        <v>2.4947642972156245</v>
       </c>
       <c r="F20">
-        <v>-2.6587411063582474E-3</v>
+        <v>4.1118651468190492E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>2647.6</v>
+        <v>2650.1</v>
       </c>
       <c r="B21">
-        <v>-16.100000000000001</v>
+        <v>-9.9700000000000006</v>
       </c>
       <c r="C21">
-        <v>2647.5291213283813</v>
+        <v>2651.5096266658875</v>
       </c>
       <c r="D21">
-        <v>-15.948165612820443</v>
+        <v>-9.9587411659212925</v>
       </c>
       <c r="E21">
-        <v>-7.0878671618629596E-2</v>
+        <v>1.409626665887572</v>
       </c>
       <c r="F21">
-        <v>0.15183438717955866</v>
+        <v>1.1258834078708091E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>2647.6</v>
+        <v>2650.1</v>
       </c>
       <c r="B22">
-        <v>-13.95</v>
+        <v>-7.97</v>
       </c>
       <c r="C22">
-        <v>2646.8861261925699</v>
+        <v>2652.5269011598393</v>
       </c>
       <c r="D22">
-        <v>-13.826768173015489</v>
+        <v>-7.999788805964652</v>
       </c>
       <c r="E22">
-        <v>-0.71387380742999085</v>
+        <v>2.4269011598394172</v>
       </c>
       <c r="F22">
-        <v>0.12323182698450985</v>
+        <v>-2.9788805964652276E-2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>2647.6</v>
+        <v>2650.1</v>
       </c>
       <c r="B23">
-        <v>-11.92</v>
+        <v>-6</v>
       </c>
       <c r="C23">
-        <v>2647.1482800087974</v>
+        <v>2651.3267449111104</v>
       </c>
       <c r="D23">
-        <v>-11.83728345242015</v>
+        <v>-5.9931232715435474</v>
       </c>
       <c r="E23">
-        <v>-0.45171999120248074</v>
+        <v>1.2267449111104725</v>
       </c>
       <c r="F23">
-        <v>8.2716547579849475E-2</v>
+        <v>6.8767284564525966E-3</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>2647.6</v>
+        <v>2650.1</v>
       </c>
       <c r="B24">
-        <v>-9.92</v>
+        <v>-3.97</v>
       </c>
       <c r="C24">
-        <v>2647.3731039247232</v>
+        <v>2652.3573240583005</v>
       </c>
       <c r="D24">
-        <v>-9.8759944674707079</v>
+        <v>-3.995262540267261</v>
       </c>
       <c r="E24">
-        <v>-0.22689607527672706</v>
+        <v>2.2573240583005827</v>
       </c>
       <c r="F24">
-        <v>4.4005532529292068E-2</v>
+        <v>-2.5262540267260825E-2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>2647.6</v>
+        <v>2650.1</v>
       </c>
       <c r="B25">
-        <v>-7.95</v>
+        <v>-2</v>
       </c>
       <c r="C25">
-        <v>2646.5946944436914</v>
+        <v>2650.9004205303313</v>
       </c>
       <c r="D25">
-        <v>-7.8983432229480854</v>
+        <v>-1.9902778751187173</v>
       </c>
       <c r="E25">
-        <v>-1.0053055563084854</v>
+        <v>0.80042053033139382</v>
       </c>
       <c r="F25">
-        <v>5.1656777051914737E-2</v>
+        <v>9.7221248812826566E-3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>2647.6</v>
+        <v>2650.1</v>
       </c>
       <c r="B26">
-        <v>-5.92</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>2647.3851269813822</v>
+        <v>2651.7391721463191</v>
       </c>
       <c r="D26">
-        <v>-5.9072178611390793</v>
+        <v>2.4495244382421677E-2</v>
       </c>
       <c r="E26">
-        <v>-0.21487301861770902</v>
+        <v>1.6391721463191971</v>
       </c>
       <c r="F26">
-        <v>1.2782138860920611E-2</v>
+        <v>2.4495244382421677E-2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>2647.6</v>
+        <v>2650.1</v>
       </c>
       <c r="B27">
-        <v>-3.95</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>2645.898372189386</v>
+        <v>2649.6029696799988</v>
       </c>
       <c r="D27">
-        <v>-3.9497438192719883</v>
+        <v>2.0345184614131342</v>
       </c>
       <c r="E27">
-        <v>-1.7016278106138998</v>
+        <v>-0.49703032000115854</v>
       </c>
       <c r="F27">
-        <v>2.5618072801192326E-4</v>
+        <v>3.4518461413134194E-2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>2647.6</v>
+        <v>2650.1</v>
       </c>
       <c r="B28">
-        <v>-1.92</v>
+        <v>3.98</v>
       </c>
       <c r="C28">
-        <v>2646.8228611654617</v>
+        <v>2649.3048935219208</v>
       </c>
       <c r="D28">
-        <v>-1.9195142188194698</v>
+        <v>4.0506809506646331</v>
       </c>
       <c r="E28">
-        <v>-0.77713883453816379</v>
+        <v>-0.79510647807910573</v>
       </c>
       <c r="F28">
-        <v>4.8578118053010932E-4</v>
+        <v>7.0680950664633091E-2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>2647.6</v>
+        <v>2650.1</v>
       </c>
       <c r="B29">
-        <v>0.08</v>
+        <v>5.98</v>
       </c>
       <c r="C29">
-        <v>2646.8036453705304</v>
+        <v>2649.6994936864198</v>
       </c>
       <c r="D29">
-        <v>6.6650784996735796E-2</v>
+        <v>6.0875004390690517</v>
       </c>
       <c r="E29">
-        <v>-0.79635462946953339</v>
+        <v>-0.40050631358008104</v>
       </c>
       <c r="F29">
-        <v>-1.3349215003264206E-2</v>
+        <v>0.10750043906905127</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>2647.6</v>
+        <v>2650.1</v>
       </c>
       <c r="B30">
-        <v>2.08</v>
+        <v>7.95</v>
       </c>
       <c r="C30">
-        <v>2647.9929859362865</v>
+        <v>2649.3314742310513</v>
       </c>
       <c r="D30">
-        <v>2.0688872605283151</v>
+        <v>8.0972255643081219</v>
       </c>
       <c r="E30">
-        <v>0.39298593628654999</v>
+        <v>-0.76852576894862068</v>
       </c>
       <c r="F30">
-        <v>-1.1112739471685007E-2</v>
+        <v>0.14722556430812173</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>2647.6</v>
+        <v>2650.1</v>
       </c>
       <c r="B31">
-        <v>4.05</v>
+        <v>9.98</v>
       </c>
       <c r="C31">
-        <v>2647.9461634623985</v>
+        <v>2649.6085210401998</v>
       </c>
       <c r="D31">
-        <v>4.0638900065056367</v>
+        <v>9.7320531319619157</v>
       </c>
       <c r="E31">
-        <v>0.3461634623986356</v>
+        <v>-0.49147895980013345</v>
       </c>
       <c r="F31">
-        <v>1.3890006505636876E-2</v>
+        <v>-0.24794686803808474</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>2647.6</v>
+        <v>2650.1</v>
       </c>
       <c r="B32">
-        <v>6.05</v>
+        <v>11.98</v>
       </c>
       <c r="C32">
-        <v>2646.6237303078774</v>
+        <v>2650.7882869654122</v>
       </c>
       <c r="D32">
-        <v>6.0643674057463217</v>
+        <v>12.128179147938994</v>
       </c>
       <c r="E32">
-        <v>-0.97626969212251424</v>
+        <v>0.68828696541231693</v>
       </c>
       <c r="F32">
-        <v>1.4367405746321893E-2</v>
+        <v>0.14817914793899334</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>2647.6</v>
+        <v>2650.1</v>
       </c>
       <c r="B33">
-        <v>8.0500000000000007</v>
+        <v>13.98</v>
       </c>
       <c r="C33">
-        <v>2647.0006917556984</v>
+        <v>2650.8313428282231</v>
       </c>
       <c r="D33">
-        <v>8.0829273396554733</v>
+        <v>14.096817795241847</v>
       </c>
       <c r="E33">
-        <v>-0.59930824430148277</v>
+        <v>0.73134282822320529</v>
       </c>
       <c r="F33">
-        <v>3.2927339655472565E-2</v>
+        <v>0.11681779524184677</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>2647.6</v>
+        <v>2650.1</v>
       </c>
       <c r="B34">
-        <v>10.050000000000001</v>
+        <v>15.93</v>
       </c>
       <c r="C34">
-        <v>2646.6895592267365</v>
+        <v>2651.6069994793138</v>
       </c>
       <c r="D34">
-        <v>10.092988362345812</v>
+        <v>16.065576829963614</v>
       </c>
       <c r="E34">
-        <v>-0.91044077326341721</v>
+        <v>1.5069994793138903</v>
       </c>
       <c r="F34">
-        <v>4.2988362345811382E-2</v>
+        <v>0.13557682996361464</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>2647.6</v>
+        <v>2749.8</v>
       </c>
       <c r="B35">
-        <v>12.05</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>2646.556482773959</v>
+        <v>2750.4783909646176</v>
       </c>
       <c r="D35">
-        <v>12.095953071241723</v>
+        <v>5.0308986358232555E-2</v>
       </c>
       <c r="E35">
-        <v>-1.0435172260408763</v>
+        <v>0.67839096461739246</v>
       </c>
       <c r="F35">
-        <v>4.5953071241722654E-2</v>
+        <v>5.0308986358232555E-2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>2647.6</v>
+        <v>2749.8</v>
       </c>
       <c r="B36">
-        <v>14.03</v>
+        <v>-16.079999999999998</v>
       </c>
       <c r="C36">
-        <v>2648.2481314301021</v>
+        <v>2749.8053343203042</v>
       </c>
       <c r="D36">
-        <v>14.084419953454907</v>
+        <v>-15.957209934086682</v>
       </c>
       <c r="E36">
-        <v>0.64813143010223939</v>
+        <v>5.3343203039730724E-3</v>
       </c>
       <c r="F36">
-        <v>5.4419953454907244E-2</v>
+        <v>0.12279006591331587</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>2647.6</v>
+        <v>2749.8</v>
       </c>
       <c r="B37">
-        <v>16.03</v>
+        <v>-14</v>
       </c>
       <c r="C37">
-        <v>2648.4644121540496</v>
+        <v>2749.628634631094</v>
       </c>
       <c r="D37">
-        <v>16.128215081482352</v>
+        <v>-13.945885921674627</v>
       </c>
       <c r="E37">
-        <v>0.86441215404965988</v>
+        <v>-0.17136536890620846</v>
       </c>
       <c r="F37">
-        <v>9.8215081482351252E-2</v>
+        <v>5.4114078325373072E-2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>2747.3</v>
+        <v>2749.8</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>-11.98</v>
       </c>
       <c r="C38">
-        <v>2747.2703964245216</v>
+        <v>2751.1771072867477</v>
       </c>
       <c r="D38">
-        <v>3.2109728764586043E-3</v>
+        <v>-11.951452127704593</v>
       </c>
       <c r="E38">
-        <v>-2.9603575478631683E-2</v>
+        <v>1.3771072867475596</v>
       </c>
       <c r="F38">
-        <v>3.2109728764586043E-3</v>
+        <v>2.8547872295407117E-2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>2747.3</v>
+        <v>2749.8</v>
       </c>
       <c r="B39">
-        <v>-16.100000000000001</v>
+        <v>-10</v>
       </c>
       <c r="C39">
-        <v>2747.9538634799605</v>
+        <v>2750.2204224328166</v>
       </c>
       <c r="D39">
-        <v>-15.960032361623689</v>
+        <v>-9.9953910690356409</v>
       </c>
       <c r="E39">
-        <v>0.6538634799603642</v>
+        <v>0.42042243281639458</v>
       </c>
       <c r="F39">
-        <v>0.13996763837631221</v>
+        <v>4.6089309643591037E-3</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>2747.3</v>
+        <v>2749.8</v>
       </c>
       <c r="B40">
-        <v>-13.95</v>
+        <v>-7.98</v>
       </c>
       <c r="C40">
-        <v>2747.1864131147186</v>
+        <v>2751.2380045340283</v>
       </c>
       <c r="D40">
-        <v>-13.829837892354298</v>
+        <v>-7.9989426543383821</v>
       </c>
       <c r="E40">
-        <v>-0.1135868852816202</v>
+        <v>1.4380045340280958</v>
       </c>
       <c r="F40">
-        <v>0.1201621076457009</v>
+        <v>-1.8942654338381715E-2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>2747.3</v>
+        <v>2749.8</v>
       </c>
       <c r="B41">
-        <v>-11.92</v>
+        <v>-3.98</v>
       </c>
       <c r="C41">
-        <v>2746.0353748354382</v>
+        <v>2749.9879129194915</v>
       </c>
       <c r="D41">
-        <v>-11.836198961619813</v>
+        <v>-4.003743943238562</v>
       </c>
       <c r="E41">
-        <v>-1.2646251645619486</v>
+        <v>0.18791291949128208</v>
       </c>
       <c r="F41">
-        <v>8.3801038380187265E-2</v>
+        <v>-2.3743943238561993E-2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>2747.3</v>
+        <v>2749.8</v>
       </c>
       <c r="B42">
-        <v>-9.92</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>2746.8259008862506</v>
+        <v>2750.310003664491</v>
       </c>
       <c r="D42">
-        <v>-9.8792743365756444</v>
+        <v>2.4926411432986652E-2</v>
       </c>
       <c r="E42">
-        <v>-0.47409911374961666</v>
+        <v>0.51000366449079593</v>
       </c>
       <c r="F42">
-        <v>4.0725663424355574E-2</v>
+        <v>2.4926411432986652E-2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>2747.3</v>
+        <v>2749.8</v>
       </c>
       <c r="B43">
-        <v>-7.92</v>
+        <v>1.97</v>
       </c>
       <c r="C43">
-        <v>2746.6532975531959</v>
+        <v>2749.4149398212699</v>
       </c>
       <c r="D43">
-        <v>-7.894833394675203</v>
+        <v>2.046202009543419</v>
       </c>
       <c r="E43">
-        <v>-0.64670244680428368</v>
+        <v>-0.38506017873032761</v>
       </c>
       <c r="F43">
-        <v>2.5166605324796976E-2</v>
+        <v>7.6202009543419047E-2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>2747.3</v>
+        <v>2749.8</v>
       </c>
       <c r="B44">
-        <v>-5.92</v>
+        <v>4</v>
       </c>
       <c r="C44">
-        <v>2746.6235019665496</v>
+        <v>2749.4739449995295</v>
       </c>
       <c r="D44">
-        <v>-5.9005575561967953</v>
+        <v>4.0970115405154051</v>
       </c>
       <c r="E44">
-        <v>-0.6764980334505708</v>
+        <v>-0.32605500047066016</v>
       </c>
       <c r="F44">
-        <v>1.944244380320459E-2</v>
+        <v>9.7011540515405059E-2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>2747.3</v>
+        <v>2749.8</v>
       </c>
       <c r="B45">
-        <v>-3.92</v>
+        <v>5.97</v>
       </c>
       <c r="C45">
-        <v>2746.606446629783</v>
+        <v>2747.4686501289234</v>
       </c>
       <c r="D45">
-        <v>-3.9374938639102548</v>
+        <v>6.1139838244034408</v>
       </c>
       <c r="E45">
-        <v>-0.69355337021715968</v>
+        <v>-2.3313498710767817</v>
       </c>
       <c r="F45">
-        <v>-1.749386391025487E-2</v>
+        <v>0.14398382440344104</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>2747.3</v>
+        <v>2749.8</v>
       </c>
       <c r="B46">
-        <v>-1.95</v>
+        <v>7.97</v>
       </c>
       <c r="C46">
-        <v>2747.424211387804</v>
+        <v>2748.2908113350059</v>
       </c>
       <c r="D46">
-        <v>-1.9565753254984752</v>
+        <v>8.1419489551110242</v>
       </c>
       <c r="E46">
-        <v>0.12421138780382535</v>
+        <v>-1.5091886649943262</v>
       </c>
       <c r="F46">
-        <v>-6.5753254984752818E-3</v>
+        <v>0.17194895511102448</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>2747.3</v>
+        <v>2749.8</v>
       </c>
       <c r="B47">
-        <v>0.08</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="C47">
-        <v>2747.0587126635241</v>
+        <v>2747.0296499843521</v>
       </c>
       <c r="D47">
-        <v>6.8869822289024066E-2</v>
+        <v>10.167809758324518</v>
       </c>
       <c r="E47">
-        <v>-0.2412873364760344</v>
+        <v>-2.7703500156480914</v>
       </c>
       <c r="F47">
-        <v>-1.1130177710975936E-2</v>
+        <v>0.1978097583245173</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>2747.3</v>
+        <v>2749.8</v>
       </c>
       <c r="B48">
-        <v>2.08</v>
+        <v>11.95</v>
       </c>
       <c r="C48">
-        <v>2747.5909193100779</v>
+        <v>2748.3519837742556</v>
       </c>
       <c r="D48">
-        <v>2.0643896386506109</v>
+        <v>12.16196782475985</v>
       </c>
       <c r="E48">
-        <v>0.29091931007769745</v>
+        <v>-1.4480162257445954</v>
       </c>
       <c r="F48">
-        <v>-1.5610361349389201E-2</v>
+        <v>0.2119678247598511</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>2747.3</v>
+        <v>2749.8</v>
       </c>
       <c r="B49">
-        <v>4.05</v>
+        <v>13.97</v>
       </c>
       <c r="C49">
-        <v>2747.0560286444784</v>
+        <v>2747.482914701066</v>
       </c>
       <c r="D49">
-        <v>4.054092790998987</v>
+        <v>14.172794585157895</v>
       </c>
       <c r="E49">
-        <v>-0.24397135552180771</v>
+        <v>-2.3170852989342166</v>
       </c>
       <c r="F49">
-        <v>4.0927909989871836E-3</v>
+        <v>0.2027945851578945</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>2747.3</v>
+        <v>2749.8</v>
       </c>
       <c r="B50">
-        <v>6.05</v>
+        <v>15.95</v>
       </c>
       <c r="C50">
-        <v>2746.7276418909109</v>
+        <v>2748.3290614768339</v>
       </c>
       <c r="D50">
-        <v>6.0658597040132021</v>
+        <v>15.763855895271266</v>
       </c>
       <c r="E50">
-        <v>-0.57235810908923668</v>
+        <v>-1.4709385231662964</v>
       </c>
       <c r="F50">
-        <v>1.5859704013202247E-2</v>
+        <v>-0.18614410472873288</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>2747.3</v>
+        <v>2849.5</v>
       </c>
       <c r="B51">
-        <v>8.0500000000000007</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>2746.631557046393</v>
+        <v>2849.2034522716363</v>
       </c>
       <c r="D51">
-        <v>8.0704171765852752</v>
+        <v>7.6897021049754835E-2</v>
       </c>
       <c r="E51">
-        <v>-0.66844295360715478</v>
+        <v>-0.29654772836374832</v>
       </c>
       <c r="F51">
-        <v>2.0417176585274532E-2</v>
+        <v>7.6897021049754835E-2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>2747.3</v>
+        <v>2849.5</v>
       </c>
       <c r="B52">
-        <v>10.050000000000001</v>
+        <v>-16.079999999999998</v>
       </c>
       <c r="C52">
-        <v>2746.8275821738102</v>
+        <v>2848.3379182993231</v>
       </c>
       <c r="D52">
-        <v>10.092277579009316</v>
+        <v>-15.987054697967837</v>
       </c>
       <c r="E52">
-        <v>-0.47241782618993966</v>
+        <v>-1.1620817006769357</v>
       </c>
       <c r="F52">
-        <v>4.2277579009315502E-2</v>
+        <v>9.2945302032161337E-2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>2747.3</v>
+        <v>2849.5</v>
       </c>
       <c r="B53">
-        <v>12.05</v>
+        <v>-14</v>
       </c>
       <c r="C53">
-        <v>2746.2142480919965</v>
+        <v>2848.3011521037679</v>
       </c>
       <c r="D53">
-        <v>12.081027098474943</v>
+        <v>-13.949767808582756</v>
       </c>
       <c r="E53">
-        <v>-1.0857519080036582</v>
+        <v>-1.1988478962321096</v>
       </c>
       <c r="F53">
-        <v>3.1027098474941894E-2</v>
+        <v>5.023219141724411E-2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>2747.3</v>
+        <v>2849.5</v>
       </c>
       <c r="B54">
-        <v>14.03</v>
+        <v>-11.98</v>
       </c>
       <c r="C54">
-        <v>2747.7794141524523</v>
+        <v>2849.9582869299543</v>
       </c>
       <c r="D54">
-        <v>14.092171631141888</v>
+        <v>-11.963699750443599</v>
       </c>
       <c r="E54">
-        <v>0.47941415245213648</v>
+        <v>0.45828692995428355</v>
       </c>
       <c r="F54">
-        <v>6.2171631141888284E-2</v>
+        <v>1.6300249556401525E-2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>2747.3</v>
+        <v>2849.5</v>
       </c>
       <c r="B55">
-        <v>16.03</v>
+        <v>-9.98</v>
       </c>
       <c r="C55">
-        <v>2747.6229346344899</v>
+        <v>2851.1321374717259</v>
       </c>
       <c r="D55">
-        <v>16.096612563799795</v>
+        <v>-9.9950538058551075</v>
       </c>
       <c r="E55">
-        <v>0.32293463448968396</v>
+        <v>1.632137471725855</v>
       </c>
       <c r="F55">
-        <v>6.6612563799793634E-2</v>
+        <v>-1.5053805855107072E-2</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>2847</v>
+        <v>2849.5</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>-7.98</v>
       </c>
       <c r="C56">
-        <v>2847.0510854136073</v>
+        <v>2850.1900322593992</v>
       </c>
       <c r="D56">
-        <v>1.2594430102957446E-3</v>
+        <v>-8.0144272102170824</v>
       </c>
       <c r="E56">
-        <v>5.1085413607324881E-2</v>
+        <v>0.69003225939923141</v>
       </c>
       <c r="F56">
-        <v>1.2594430102957446E-3</v>
+        <v>-3.4427210217081949E-2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>2847</v>
+        <v>2849.5</v>
       </c>
       <c r="B57">
-        <v>-16.100000000000001</v>
+        <v>-6</v>
       </c>
       <c r="C57">
-        <v>2846.42746023466</v>
+        <v>2849.1099373442994</v>
       </c>
       <c r="D57">
-        <v>-15.959807552249982</v>
+        <v>-6.0186660785580424</v>
       </c>
       <c r="E57">
-        <v>-0.57253976534002504</v>
+        <v>-0.3900626557006035</v>
       </c>
       <c r="F57">
-        <v>0.14019244775001916</v>
+        <v>-1.8666078558042365E-2</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>2847</v>
+        <v>2849.5</v>
       </c>
       <c r="B58">
-        <v>-13.95</v>
+        <v>-3.98</v>
       </c>
       <c r="C58">
-        <v>2846.8612009674598</v>
+        <v>2850.9951716852761</v>
       </c>
       <c r="D58">
-        <v>-13.83940718549594</v>
+        <v>-3.9871452892740904</v>
       </c>
       <c r="E58">
-        <v>-0.13879903254019155</v>
+        <v>1.495171685276091</v>
       </c>
       <c r="F58">
-        <v>0.11059281450405933</v>
+        <v>-7.1452892740904161E-3</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>2847</v>
+        <v>2849.5</v>
       </c>
       <c r="B59">
-        <v>-11.92</v>
+        <v>-2</v>
       </c>
       <c r="C59">
-        <v>2846.875859340335</v>
+        <v>2849.2960374818922</v>
       </c>
       <c r="D59">
-        <v>-11.852156326864181</v>
+        <v>-1.9699049378021138</v>
       </c>
       <c r="E59">
-        <v>-0.12414065966504495</v>
+        <v>-0.20396251810780086</v>
       </c>
       <c r="F59">
-        <v>6.784367313581896E-2</v>
+        <v>3.0095062197886158E-2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>2847</v>
+        <v>2849.5</v>
       </c>
       <c r="B60">
-        <v>-9.92</v>
+        <v>2</v>
       </c>
       <c r="C60">
-        <v>2847.2553799128741</v>
+        <v>2848.6673766569302</v>
       </c>
       <c r="D60">
-        <v>-9.8797649426282703</v>
+        <v>2.0799587242840083</v>
       </c>
       <c r="E60">
-        <v>0.25537991287410478</v>
+        <v>-0.83262334306982666</v>
       </c>
       <c r="F60">
-        <v>4.023505737172961E-2</v>
+        <v>7.9958724284008298E-2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>2847</v>
+        <v>2849.5</v>
       </c>
       <c r="B61">
-        <v>-7.92</v>
+        <v>3.97</v>
       </c>
       <c r="C61">
-        <v>2846.9939615694507</v>
+        <v>2846.2867018338493</v>
       </c>
       <c r="D61">
-        <v>-7.9020585665342766</v>
+        <v>4.1178378045927033</v>
       </c>
       <c r="E61">
-        <v>-6.0384305493244028E-3</v>
+        <v>-3.2132981661507074</v>
       </c>
       <c r="F61">
-        <v>1.79414334657233E-2</v>
+        <v>0.14783780459270313</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>2847</v>
+        <v>2849.5</v>
       </c>
       <c r="B62">
-        <v>-5.92</v>
+        <v>5.97</v>
       </c>
       <c r="C62">
-        <v>2846.7902501417525</v>
+        <v>2848.3210819064211</v>
       </c>
       <c r="D62">
-        <v>-5.9126402003661296</v>
+        <v>6.1722462339657138</v>
       </c>
       <c r="E62">
-        <v>-0.20974985824750547</v>
+        <v>-1.1789180935788863</v>
       </c>
       <c r="F62">
-        <v>7.3597996338703453E-3</v>
+        <v>0.20224623396571406</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>2847</v>
+        <v>2849.5</v>
       </c>
       <c r="B63">
-        <v>-3.92</v>
+        <v>7.97</v>
       </c>
       <c r="C63">
-        <v>2846.6503674435453</v>
+        <v>2846.6870903416097</v>
       </c>
       <c r="D63">
-        <v>-3.934111187387372</v>
+        <v>7.793580015525551</v>
       </c>
       <c r="E63">
-        <v>-0.34963255645470781</v>
+        <v>-2.8129096583902538</v>
       </c>
       <c r="F63">
-        <v>-1.4111187387372048E-2</v>
+        <v>-0.17641998447444873</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>2847</v>
+        <v>2849.5</v>
       </c>
       <c r="B64">
-        <v>-1.92</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="C64">
-        <v>2847.4798955589126</v>
+        <v>2844.0321440850998</v>
       </c>
       <c r="D64">
-        <v>-1.9366797746014528</v>
+        <v>10.230475172418451</v>
       </c>
       <c r="E64">
-        <v>0.4798955589126308</v>
+        <v>-5.4678559149001558</v>
       </c>
       <c r="F64">
-        <v>-1.6679774601452868E-2</v>
+        <v>0.26047517241845064</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>2847</v>
+        <v>2849.5</v>
       </c>
       <c r="B65">
-        <v>0.05</v>
+        <v>11.97</v>
       </c>
       <c r="C65">
-        <v>2846.8609523408068</v>
+        <v>2845.1110533377537</v>
       </c>
       <c r="D65">
-        <v>2.2814763291599562E-2</v>
+        <v>12.243390096039308</v>
       </c>
       <c r="E65">
-        <v>-0.13904765919323836</v>
+        <v>-4.388946662246326</v>
       </c>
       <c r="F65">
-        <v>-2.7185236708400441E-2</v>
+        <v>0.2733900960393072</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>2847</v>
+        <v>2849.5</v>
       </c>
       <c r="B66">
-        <v>2.0499999999999998</v>
+        <v>13.97</v>
       </c>
       <c r="C66">
-        <v>2846.9049391108606</v>
+        <v>2843.9833827949387</v>
       </c>
       <c r="D66">
-        <v>2.0550548484002622</v>
+        <v>14.224009704246292</v>
       </c>
       <c r="E66">
-        <v>-9.5060889139404026E-2</v>
+        <v>-5.5166172050612658</v>
       </c>
       <c r="F66">
-        <v>5.0548484002623795E-3</v>
+        <v>0.25400970424629143</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>2847</v>
+        <v>2849.5</v>
       </c>
       <c r="B67">
-        <v>4.08</v>
+        <v>15.95</v>
       </c>
       <c r="C67">
-        <v>2847.5832011743587</v>
+        <v>2844.9478655677212</v>
       </c>
       <c r="D67">
-        <v>4.0966306056230017</v>
+        <v>16.227051908824144</v>
       </c>
       <c r="E67">
-        <v>0.58320117435869179</v>
+        <v>-4.5521344322787627</v>
       </c>
       <c r="F67">
-        <v>1.6630605623001671E-2</v>
+        <v>0.27705190882414499</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>2847</v>
+        <v>2949.2</v>
       </c>
       <c r="B68">
-        <v>6.05</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>2847.6730746183921</v>
+        <v>2949.0927348669939</v>
       </c>
       <c r="D68">
-        <v>6.0134575206050078</v>
+        <v>8.994925264774227E-2</v>
       </c>
       <c r="E68">
-        <v>0.67307461839209282</v>
+        <v>-0.10726513300596707</v>
       </c>
       <c r="F68">
-        <v>-3.6542479394992E-2</v>
+        <v>8.994925264774227E-2</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>2847</v>
+        <v>2949.2</v>
       </c>
       <c r="B69">
-        <v>8.0500000000000007</v>
+        <v>-16.07</v>
       </c>
       <c r="C69">
-        <v>2846.9799327792871</v>
+        <v>2947.0409574874584</v>
       </c>
       <c r="D69">
-        <v>8.0806448374329154</v>
+        <v>-15.99931621948113</v>
       </c>
       <c r="E69">
-        <v>-2.0067220712917333E-2</v>
+        <v>-2.1590425125414185</v>
       </c>
       <c r="F69">
-        <v>3.0644837432914684E-2</v>
+        <v>7.068378051886981E-2</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>2847</v>
+        <v>2949.2</v>
       </c>
       <c r="B70">
-        <v>10.050000000000001</v>
+        <v>-14</v>
       </c>
       <c r="C70">
-        <v>2844.5959487158389</v>
+        <v>2948.2671478090147</v>
       </c>
       <c r="D70">
-        <v>10.079188664389159</v>
+        <v>-13.968288107772228</v>
       </c>
       <c r="E70">
-        <v>-2.4040512841611417</v>
+        <v>-0.93285219098515881</v>
       </c>
       <c r="F70">
-        <v>2.9188664389158347E-2</v>
+        <v>3.1711892227772154E-2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>2847</v>
+        <v>2949.2</v>
       </c>
       <c r="B71">
-        <v>12.05</v>
+        <v>-12</v>
       </c>
       <c r="C71">
-        <v>2845.4685562457967</v>
+        <v>2948.4659060708418</v>
       </c>
       <c r="D71">
-        <v>12.077968736939505</v>
+        <v>-11.971584474947205</v>
       </c>
       <c r="E71">
-        <v>-1.5314437542033374</v>
+        <v>-0.73409392915800709</v>
       </c>
       <c r="F71">
-        <v>2.7968736939504524E-2</v>
+        <v>2.8415525052794877E-2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>2847</v>
+        <v>2949.2</v>
       </c>
       <c r="B72">
-        <v>14.03</v>
+        <v>-9.9700000000000006</v>
       </c>
       <c r="C72">
-        <v>2847.333075898161</v>
+        <v>2950.1469901826758</v>
       </c>
       <c r="D72">
-        <v>14.083569886795827</v>
+        <v>-9.9808371926269501</v>
       </c>
       <c r="E72">
-        <v>0.33307589816104155</v>
+        <v>0.94699018267601787</v>
       </c>
       <c r="F72">
-        <v>5.3569886795827415E-2</v>
+        <v>-1.0837192626949488E-2</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>2847</v>
+        <v>2949.2</v>
       </c>
       <c r="B73">
-        <v>16.03</v>
+        <v>-7.97</v>
       </c>
       <c r="C73">
-        <v>2848.3793666545812</v>
+        <v>2950.3186269817279</v>
       </c>
       <c r="D73">
-        <v>16.112558958619289</v>
+        <v>-7.9871452263444525</v>
       </c>
       <c r="E73">
-        <v>1.3793666545811902</v>
+        <v>1.1186269817280845</v>
       </c>
       <c r="F73">
-        <v>8.2558958619287637E-2</v>
+        <v>-1.7145226344452702E-2</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>2946.7</v>
+        <v>2949.2</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="C74">
-        <v>2946.0701592601395</v>
+        <v>2950.5869239158469</v>
       </c>
       <c r="D74">
-        <v>9.6260719274731711E-3</v>
+        <v>-5.9832601847536964</v>
       </c>
       <c r="E74">
-        <v>-0.62984073986035582</v>
+        <v>1.3869239158470918</v>
       </c>
       <c r="F74">
-        <v>9.6260719274731711E-3</v>
+        <v>1.6739815246303635E-2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>2946.7</v>
+        <v>2949.2</v>
       </c>
       <c r="B75">
-        <v>-16.100000000000001</v>
+        <v>-3.97</v>
       </c>
       <c r="C75">
-        <v>2945.5231362483723</v>
+        <v>2950.8710544898886</v>
       </c>
       <c r="D75">
-        <v>-15.958728263996953</v>
+        <v>-3.9626273106526124</v>
       </c>
       <c r="E75">
-        <v>-1.1768637516274794</v>
+        <v>1.6710544898887747</v>
       </c>
       <c r="F75">
-        <v>0.14127173600304843</v>
+        <v>7.372689347387773E-3</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>2946.7</v>
+        <v>2949.2</v>
       </c>
       <c r="B76">
-        <v>-13.95</v>
+        <v>-2</v>
       </c>
       <c r="C76">
-        <v>2946.0074615504191</v>
+        <v>2949.7332998548854</v>
       </c>
       <c r="D76">
-        <v>-13.841223314794812</v>
+        <v>-1.9511948645825363</v>
       </c>
       <c r="E76">
-        <v>-0.69253844958075206</v>
+        <v>0.5332998548856267</v>
       </c>
       <c r="F76">
-        <v>0.10877668520518746</v>
+        <v>4.8805135417463674E-2</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>2946.7</v>
+        <v>2949.2</v>
       </c>
       <c r="B77">
-        <v>-11.92</v>
+        <v>0</v>
       </c>
       <c r="C77">
-        <v>2945.5431118025372</v>
+        <v>2949.5314421770986</v>
       </c>
       <c r="D77">
-        <v>-11.860769199206249</v>
+        <v>8.7283850497530277E-2</v>
       </c>
       <c r="E77">
-        <v>-1.1568881974626493</v>
+        <v>0.33144217709877921</v>
       </c>
       <c r="F77">
-        <v>5.923080079375076E-2</v>
+        <v>8.7283850497530277E-2</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>2946.7</v>
+        <v>2949.2</v>
       </c>
       <c r="B78">
-        <v>-9.92</v>
+        <v>2</v>
       </c>
       <c r="C78">
-        <v>2946.7762307505027</v>
+        <v>2948.4025240188716</v>
       </c>
       <c r="D78">
-        <v>-9.8815690786566517</v>
+        <v>2.1276587640750702</v>
       </c>
       <c r="E78">
-        <v>7.6230750502872979E-2</v>
+        <v>-0.79747598112817286</v>
       </c>
       <c r="F78">
-        <v>3.8430921343348246E-2</v>
+        <v>0.12765876407507015</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>2946.7</v>
+        <v>2949.2</v>
       </c>
       <c r="B79">
-        <v>-7.92</v>
+        <v>3.98</v>
       </c>
       <c r="C79">
-        <v>2946.3943199540704</v>
+        <v>2947.7787337955006</v>
       </c>
       <c r="D79">
-        <v>-7.90609856165789</v>
+        <v>4.1679367534320741</v>
       </c>
       <c r="E79">
-        <v>-0.30568004592942088</v>
+        <v>-1.4212662044992612</v>
       </c>
       <c r="F79">
-        <v>1.3901438342109884E-2</v>
+        <v>0.18793675343207417</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>2946.7</v>
+        <v>2949.2</v>
       </c>
       <c r="B80">
-        <v>-5.92</v>
+        <v>5.98</v>
       </c>
       <c r="C80">
-        <v>2947.5739326509033</v>
+        <v>2944.5656316331383</v>
       </c>
       <c r="D80">
-        <v>-5.9224456762427913</v>
+        <v>6.2038129409536529</v>
       </c>
       <c r="E80">
-        <v>0.87393265090349814</v>
+        <v>-4.6343683668615085</v>
       </c>
       <c r="F80">
-        <v>-2.4456762427913503E-3</v>
+        <v>0.22381294095365245</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>2946.7</v>
+        <v>2949.2</v>
       </c>
       <c r="B81">
-        <v>-3.92</v>
+        <v>7.95</v>
       </c>
       <c r="C81">
-        <v>2947.2842208084826</v>
+        <v>2945.1751037621561</v>
       </c>
       <c r="D81">
-        <v>-3.9283339702307494</v>
+        <v>8.2594709325838469</v>
       </c>
       <c r="E81">
-        <v>0.58422080848276892</v>
+        <v>-4.0248962378436772</v>
       </c>
       <c r="F81">
-        <v>-8.3339702307494434E-3</v>
+        <v>0.30947093258384673</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>2946.7</v>
+        <v>2949.2</v>
       </c>
       <c r="B82">
-        <v>-1.92</v>
+        <v>9.98</v>
       </c>
       <c r="C82">
-        <v>2945.8802697153828</v>
+        <v>2943.8309906933309</v>
       </c>
       <c r="D82">
-        <v>-1.9427271138282638</v>
+        <v>10.318408489826421</v>
       </c>
       <c r="E82">
-        <v>-0.8197302846169805</v>
+        <v>-5.369009306668886</v>
       </c>
       <c r="F82">
-        <v>-2.2727113828263867E-2</v>
+        <v>0.33840848982642058</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>2946.7</v>
+        <v>2949.2</v>
       </c>
       <c r="B83">
-        <v>0.05</v>
+        <v>11.98</v>
       </c>
       <c r="C83">
-        <v>2946.1521858939723</v>
+        <v>2941.695834210479</v>
       </c>
       <c r="D83">
-        <v>2.8178801323098808E-2</v>
+        <v>12.338236487776832</v>
       </c>
       <c r="E83">
-        <v>-0.54781410602754477</v>
+        <v>-7.5041657895208118</v>
       </c>
       <c r="F83">
-        <v>-2.1821198676901195E-2</v>
+        <v>0.35823648777683204</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>2946.7</v>
+        <v>2949.2</v>
       </c>
       <c r="B84">
-        <v>2.0499999999999998</v>
+        <v>13.98</v>
       </c>
       <c r="C84">
-        <v>2946.4987210373638</v>
+        <v>2941.6375975789624</v>
       </c>
       <c r="D84">
-        <v>2.0253263203598038</v>
+        <v>14.330210377875614</v>
       </c>
       <c r="E84">
-        <v>-0.20127896263602452</v>
+        <v>-7.5624024210374046</v>
       </c>
       <c r="F84">
-        <v>-2.4673679640196067E-2</v>
+        <v>0.35021037787561404</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>2946.7</v>
+        <v>2949.2</v>
       </c>
       <c r="B85">
-        <v>4.08</v>
+        <v>15.93</v>
       </c>
       <c r="C85">
-        <v>2946.053528245161</v>
+        <v>2941.0065829109212</v>
       </c>
       <c r="D85">
-        <v>4.0601047548778366</v>
+        <v>15.928265501459112</v>
       </c>
       <c r="E85">
-        <v>-0.64647175483878527</v>
+        <v>-8.1934170890785936</v>
       </c>
       <c r="F85">
-        <v>-1.9895245122163452E-2</v>
+        <v>-1.7344985408875857E-3</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>2946.7</v>
+        <v>2949.2</v>
       </c>
       <c r="B86">
-        <v>6.05</v>
+        <v>7.95</v>
       </c>
       <c r="C86">
-        <v>2947.2180186013625</v>
+        <v>2945.1751037621561</v>
       </c>
       <c r="D86">
-        <v>6.0372450730054918</v>
+        <v>8.2594709325838469</v>
       </c>
       <c r="E86">
-        <v>0.51801860136265532</v>
+        <v>-4.0248962378436772</v>
       </c>
       <c r="F86">
-        <v>-1.2754926994507976E-2</v>
+        <v>0.30947093258384673</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>2946.7</v>
+        <v>2949.2</v>
       </c>
       <c r="B87">
-        <v>8.0500000000000007</v>
+        <v>9.98</v>
       </c>
       <c r="C87">
-        <v>2945.3053905689962</v>
+        <v>2943.8309906933309</v>
       </c>
       <c r="D87">
-        <v>8.0661507939706638</v>
+        <v>10.318408489826421</v>
       </c>
       <c r="E87">
-        <v>-1.3946094310035733</v>
+        <v>-5.369009306668886</v>
       </c>
       <c r="F87">
-        <v>1.6150793970663102E-2</v>
+        <v>0.33840848982642058</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>2946.7</v>
+        <v>2949.2</v>
       </c>
       <c r="B88">
-        <v>10.050000000000001</v>
+        <v>11.98</v>
       </c>
       <c r="C88">
-        <v>2945.489446454098</v>
+        <v>2941.695834210479</v>
       </c>
       <c r="D88">
-        <v>10.063767039288535</v>
+        <v>12.338236487776832</v>
       </c>
       <c r="E88">
-        <v>-1.2105535459018029</v>
+        <v>-7.5041657895208118</v>
       </c>
       <c r="F88">
-        <v>1.3767039288534733E-2</v>
+        <v>0.35823648777683204</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>2946.7</v>
+        <v>2949.2</v>
       </c>
       <c r="B89">
-        <v>12.05</v>
+        <v>13.98</v>
       </c>
       <c r="C89">
-        <v>2945.2675354321159</v>
+        <v>2941.6375975789624</v>
       </c>
       <c r="D89">
-        <v>12.049178519238962</v>
+        <v>14.330210377875614</v>
       </c>
       <c r="E89">
-        <v>-1.4324645678839261</v>
+        <v>-7.5624024210374046</v>
       </c>
       <c r="F89">
-        <v>-8.214807610382735E-4</v>
+        <v>0.35021037787561404</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>2946.7</v>
+        <v>2949.2</v>
       </c>
       <c r="B90">
-        <v>14.03</v>
+        <v>15.93</v>
       </c>
       <c r="C90">
-        <v>2946.0335459478811</v>
+        <v>2941.0065829109212</v>
       </c>
       <c r="D90">
-        <v>14.078933202632706</v>
+        <v>15.928265501459112</v>
       </c>
       <c r="E90">
-        <v>-0.66645405211875186</v>
+        <v>-8.1934170890785936</v>
       </c>
       <c r="F90">
-        <v>4.8933202632706951E-2</v>
+        <v>-1.7344985408875857E-3</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">

--- a/cam7_validation_result.xlsx
+++ b/cam7_validation_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voies\Desktop\GodEyesProject\CalibPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C34FA4-62A0-4D2C-9CD1-ED05A7BE9C2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95193F1-7636-43B1-9D04-E834A58FD5A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16774" yWindow="4500" windowWidth="16192" windowHeight="13226" xr2:uid="{EAD0C716-2208-41AB-B04E-A0280A1A9E7D}"/>
+    <workbookView xWindow="26031" yWindow="3111" windowWidth="17718" windowHeight="13226" xr2:uid="{EAD0C716-2208-41AB-B04E-A0280A1A9E7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -219,328 +219,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="108"/>
                 <c:pt idx="0">
-                  <c:v>1.6708667443544982</c:v>
+                  <c:v>1.2122774274257608</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.4490346227662485</c:v>
+                  <c:v>0.71289250435029317</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.42522505138913402</c:v>
+                  <c:v>0.26154314244467969</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.299802727878614</c:v>
+                  <c:v>1.3128422384893383</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.53850364794834604</c:v>
+                  <c:v>1.3763242990521576</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6622835468533594</c:v>
+                  <c:v>-0.11405353484269654</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94320018265261751</c:v>
+                  <c:v>0.58278537280784803</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7260331537308957</c:v>
+                  <c:v>-0.15407647874371833</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.627675052943232</c:v>
+                  <c:v>0.29818166115273925</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-6.9968649816928519E-2</c:v>
+                  <c:v>1.2048623809109813</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.23504591033542965</c:v>
+                  <c:v>0.93772686024021823</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.13644324141387187</c:v>
+                  <c:v>1.8086122515501302</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.48793385348699303</c:v>
+                  <c:v>1.1802081009955145</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.93946407216071748</c:v>
+                  <c:v>0.79700065929910124</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.2154066691969092</c:v>
+                  <c:v>0.90758304672226586</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.1707341801134135</c:v>
+                  <c:v>1.6875256107796304</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6789487390260547</c:v>
+                  <c:v>1.0728552748710172</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.416582513620142</c:v>
+                  <c:v>2.1813166558322337</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.4947642972156245</c:v>
+                  <c:v>2.2365861021048659</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.409626665887572</c:v>
+                  <c:v>1.6747284866787595</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.4269011598394172</c:v>
+                  <c:v>2.1531006324362352</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.2267449111104725</c:v>
+                  <c:v>0.93425751838867654</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2573240583005827</c:v>
+                  <c:v>0.91888399120989561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.80042053033139382</c:v>
+                  <c:v>1.2349537349205093</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.6391721463191971</c:v>
+                  <c:v>1.0724935864318468</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.49703032000115854</c:v>
+                  <c:v>0.40404736362688709</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.79510647807910573</c:v>
+                  <c:v>1.750128926420075</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.40050631358008104</c:v>
+                  <c:v>2.2814731382945865</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.76852576894862068</c:v>
+                  <c:v>0.92808608652921976</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.49147895980013345</c:v>
+                  <c:v>2.2545798330716025</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.68828696541231693</c:v>
+                  <c:v>1.7021256193952468</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.73134282822320529</c:v>
+                  <c:v>1.9140902577992165</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.5069994793138903</c:v>
+                  <c:v>1.2800636838569517</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.67839096461739246</c:v>
+                  <c:v>1.5394663076403958</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.3343203039730724E-3</c:v>
+                  <c:v>1.4981642955040115</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.17136536890620846</c:v>
+                  <c:v>2.590475016383607</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.3771072867475596</c:v>
+                  <c:v>2.0599951011367921</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.42042243281639458</c:v>
+                  <c:v>1.0793917282971961</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.4380045340280958</c:v>
+                  <c:v>2.2820967989432575</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.18791291949128208</c:v>
+                  <c:v>1.5037865770209464</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.51000366449079593</c:v>
+                  <c:v>2.4164749275946633</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.38506017873032761</c:v>
+                  <c:v>1.7457772394895983</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.32605500047066016</c:v>
+                  <c:v>2.8460595191809261</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-2.3313498710767817</c:v>
+                  <c:v>2.8390152576416767</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-1.5091886649943262</c:v>
+                  <c:v>0.64210672658646217</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-2.7703500156480914</c:v>
+                  <c:v>1.5612814706269091</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-1.4480162257445954</c:v>
+                  <c:v>3.2635930401334008</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-2.3170852989342166</c:v>
+                  <c:v>3.2087814358542346</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-1.4709385231662964</c:v>
+                  <c:v>2.2207019637776284</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.29654772836374832</c:v>
+                  <c:v>1.2180018427011419</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-1.1620817006769357</c:v>
+                  <c:v>1.8676297006313689</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-1.1988478962321096</c:v>
+                  <c:v>2.4515993832051208</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.45828692995428355</c:v>
+                  <c:v>1.5942219046787613</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.632137471725855</c:v>
+                  <c:v>3.3246490886376705</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.69003225939923141</c:v>
+                  <c:v>-0.59142606768227779</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.3900626557006035</c:v>
+                  <c:v>-1.4324489059094958</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.495171685276091</c:v>
+                  <c:v>-0.3656147240253631</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.20396251810780086</c:v>
+                  <c:v>-0.56988386717512185</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.83262334306982666</c:v>
+                  <c:v>-0.12523120624700823</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-3.2132981661507074</c:v>
+                  <c:v>-0.28895189135846522</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-1.1789180935788863</c:v>
+                  <c:v>-0.51867201413233488</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-2.8129096583902538</c:v>
+                  <c:v>-0.96317064185814161</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-5.4678559149001558</c:v>
+                  <c:v>-1.1124807890778357</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-4.388946662246326</c:v>
+                  <c:v>-0.69748901616230796</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-5.5166172050612658</c:v>
+                  <c:v>1.5544564447659468</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-4.5521344322787627</c:v>
+                  <c:v>1.4718262079118176</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-0.10726513300596707</c:v>
+                  <c:v>-5.7484801872760727E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-2.1590425125414185</c:v>
+                  <c:v>-1.0791096279149315</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.93285219098515881</c:v>
+                  <c:v>-0.48816602223496375</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-0.73409392915800709</c:v>
+                  <c:v>-0.94209031450054681</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.94699018267601787</c:v>
+                  <c:v>-1.2738715496489021</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.1186269817280845</c:v>
+                  <c:v>0.36154737556989858</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.3869239158470918</c:v>
+                  <c:v>0.16527923778585318</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.6710544898887747</c:v>
+                  <c:v>-2.0038134037345117</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.5332998548856267</c:v>
+                  <c:v>-1.1558013156968627</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.33144217709877921</c:v>
+                  <c:v>0.85583241152744449</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-0.79747598112817286</c:v>
+                  <c:v>-1.0668614467363113</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-1.4212662044992612</c:v>
+                  <c:v>-0.60116589181643576</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-4.6343683668615085</c:v>
+                  <c:v>0.63068111184611553</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-4.0248962378436772</c:v>
+                  <c:v>0.16742475217188257</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-5.369009306668886</c:v>
+                  <c:v>-1.6854758576014319</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-7.5041657895208118</c:v>
+                  <c:v>-0.69327983091625356</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-7.5624024210374046</c:v>
+                  <c:v>1.2573425093992228</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-8.1934170890785936</c:v>
+                  <c:v>0.6371326061862419</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-4.0248962378436772</c:v>
+                  <c:v>-0.2976528993908687</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-5.369009306668886</c:v>
+                  <c:v>0.24579874600476614</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-7.5041657895208118</c:v>
+                  <c:v>0.11993404052782353</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-7.5624024210374046</c:v>
+                  <c:v>0.30343095596663261</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-8.1934170890785936</c:v>
+                  <c:v>-0.34545973964986842</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.89534708034761934</c:v>
+                  <c:v>0.69796483796562825</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.3009636540114116</c:v>
+                  <c:v>-5.2530258828937804E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-0.62838015595525576</c:v>
+                  <c:v>-0.94274895429725802</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-1.4921328420095961</c:v>
+                  <c:v>0.67757607541625475</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.53896410885954538</c:v>
+                  <c:v>-0.41456716354605305</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.5414855848807747</c:v>
+                  <c:v>-0.56248190617088767</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.2677425289220992</c:v>
+                  <c:v>-6.701729774931664E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.17274755670541708</c:v>
+                  <c:v>-0.19818598297297285</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.2271518107272641</c:v>
+                  <c:v>0.8522911387244676</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.4408564501432011</c:v>
+                  <c:v>-1.4423527657991144</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.5580984206617359</c:v>
+                  <c:v>0.30178294758252378</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2.5641564998454669</c:v>
+                  <c:v>1.0841369521867819</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.25037564338390439</c:v>
+                  <c:v>1.5392109918939241</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1.1302561381653504</c:v>
+                  <c:v>-9.4372694328740181E-2</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>-1.197242206946612</c:v>
+                  <c:v>0.66086986896016242</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>-1.0938791767703151</c:v>
+                  <c:v>-1.0640963075788932</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.11779273185038619</c:v>
+                  <c:v>-0.64804593100188868</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1.2209700414227882</c:v>
+                  <c:v>-1.1027990001489343</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1.6473874581251948</c:v>
+                  <c:v>-0.36590145088530335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2309,2192 +2309,2192 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>2550.4</v>
+        <v>2500</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2552.0708667443546</v>
+        <v>2501.2122774274258</v>
       </c>
       <c r="D2">
-        <v>-2.2265955053336822E-2</v>
+        <v>-3.8153135691754297E-2</v>
       </c>
       <c r="E2">
-        <v>1.6708667443544982</v>
+        <v>1.2122774274257608</v>
       </c>
       <c r="F2">
-        <v>-2.2265955053336822E-2</v>
+        <v>-3.8153135691754297E-2</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
       </c>
       <c r="I2">
-        <v>1.6677737594974198</v>
+        <v>1.8470241190786207</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2550.4</v>
+        <v>2500</v>
       </c>
       <c r="B3">
         <v>-16.07</v>
       </c>
       <c r="C3">
-        <v>2549.9509653772338</v>
+        <v>2500.7128925043503</v>
       </c>
       <c r="D3">
-        <v>-15.91852539070025</v>
+        <v>-15.899844664316118</v>
       </c>
       <c r="E3">
-        <v>-0.4490346227662485</v>
+        <v>0.71289250435029317</v>
       </c>
       <c r="F3">
-        <v>0.15147460929975054</v>
+        <v>0.17015533568388186</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
       </c>
       <c r="I3">
-        <v>84</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>2550.4</v>
+        <v>2500</v>
       </c>
       <c r="B4">
-        <v>-12</v>
+        <v>-13.97</v>
       </c>
       <c r="C4">
-        <v>2550.8252250513892</v>
+        <v>2500.2615431424447</v>
       </c>
       <c r="D4">
-        <v>-12.335994851572979</v>
+        <v>-13.844288304926438</v>
       </c>
       <c r="E4">
-        <v>0.42522505138913402</v>
+        <v>0.26154314244467969</v>
       </c>
       <c r="F4">
-        <v>-0.3359948515729787</v>
+        <v>0.12571169507356217</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
       </c>
       <c r="I4">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>2550.4</v>
+        <v>2500</v>
       </c>
       <c r="B5">
-        <v>-9.9700000000000006</v>
+        <v>-11.97</v>
       </c>
       <c r="C5">
-        <v>2551.6998027278787</v>
+        <v>2501.3128422384893</v>
       </c>
       <c r="D5">
-        <v>-10.766410770819125</v>
+        <v>-11.900428302403894</v>
       </c>
       <c r="E5">
-        <v>1.299802727878614</v>
+        <v>1.3128422384893383</v>
       </c>
       <c r="F5">
-        <v>-0.79641077081912393</v>
+        <v>6.9571697596106929E-2</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
       </c>
       <c r="I5">
-        <v>0.75</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>2550.4</v>
+        <v>2500</v>
       </c>
       <c r="B6">
-        <v>-7.97</v>
+        <v>-9.9499999999999993</v>
       </c>
       <c r="C6">
-        <v>2550.9385036479484</v>
+        <v>2501.3763242990522</v>
       </c>
       <c r="D6">
-        <v>-8.0879348165326803</v>
+        <v>-9.9358512248703281</v>
       </c>
       <c r="E6">
-        <v>0.53850364794834604</v>
+        <v>1.3763242990521576</v>
       </c>
       <c r="F6">
-        <v>-0.11793481653268056</v>
+        <v>1.4148775129671165E-2</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
       </c>
       <c r="I6">
-        <v>5.4678559149001558</v>
+        <v>3.2635930401334008</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>2550.4</v>
+        <v>2500</v>
       </c>
       <c r="B7">
-        <v>-3.97</v>
+        <v>-7.97</v>
       </c>
       <c r="C7">
-        <v>2552.0622835468535</v>
+        <v>2499.8859464651573</v>
       </c>
       <c r="D7">
-        <v>-4.0219132839328546</v>
+        <v>-7.9852997375829426</v>
       </c>
       <c r="E7">
-        <v>1.6622835468533594</v>
+        <v>-0.11405353484269654</v>
       </c>
       <c r="F7">
-        <v>-5.1913283932854437E-2</v>
+        <v>-1.5299737582942896E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>2550.4</v>
+        <v>2500</v>
       </c>
       <c r="B8">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="C8">
-        <v>2551.3432001826527</v>
+        <v>2500.5827853728078</v>
       </c>
       <c r="D8">
-        <v>-2.0226726127882064</v>
+        <v>-6.0200039931574096</v>
       </c>
       <c r="E8">
-        <v>0.94320018265261751</v>
+        <v>0.58278537280784803</v>
       </c>
       <c r="F8">
-        <v>-2.2672612788206425E-2</v>
+        <v>-2.0003993157409639E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>2550.4</v>
+        <v>2500</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>-3.95</v>
       </c>
       <c r="C9">
-        <v>2552.126033153731</v>
+        <v>2499.8459235212563</v>
       </c>
       <c r="D9">
-        <v>-1.2747969196065719E-2</v>
+        <v>-4.0188731901919326</v>
       </c>
       <c r="E9">
-        <v>1.7260331537308957</v>
+        <v>-0.15407647874371833</v>
       </c>
       <c r="F9">
-        <v>-1.2747969196065719E-2</v>
+        <v>-6.8873190191932387E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>2550.4</v>
+        <v>2500</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="C10">
-        <v>2549.7723249470569</v>
+        <v>2500.2981816611527</v>
       </c>
       <c r="D10">
-        <v>1.9841567644723581</v>
+        <v>-2.0530267651118717</v>
       </c>
       <c r="E10">
-        <v>-0.627675052943232</v>
+        <v>0.29818166115273925</v>
       </c>
       <c r="F10">
-        <v>-1.5843235527641886E-2</v>
+        <v>-5.3026765111871654E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>2550.4</v>
+        <v>2500</v>
       </c>
       <c r="B11">
-        <v>3.98</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>2550.3300313501832</v>
+        <v>2501.204862380911</v>
       </c>
       <c r="D11">
-        <v>3.9967172097784727</v>
+        <v>-4.9193382542331465E-2</v>
       </c>
       <c r="E11">
-        <v>-6.9968649816928519E-2</v>
+        <v>1.2048623809109813</v>
       </c>
       <c r="F11">
-        <v>1.6717209778472686E-2</v>
+        <v>-4.9193382542331465E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>2550.4</v>
+        <v>2500</v>
       </c>
       <c r="B12">
-        <v>5.98</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>2550.6350459103355</v>
+        <v>2500.9377268602402</v>
       </c>
       <c r="D12">
-        <v>6.0214092281677285</v>
+        <v>1.9737715773617921</v>
       </c>
       <c r="E12">
-        <v>0.23504591033542965</v>
+        <v>0.93772686024021823</v>
       </c>
       <c r="F12">
-        <v>4.1409228167728074E-2</v>
+        <v>-2.6228422638207904E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>2550.4</v>
+        <v>2500</v>
       </c>
       <c r="B13">
-        <v>7.95</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>2550.536443241414</v>
+        <v>2501.8086122515501</v>
       </c>
       <c r="D13">
-        <v>8.0278754877571448</v>
+        <v>3.9671782155743687</v>
       </c>
       <c r="E13">
-        <v>0.13644324141387187</v>
+        <v>1.8086122515501302</v>
       </c>
       <c r="F13">
-        <v>7.787548775714459E-2</v>
+        <v>-3.2821784425631328E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>2550.4</v>
+        <v>2500</v>
       </c>
       <c r="B14">
-        <v>9.98</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>2550.8879338534871</v>
+        <v>2501.1802081009955</v>
       </c>
       <c r="D14">
-        <v>10.056343040959758</v>
+        <v>5.9722024777584037</v>
       </c>
       <c r="E14">
-        <v>0.48793385348699303</v>
+        <v>1.1802081009955145</v>
       </c>
       <c r="F14">
-        <v>7.6343040959757857E-2</v>
+        <v>-2.7797522241596262E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>2550.4</v>
+        <v>2500</v>
       </c>
       <c r="B15">
-        <v>11.98</v>
+        <v>7.97</v>
       </c>
       <c r="C15">
-        <v>2551.3394640721608</v>
+        <v>2500.7970006592991</v>
       </c>
       <c r="D15">
-        <v>12.026793667155641</v>
+        <v>7.9855146906465189</v>
       </c>
       <c r="E15">
-        <v>0.93946407216071748</v>
+        <v>0.79700065929910124</v>
       </c>
       <c r="F15">
-        <v>4.6793667155640151E-2</v>
+        <v>1.5514690646519114E-2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>2550.4</v>
+        <v>2500</v>
       </c>
       <c r="B16">
-        <v>13.98</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="C16">
-        <v>2552.615406669197</v>
+        <v>2500.9075830467223</v>
       </c>
       <c r="D16">
-        <v>13.982601976384547</v>
+        <v>9.9913319077913982</v>
       </c>
       <c r="E16">
-        <v>2.2154066691969092</v>
+        <v>0.90758304672226586</v>
       </c>
       <c r="F16">
-        <v>2.6019763845468447E-3</v>
+        <v>2.1331907791397597E-2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>2550.4</v>
+        <v>2500</v>
       </c>
       <c r="B17">
-        <v>15.93</v>
+        <v>12</v>
       </c>
       <c r="C17">
-        <v>2553.5707341801135</v>
+        <v>2501.6875256107796</v>
       </c>
       <c r="D17">
-        <v>15.940861748834779</v>
+        <v>12.008772128949943</v>
       </c>
       <c r="E17">
-        <v>3.1707341801134135</v>
+        <v>1.6875256107796304</v>
       </c>
       <c r="F17">
-        <v>1.0861748834779306E-2</v>
+        <v>8.7721289499427257E-3</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>2650.1</v>
+        <v>2500</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C18">
-        <v>2651.778948739026</v>
+        <v>2501.072855274871</v>
       </c>
       <c r="D18">
-        <v>2.162300802010033E-2</v>
+        <v>13.971682569044686</v>
       </c>
       <c r="E18">
-        <v>1.6789487390260547</v>
+        <v>1.0728552748710172</v>
       </c>
       <c r="F18">
-        <v>2.162300802010033E-2</v>
+        <v>-2.8317430955313583E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>2650.1</v>
+        <v>2500</v>
       </c>
       <c r="B19">
-        <v>-16.07</v>
+        <v>15.95</v>
       </c>
       <c r="C19">
-        <v>2651.5165825136201</v>
+        <v>2502.1813166558322</v>
       </c>
       <c r="D19">
-        <v>-15.933057756338322</v>
+        <v>15.95493580659639</v>
       </c>
       <c r="E19">
-        <v>1.416582513620142</v>
+        <v>2.1813166558322337</v>
       </c>
       <c r="F19">
-        <v>0.13694224366167873</v>
+        <v>4.9358065963911457E-3</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>2650.1</v>
+        <v>2599.6999999999998</v>
       </c>
       <c r="B20">
-        <v>-11.97</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>2652.5947642972155</v>
+        <v>2601.9365861021047</v>
       </c>
       <c r="D20">
-        <v>-11.92888134853181</v>
+        <v>-2.8526393462897884E-2</v>
       </c>
       <c r="E20">
-        <v>2.4947642972156245</v>
+        <v>2.2365861021048659</v>
       </c>
       <c r="F20">
-        <v>4.1118651468190492E-2</v>
+        <v>-2.8526393462897884E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>2650.1</v>
+        <v>2599.6999999999998</v>
       </c>
       <c r="B21">
-        <v>-9.9700000000000006</v>
+        <v>-16.07</v>
       </c>
       <c r="C21">
-        <v>2651.5096266658875</v>
+        <v>2601.3747284866786</v>
       </c>
       <c r="D21">
-        <v>-9.9587411659212925</v>
+        <v>-15.885835323630165</v>
       </c>
       <c r="E21">
-        <v>1.409626665887572</v>
+        <v>1.6747284866787595</v>
       </c>
       <c r="F21">
-        <v>1.1258834078708091E-2</v>
+        <v>0.18416467636983569</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>2650.1</v>
+        <v>2599.6999999999998</v>
       </c>
       <c r="B22">
-        <v>-7.97</v>
+        <v>-13.97</v>
       </c>
       <c r="C22">
-        <v>2652.5269011598393</v>
+        <v>2601.8531006324361</v>
       </c>
       <c r="D22">
-        <v>-7.999788805964652</v>
+        <v>-13.840489184248847</v>
       </c>
       <c r="E22">
-        <v>2.4269011598394172</v>
+        <v>2.1531006324362352</v>
       </c>
       <c r="F22">
-        <v>-2.9788805964652276E-2</v>
+        <v>0.12951081575115353</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>2650.1</v>
+        <v>2599.6999999999998</v>
       </c>
       <c r="B23">
-        <v>-6</v>
+        <v>-11.97</v>
       </c>
       <c r="C23">
-        <v>2651.3267449111104</v>
+        <v>2600.6342575183885</v>
       </c>
       <c r="D23">
-        <v>-5.9931232715435474</v>
+        <v>-11.883651514594051</v>
       </c>
       <c r="E23">
-        <v>1.2267449111104725</v>
+        <v>0.93425751838867654</v>
       </c>
       <c r="F23">
-        <v>6.8767284564525966E-3</v>
+        <v>8.6348485405949305E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>2650.1</v>
+        <v>2599.6999999999998</v>
       </c>
       <c r="B24">
-        <v>-3.97</v>
+        <v>-9.9700000000000006</v>
       </c>
       <c r="C24">
-        <v>2652.3573240583005</v>
+        <v>2600.6188839912097</v>
       </c>
       <c r="D24">
-        <v>-3.995262540267261</v>
+        <v>-9.9290026786277625</v>
       </c>
       <c r="E24">
-        <v>2.2573240583005827</v>
+        <v>0.91888399120989561</v>
       </c>
       <c r="F24">
-        <v>-2.5262540267260825E-2</v>
+        <v>4.0997321372238105E-2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>2650.1</v>
+        <v>2599.6999999999998</v>
       </c>
       <c r="B25">
-        <v>-2</v>
+        <v>-7.95</v>
       </c>
       <c r="C25">
-        <v>2650.9004205303313</v>
+        <v>2600.9349537349203</v>
       </c>
       <c r="D25">
-        <v>-1.9902778751187173</v>
+        <v>-7.9591226907008279</v>
       </c>
       <c r="E25">
-        <v>0.80042053033139382</v>
+        <v>1.2349537349205093</v>
       </c>
       <c r="F25">
-        <v>9.7221248812826566E-3</v>
+        <v>-9.122690700827718E-3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>2650.1</v>
+        <v>2599.6999999999998</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>-5.97</v>
       </c>
       <c r="C26">
-        <v>2651.7391721463191</v>
+        <v>2600.7724935864317</v>
       </c>
       <c r="D26">
-        <v>2.4495244382421677E-2</v>
+        <v>-6.0002409698407444</v>
       </c>
       <c r="E26">
-        <v>1.6391721463191971</v>
+        <v>1.0724935864318468</v>
       </c>
       <c r="F26">
-        <v>2.4495244382421677E-2</v>
+        <v>-3.0240969840744647E-2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>2650.1</v>
+        <v>2599.6999999999998</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>-3.98</v>
       </c>
       <c r="C27">
-        <v>2649.6029696799988</v>
+        <v>2600.1040473636267</v>
       </c>
       <c r="D27">
-        <v>2.0345184614131342</v>
+        <v>-4.0259789767663081</v>
       </c>
       <c r="E27">
-        <v>-0.49703032000115854</v>
+        <v>0.40404736362688709</v>
       </c>
       <c r="F27">
-        <v>3.4518461413134194E-2</v>
+        <v>-4.5978976766308133E-2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>2650.1</v>
+        <v>2599.6999999999998</v>
       </c>
       <c r="B28">
-        <v>3.98</v>
+        <v>-2</v>
       </c>
       <c r="C28">
-        <v>2649.3048935219208</v>
+        <v>2601.4501289264199</v>
       </c>
       <c r="D28">
-        <v>4.0506809506646331</v>
+        <v>-2.0405520627037927</v>
       </c>
       <c r="E28">
-        <v>-0.79510647807910573</v>
+        <v>1.750128926420075</v>
       </c>
       <c r="F28">
-        <v>7.0680950664633091E-2</v>
+        <v>-4.0552062703792746E-2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>2650.1</v>
+        <v>2599.6999999999998</v>
       </c>
       <c r="B29">
-        <v>5.98</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>2649.6994936864198</v>
+        <v>2601.9814731382944</v>
       </c>
       <c r="D29">
-        <v>6.0875004390690517</v>
+        <v>-2.7592241888821534E-2</v>
       </c>
       <c r="E29">
-        <v>-0.40050631358008104</v>
+        <v>2.2814731382945865</v>
       </c>
       <c r="F29">
-        <v>0.10750043906905127</v>
+        <v>-2.7592241888821534E-2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>2650.1</v>
+        <v>2599.6999999999998</v>
       </c>
       <c r="B30">
-        <v>7.95</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="C30">
-        <v>2649.3314742310513</v>
+        <v>2600.628086086529</v>
       </c>
       <c r="D30">
-        <v>8.0972255643081219</v>
+        <v>1.9749920950708244</v>
       </c>
       <c r="E30">
-        <v>-0.76852576894862068</v>
+        <v>0.92808608652921976</v>
       </c>
       <c r="F30">
-        <v>0.14722556430812173</v>
+        <v>-5.50079049291754E-2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>2650.1</v>
+        <v>2599.6999999999998</v>
       </c>
       <c r="B31">
-        <v>9.98</v>
+        <v>4</v>
       </c>
       <c r="C31">
-        <v>2649.6085210401998</v>
+        <v>2601.9545798330714</v>
       </c>
       <c r="D31">
-        <v>9.7320531319619157</v>
+        <v>3.9564001379044322</v>
       </c>
       <c r="E31">
-        <v>-0.49147895980013345</v>
+        <v>2.2545798330716025</v>
       </c>
       <c r="F31">
-        <v>-0.24794686803808474</v>
+        <v>-4.3599862095567765E-2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>2650.1</v>
+        <v>2599.6999999999998</v>
       </c>
       <c r="B32">
-        <v>11.98</v>
+        <v>5.97</v>
       </c>
       <c r="C32">
-        <v>2650.7882869654122</v>
+        <v>2601.4021256193951</v>
       </c>
       <c r="D32">
-        <v>12.128179147938994</v>
+        <v>5.975506323140471</v>
       </c>
       <c r="E32">
-        <v>0.68828696541231693</v>
+        <v>1.7021256193952468</v>
       </c>
       <c r="F32">
-        <v>0.14817914793899334</v>
+        <v>5.5063231404712809E-3</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>2650.1</v>
+        <v>2599.6999999999998</v>
       </c>
       <c r="B33">
-        <v>13.98</v>
+        <v>7.97</v>
       </c>
       <c r="C33">
-        <v>2650.8313428282231</v>
+        <v>2601.614090257799</v>
       </c>
       <c r="D33">
-        <v>14.096817795241847</v>
+        <v>8.0026819338922035</v>
       </c>
       <c r="E33">
-        <v>0.73134282822320529</v>
+        <v>1.9140902577992165</v>
       </c>
       <c r="F33">
-        <v>0.11681779524184677</v>
+        <v>3.2681933892203752E-2</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>2650.1</v>
+        <v>2599.6999999999998</v>
       </c>
       <c r="B34">
-        <v>15.93</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="C34">
-        <v>2651.6069994793138</v>
+        <v>2600.9800636838568</v>
       </c>
       <c r="D34">
-        <v>16.065576829963614</v>
+        <v>10.001651495776123</v>
       </c>
       <c r="E34">
-        <v>1.5069994793138903</v>
+        <v>1.2800636838569517</v>
       </c>
       <c r="F34">
-        <v>0.13557682996361464</v>
+        <v>3.1651495776122474E-2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>2749.8</v>
+        <v>2599.6999999999998</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C35">
-        <v>2750.4783909646176</v>
+        <v>2601.2394663076402</v>
       </c>
       <c r="D35">
-        <v>5.0308986358232555E-2</v>
+        <v>12.022046330226328</v>
       </c>
       <c r="E35">
-        <v>0.67839096461739246</v>
+        <v>1.5394663076403958</v>
       </c>
       <c r="F35">
-        <v>5.0308986358232555E-2</v>
+        <v>2.2046330226327626E-2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>2749.8</v>
+        <v>2599.6999999999998</v>
       </c>
       <c r="B36">
-        <v>-16.079999999999998</v>
+        <v>14</v>
       </c>
       <c r="C36">
-        <v>2749.8053343203042</v>
+        <v>2601.1981642955038</v>
       </c>
       <c r="D36">
-        <v>-15.957209934086682</v>
+        <v>13.994691097311364</v>
       </c>
       <c r="E36">
-        <v>5.3343203039730724E-3</v>
+        <v>1.4981642955040115</v>
       </c>
       <c r="F36">
-        <v>0.12279006591331587</v>
+        <v>-5.3089026886361523E-3</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>2749.8</v>
+        <v>2599.6999999999998</v>
       </c>
       <c r="B37">
-        <v>-14</v>
+        <v>15.95</v>
       </c>
       <c r="C37">
-        <v>2749.628634631094</v>
+        <v>2602.2904750163834</v>
       </c>
       <c r="D37">
-        <v>-13.945885921674627</v>
+        <v>15.966703313586262</v>
       </c>
       <c r="E37">
-        <v>-0.17136536890620846</v>
+        <v>2.590475016383607</v>
       </c>
       <c r="F37">
-        <v>5.4114078325373072E-2</v>
+        <v>1.6703313586262425E-2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>2749.8</v>
+        <v>2699.4</v>
       </c>
       <c r="B38">
-        <v>-11.98</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>2751.1771072867477</v>
+        <v>2701.4599951011369</v>
       </c>
       <c r="D38">
-        <v>-11.951452127704593</v>
+        <v>-2.2962370968994551E-2</v>
       </c>
       <c r="E38">
-        <v>1.3771072867475596</v>
+        <v>2.0599951011367921</v>
       </c>
       <c r="F38">
-        <v>2.8547872295407117E-2</v>
+        <v>-2.2962370968994551E-2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>2749.8</v>
+        <v>2699.4</v>
       </c>
       <c r="B39">
-        <v>-10</v>
+        <v>-16.07</v>
       </c>
       <c r="C39">
-        <v>2750.2204224328166</v>
+        <v>2700.4793917282973</v>
       </c>
       <c r="D39">
-        <v>-9.9953910690356409</v>
+        <v>-15.880690477447985</v>
       </c>
       <c r="E39">
-        <v>0.42042243281639458</v>
+        <v>1.0793917282971961</v>
       </c>
       <c r="F39">
-        <v>4.6089309643591037E-3</v>
+        <v>0.18930952255201561</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>2749.8</v>
+        <v>2699.4</v>
       </c>
       <c r="B40">
-        <v>-7.98</v>
+        <v>-13.97</v>
       </c>
       <c r="C40">
-        <v>2751.2380045340283</v>
+        <v>2701.6820967989433</v>
       </c>
       <c r="D40">
-        <v>-7.9989426543383821</v>
+        <v>-13.832199445091211</v>
       </c>
       <c r="E40">
-        <v>1.4380045340280958</v>
+        <v>2.2820967989432575</v>
       </c>
       <c r="F40">
-        <v>-1.8942654338381715E-2</v>
+        <v>0.13780055490878951</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>2749.8</v>
+        <v>2699.4</v>
       </c>
       <c r="B41">
-        <v>-3.98</v>
+        <v>-11.97</v>
       </c>
       <c r="C41">
-        <v>2749.9879129194915</v>
+        <v>2700.903786577021</v>
       </c>
       <c r="D41">
-        <v>-4.003743943238562</v>
+        <v>-11.88423500203476</v>
       </c>
       <c r="E41">
-        <v>0.18791291949128208</v>
+        <v>1.5037865770209464</v>
       </c>
       <c r="F41">
-        <v>-2.3743943238561993E-2</v>
+        <v>8.5764997965240397E-2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>2749.8</v>
+        <v>2699.4</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>-9.9700000000000006</v>
       </c>
       <c r="C42">
-        <v>2750.310003664491</v>
+        <v>2701.8164749275948</v>
       </c>
       <c r="D42">
-        <v>2.4926411432986652E-2</v>
+        <v>-9.912292271271383</v>
       </c>
       <c r="E42">
-        <v>0.51000366449079593</v>
+        <v>2.4164749275946633</v>
       </c>
       <c r="F42">
-        <v>2.4926411432986652E-2</v>
+        <v>5.7707728728617624E-2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>2749.8</v>
+        <v>2699.4</v>
       </c>
       <c r="B43">
-        <v>1.97</v>
+        <v>-7.95</v>
       </c>
       <c r="C43">
-        <v>2749.4149398212699</v>
+        <v>2701.1457772394897</v>
       </c>
       <c r="D43">
-        <v>2.046202009543419</v>
+        <v>-7.944807824921293</v>
       </c>
       <c r="E43">
-        <v>-0.38506017873032761</v>
+        <v>1.7457772394895983</v>
       </c>
       <c r="F43">
-        <v>7.6202009543419047E-2</v>
+        <v>5.192175078707173E-3</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>2749.8</v>
+        <v>2699.4</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>-5.97</v>
       </c>
       <c r="C44">
-        <v>2749.4739449995295</v>
+        <v>2702.246059519181</v>
       </c>
       <c r="D44">
-        <v>4.0970115405154051</v>
+        <v>-5.9859211062205571</v>
       </c>
       <c r="E44">
-        <v>-0.32605500047066016</v>
+        <v>2.8460595191809261</v>
       </c>
       <c r="F44">
-        <v>9.7011540515405059E-2</v>
+        <v>-1.5921106220557313E-2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>2749.8</v>
+        <v>2699.4</v>
       </c>
       <c r="B45">
-        <v>5.97</v>
+        <v>-3.98</v>
       </c>
       <c r="C45">
-        <v>2747.4686501289234</v>
+        <v>2702.2390152576418</v>
       </c>
       <c r="D45">
-        <v>6.1139838244034408</v>
+        <v>-4.0236465834417805</v>
       </c>
       <c r="E45">
-        <v>-2.3313498710767817</v>
+        <v>2.8390152576416767</v>
       </c>
       <c r="F45">
-        <v>0.14398382440344104</v>
+        <v>-4.3646583441780518E-2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>2749.8</v>
+        <v>2699.4</v>
       </c>
       <c r="B46">
-        <v>7.97</v>
+        <v>-2</v>
       </c>
       <c r="C46">
-        <v>2748.2908113350059</v>
+        <v>2700.0421067265866</v>
       </c>
       <c r="D46">
-        <v>8.1419489551110242</v>
+        <v>-2.0328845029029972</v>
       </c>
       <c r="E46">
-        <v>-1.5091886649943262</v>
+        <v>0.64210672658646217</v>
       </c>
       <c r="F46">
-        <v>0.17194895511102448</v>
+        <v>-3.2884502902997159E-2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>2749.8</v>
+        <v>2699.4</v>
       </c>
       <c r="B47">
-        <v>9.9700000000000006</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>2747.0296499843521</v>
+        <v>2700.961281470627</v>
       </c>
       <c r="D47">
-        <v>10.167809758324518</v>
+        <v>-3.4875948481211186E-2</v>
       </c>
       <c r="E47">
-        <v>-2.7703500156480914</v>
+        <v>1.5612814706269091</v>
       </c>
       <c r="F47">
-        <v>0.1978097583245173</v>
+        <v>-3.4875948481211186E-2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>2749.8</v>
+        <v>2699.4</v>
       </c>
       <c r="B48">
-        <v>11.95</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>2748.3519837742556</v>
+        <v>2702.6635930401335</v>
       </c>
       <c r="D48">
-        <v>12.16196782475985</v>
+        <v>1.9735201196584433</v>
       </c>
       <c r="E48">
-        <v>-1.4480162257445954</v>
+        <v>3.2635930401334008</v>
       </c>
       <c r="F48">
-        <v>0.2119678247598511</v>
+        <v>-2.6479880341556683E-2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>2749.8</v>
+        <v>2699.4</v>
       </c>
       <c r="B49">
-        <v>13.97</v>
+        <v>4</v>
       </c>
       <c r="C49">
-        <v>2747.482914701066</v>
+        <v>2702.6087814358543</v>
       </c>
       <c r="D49">
-        <v>14.172794585157895</v>
+        <v>3.9875732530705177</v>
       </c>
       <c r="E49">
-        <v>-2.3170852989342166</v>
+        <v>3.2087814358542346</v>
       </c>
       <c r="F49">
-        <v>0.2027945851578945</v>
+        <v>-1.2426746929482313E-2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>2749.8</v>
+        <v>2699.4</v>
       </c>
       <c r="B50">
-        <v>15.95</v>
+        <v>6</v>
       </c>
       <c r="C50">
-        <v>2748.3290614768339</v>
+        <v>2701.6207019637777</v>
       </c>
       <c r="D50">
-        <v>15.763855895271266</v>
+        <v>5.9958651604426043</v>
       </c>
       <c r="E50">
-        <v>-1.4709385231662964</v>
+        <v>2.2207019637776284</v>
       </c>
       <c r="F50">
-        <v>-0.18614410472873288</v>
+        <v>-4.1348395573956864E-3</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>2849.5</v>
+        <v>2699.4</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>7.97</v>
       </c>
       <c r="C51">
-        <v>2849.2034522716363</v>
+        <v>2700.6180018427012</v>
       </c>
       <c r="D51">
-        <v>7.6897021049754835E-2</v>
+        <v>7.997852725958527</v>
       </c>
       <c r="E51">
-        <v>-0.29654772836374832</v>
+        <v>1.2180018427011419</v>
       </c>
       <c r="F51">
-        <v>7.6897021049754835E-2</v>
+        <v>2.785272595852728E-2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>2849.5</v>
+        <v>2699.4</v>
       </c>
       <c r="B52">
-        <v>-16.079999999999998</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="C52">
-        <v>2848.3379182993231</v>
+        <v>2701.2676297006315</v>
       </c>
       <c r="D52">
-        <v>-15.987054697967837</v>
+        <v>10.000654021019567</v>
       </c>
       <c r="E52">
-        <v>-1.1620817006769357</v>
+        <v>1.8676297006313689</v>
       </c>
       <c r="F52">
-        <v>9.2945302032161337E-2</v>
+        <v>3.0654021019566713E-2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>2849.5</v>
+        <v>2699.4</v>
       </c>
       <c r="B53">
-        <v>-14</v>
+        <v>12</v>
       </c>
       <c r="C53">
-        <v>2848.3011521037679</v>
+        <v>2701.8515993832052</v>
       </c>
       <c r="D53">
-        <v>-13.949767808582756</v>
+        <v>12.038743497802937</v>
       </c>
       <c r="E53">
-        <v>-1.1988478962321096</v>
+        <v>2.4515993832051208</v>
       </c>
       <c r="F53">
-        <v>5.023219141724411E-2</v>
+        <v>3.8743497802936844E-2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>2849.5</v>
+        <v>2699.4</v>
       </c>
       <c r="B54">
-        <v>-11.98</v>
+        <v>14</v>
       </c>
       <c r="C54">
-        <v>2849.9582869299543</v>
+        <v>2700.9942219046789</v>
       </c>
       <c r="D54">
-        <v>-11.963699750443599</v>
+        <v>13.999673756774834</v>
       </c>
       <c r="E54">
-        <v>0.45828692995428355</v>
+        <v>1.5942219046787613</v>
       </c>
       <c r="F54">
-        <v>1.6300249556401525E-2</v>
+        <v>-3.2624322516561222E-4</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>2849.5</v>
+        <v>2699.4</v>
       </c>
       <c r="B55">
-        <v>-9.98</v>
+        <v>15.95</v>
       </c>
       <c r="C55">
-        <v>2851.1321374717259</v>
+        <v>2702.7246490886378</v>
       </c>
       <c r="D55">
-        <v>-9.9950538058551075</v>
+        <v>15.963432008531328</v>
       </c>
       <c r="E55">
-        <v>1.632137471725855</v>
+        <v>3.3246490886376705</v>
       </c>
       <c r="F55">
-        <v>-1.5053805855107072E-2</v>
+        <v>1.3432008531328421E-2</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>2849.5</v>
+        <v>2799.4</v>
       </c>
       <c r="B56">
-        <v>-7.98</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>2850.1900322593992</v>
+        <v>2798.8085739323178</v>
       </c>
       <c r="D56">
-        <v>-8.0144272102170824</v>
+        <v>-3.0137614648880633E-2</v>
       </c>
       <c r="E56">
-        <v>0.69003225939923141</v>
+        <v>-0.59142606768227779</v>
       </c>
       <c r="F56">
-        <v>-3.4427210217081949E-2</v>
+        <v>-3.0137614648880633E-2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>2849.5</v>
+        <v>2799.4</v>
       </c>
       <c r="B57">
-        <v>-6</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="C57">
-        <v>2849.1099373442994</v>
+        <v>2797.9675510940906</v>
       </c>
       <c r="D57">
-        <v>-6.0186660785580424</v>
+        <v>-15.965746647304673</v>
       </c>
       <c r="E57">
-        <v>-0.3900626557006035</v>
+        <v>-1.4324489059094958</v>
       </c>
       <c r="F57">
-        <v>-1.8666078558042365E-2</v>
+        <v>0.13425335269532823</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>2849.5</v>
+        <v>2799.4</v>
       </c>
       <c r="B58">
-        <v>-3.98</v>
+        <v>-13.97</v>
       </c>
       <c r="C58">
-        <v>2850.9951716852761</v>
+        <v>2799.0343852759747</v>
       </c>
       <c r="D58">
-        <v>-3.9871452892740904</v>
+        <v>-13.892692850073598</v>
       </c>
       <c r="E58">
-        <v>1.495171685276091</v>
+        <v>-0.3656147240253631</v>
       </c>
       <c r="F58">
-        <v>-7.1452892740904161E-3</v>
+        <v>7.7307149926403085E-2</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>2849.5</v>
+        <v>2799.4</v>
       </c>
       <c r="B59">
-        <v>-2</v>
+        <v>-11.97</v>
       </c>
       <c r="C59">
-        <v>2849.2960374818922</v>
+        <v>2798.830116132825</v>
       </c>
       <c r="D59">
-        <v>-1.9699049378021138</v>
+        <v>-11.93408125022</v>
       </c>
       <c r="E59">
-        <v>-0.20396251810780086</v>
+        <v>-0.56988386717512185</v>
       </c>
       <c r="F59">
-        <v>3.0095062197886158E-2</v>
+        <v>3.5918749780000425E-2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>2849.5</v>
+        <v>2799.4</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>-9.9700000000000006</v>
       </c>
       <c r="C60">
-        <v>2848.6673766569302</v>
+        <v>2799.2747687937531</v>
       </c>
       <c r="D60">
-        <v>2.0799587242840083</v>
+        <v>-9.9781120533958454</v>
       </c>
       <c r="E60">
-        <v>-0.83262334306982666</v>
+        <v>-0.12523120624700823</v>
       </c>
       <c r="F60">
-        <v>7.9958724284008298E-2</v>
+        <v>-8.1120533958447538E-3</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>2849.5</v>
+        <v>2799.4</v>
       </c>
       <c r="B61">
-        <v>3.97</v>
+        <v>-7.97</v>
       </c>
       <c r="C61">
-        <v>2846.2867018338493</v>
+        <v>2799.1110481086416</v>
       </c>
       <c r="D61">
-        <v>4.1178378045927033</v>
+        <v>-7.9891757110232939</v>
       </c>
       <c r="E61">
-        <v>-3.2132981661507074</v>
+        <v>-0.28895189135846522</v>
       </c>
       <c r="F61">
-        <v>0.14783780459270313</v>
+        <v>-1.9175711023294184E-2</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>2849.5</v>
+        <v>2799.4</v>
       </c>
       <c r="B62">
-        <v>5.97</v>
+        <v>-5.97</v>
       </c>
       <c r="C62">
-        <v>2848.3210819064211</v>
+        <v>2798.8813279858678</v>
       </c>
       <c r="D62">
-        <v>6.1722462339657138</v>
+        <v>-6.0044581036464582</v>
       </c>
       <c r="E62">
-        <v>-1.1789180935788863</v>
+        <v>-0.51867201413233488</v>
       </c>
       <c r="F62">
-        <v>0.20224623396571406</v>
+        <v>-3.4458103646458405E-2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>2849.5</v>
+        <v>2799.4</v>
       </c>
       <c r="B63">
-        <v>7.97</v>
+        <v>-3.98</v>
       </c>
       <c r="C63">
-        <v>2846.6870903416097</v>
+        <v>2798.4368293581419</v>
       </c>
       <c r="D63">
-        <v>7.793580015525551</v>
+        <v>-4.0402107235521934</v>
       </c>
       <c r="E63">
-        <v>-2.8129096583902538</v>
+        <v>-0.96317064185814161</v>
       </c>
       <c r="F63">
-        <v>-0.17641998447444873</v>
+        <v>-6.0210723552193368E-2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>2849.5</v>
+        <v>2799.4</v>
       </c>
       <c r="B64">
-        <v>9.9700000000000006</v>
+        <v>-2</v>
       </c>
       <c r="C64">
-        <v>2844.0321440850998</v>
+        <v>2798.2875192109223</v>
       </c>
       <c r="D64">
-        <v>10.230475172418451</v>
+        <v>-2.0416160658369105</v>
       </c>
       <c r="E64">
-        <v>-5.4678559149001558</v>
+        <v>-1.1124807890778357</v>
       </c>
       <c r="F64">
-        <v>0.26047517241845064</v>
+        <v>-4.1616065836910465E-2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>2849.5</v>
+        <v>2799.4</v>
       </c>
       <c r="B65">
-        <v>11.97</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>2845.1110533377537</v>
+        <v>2798.7025109838378</v>
       </c>
       <c r="D65">
-        <v>12.243390096039308</v>
+        <v>-3.4514730853506294E-2</v>
       </c>
       <c r="E65">
-        <v>-4.388946662246326</v>
+        <v>-0.69748901616230796</v>
       </c>
       <c r="F65">
-        <v>0.2733900960393072</v>
+        <v>-3.4514730853506294E-2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>2849.5</v>
+        <v>2799.4</v>
       </c>
       <c r="B66">
-        <v>13.97</v>
+        <v>2</v>
       </c>
       <c r="C66">
-        <v>2843.9833827949387</v>
+        <v>2800.954456444766</v>
       </c>
       <c r="D66">
-        <v>14.224009704246292</v>
+        <v>1.9834990545575648</v>
       </c>
       <c r="E66">
-        <v>-5.5166172050612658</v>
+        <v>1.5544564447659468</v>
       </c>
       <c r="F66">
-        <v>0.25400970424629143</v>
+        <v>-1.6500945442435189E-2</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>2849.5</v>
+        <v>2799.4</v>
       </c>
       <c r="B67">
-        <v>15.95</v>
+        <v>4</v>
       </c>
       <c r="C67">
-        <v>2844.9478655677212</v>
+        <v>2800.8718262079119</v>
       </c>
       <c r="D67">
-        <v>16.227051908824144</v>
+        <v>3.9945654472782857</v>
       </c>
       <c r="E67">
-        <v>-4.5521344322787627</v>
+        <v>1.4718262079118176</v>
       </c>
       <c r="F67">
-        <v>0.27705190882414499</v>
+        <v>-5.4345527217143363E-3</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>2949.2</v>
+        <v>2799.4</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C68">
-        <v>2949.0927348669939</v>
+        <v>2799.3425151981273</v>
       </c>
       <c r="D68">
-        <v>8.994925264774227E-2</v>
+        <v>5.9978067318345936</v>
       </c>
       <c r="E68">
-        <v>-0.10726513300596707</v>
+        <v>-5.7484801872760727E-2</v>
       </c>
       <c r="F68">
-        <v>8.994925264774227E-2</v>
+        <v>-2.1932681654064368E-3</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>2949.2</v>
+        <v>2799.4</v>
       </c>
       <c r="B69">
-        <v>-16.07</v>
+        <v>7.97</v>
       </c>
       <c r="C69">
-        <v>2947.0409574874584</v>
+        <v>2798.3208903720852</v>
       </c>
       <c r="D69">
-        <v>-15.99931621948113</v>
+        <v>8.0053189502633302</v>
       </c>
       <c r="E69">
-        <v>-2.1590425125414185</v>
+        <v>-1.0791096279149315</v>
       </c>
       <c r="F69">
-        <v>7.068378051886981E-2</v>
+        <v>3.5318950263330429E-2</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>2949.2</v>
+        <v>2799.4</v>
       </c>
       <c r="B70">
-        <v>-14</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="C70">
-        <v>2948.2671478090147</v>
+        <v>2798.9118339777651</v>
       </c>
       <c r="D70">
-        <v>-13.968288107772228</v>
+        <v>10.024063631585024</v>
       </c>
       <c r="E70">
-        <v>-0.93285219098515881</v>
+        <v>-0.48816602223496375</v>
       </c>
       <c r="F70">
-        <v>3.1711892227772154E-2</v>
+        <v>5.4063631585023586E-2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>2949.2</v>
+        <v>2799.4</v>
       </c>
       <c r="B71">
-        <v>-12</v>
+        <v>12</v>
       </c>
       <c r="C71">
-        <v>2948.4659060708418</v>
+        <v>2798.4579096854995</v>
       </c>
       <c r="D71">
-        <v>-11.971584474947205</v>
+        <v>12.064739809487106</v>
       </c>
       <c r="E71">
-        <v>-0.73409392915800709</v>
+        <v>-0.94209031450054681</v>
       </c>
       <c r="F71">
-        <v>2.8415525052794877E-2</v>
+        <v>6.4739809487106115E-2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>2949.2</v>
+        <v>2799.4</v>
       </c>
       <c r="B72">
-        <v>-9.9700000000000006</v>
+        <v>13.97</v>
       </c>
       <c r="C72">
-        <v>2950.1469901826758</v>
+        <v>2798.1261284503512</v>
       </c>
       <c r="D72">
-        <v>-9.9808371926269501</v>
+        <v>14.034143321588886</v>
       </c>
       <c r="E72">
-        <v>0.94699018267601787</v>
+        <v>-1.2738715496489021</v>
       </c>
       <c r="F72">
-        <v>-1.0837192626949488E-2</v>
+        <v>6.4143321588884916E-2</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>2949.2</v>
+        <v>2799.4</v>
       </c>
       <c r="B73">
-        <v>-7.97</v>
+        <v>15.97</v>
       </c>
       <c r="C73">
-        <v>2950.3186269817279</v>
+        <v>2799.76154737557</v>
       </c>
       <c r="D73">
-        <v>-7.9871452263444525</v>
+        <v>16.037222309628966</v>
       </c>
       <c r="E73">
-        <v>1.1186269817280845</v>
+        <v>0.36154737556989858</v>
       </c>
       <c r="F73">
-        <v>-1.7145226344452702E-2</v>
+        <v>6.7222309628965249E-2</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>2949.2</v>
+        <v>2899.4</v>
       </c>
       <c r="B74">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>2950.5869239158469</v>
+        <v>2899.5652792377859</v>
       </c>
       <c r="D74">
-        <v>-5.9832601847536964</v>
+        <v>-2.1753585292767202E-2</v>
       </c>
       <c r="E74">
-        <v>1.3869239158470918</v>
+        <v>0.16527923778585318</v>
       </c>
       <c r="F74">
-        <v>1.6739815246303635E-2</v>
+        <v>-2.1753585292767202E-2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>2949.2</v>
+        <v>2899.4</v>
       </c>
       <c r="B75">
-        <v>-3.97</v>
+        <v>-16.07</v>
       </c>
       <c r="C75">
-        <v>2950.8710544898886</v>
+        <v>2897.3961865962656</v>
       </c>
       <c r="D75">
-        <v>-3.9626273106526124</v>
+        <v>-15.901471956537135</v>
       </c>
       <c r="E75">
-        <v>1.6710544898887747</v>
+        <v>-2.0038134037345117</v>
       </c>
       <c r="F75">
-        <v>7.372689347387773E-3</v>
+        <v>0.16852804346286554</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>2949.2</v>
+        <v>2899.4</v>
       </c>
       <c r="B76">
-        <v>-2</v>
+        <v>-13.98</v>
       </c>
       <c r="C76">
-        <v>2949.7332998548854</v>
+        <v>2898.2441986843032</v>
       </c>
       <c r="D76">
-        <v>-1.9511948645825363</v>
+        <v>-13.843081149958625</v>
       </c>
       <c r="E76">
-        <v>0.5332998548856267</v>
+        <v>-1.1558013156968627</v>
       </c>
       <c r="F76">
-        <v>4.8805135417463674E-2</v>
+        <v>0.13691885004137561</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>2949.2</v>
+        <v>2899.4</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>-11.98</v>
       </c>
       <c r="C77">
-        <v>2949.5314421770986</v>
+        <v>2900.2558324115275</v>
       </c>
       <c r="D77">
-        <v>8.7283850497530277E-2</v>
+        <v>-11.886124024443779</v>
       </c>
       <c r="E77">
-        <v>0.33144217709877921</v>
+        <v>0.85583241152744449</v>
       </c>
       <c r="F77">
-        <v>8.7283850497530277E-2</v>
+        <v>9.3875975556221292E-2</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>2949.2</v>
+        <v>2899.4</v>
       </c>
       <c r="B78">
-        <v>2</v>
+        <v>-9.9700000000000006</v>
       </c>
       <c r="C78">
-        <v>2948.4025240188716</v>
+        <v>2898.3331385532638</v>
       </c>
       <c r="D78">
-        <v>2.1276587640750702</v>
+        <v>-9.9088242574593277</v>
       </c>
       <c r="E78">
-        <v>-0.79747598112817286</v>
+        <v>-1.0668614467363113</v>
       </c>
       <c r="F78">
-        <v>0.12765876407507015</v>
+        <v>6.1175742540672928E-2</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>2949.2</v>
+        <v>2899.4</v>
       </c>
       <c r="B79">
-        <v>3.98</v>
+        <v>-7.97</v>
       </c>
       <c r="C79">
-        <v>2947.7787337955006</v>
+        <v>2898.7988341081837</v>
       </c>
       <c r="D79">
-        <v>4.1679367534320741</v>
+        <v>-7.9272077713729132</v>
       </c>
       <c r="E79">
-        <v>-1.4212662044992612</v>
+        <v>-0.60116589181643576</v>
       </c>
       <c r="F79">
-        <v>0.18793675343207417</v>
+        <v>4.2792228627086537E-2</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>2949.2</v>
+        <v>2899.4</v>
       </c>
       <c r="B80">
-        <v>5.98</v>
+        <v>-5.97</v>
       </c>
       <c r="C80">
-        <v>2944.5656316331383</v>
+        <v>2900.0306811118462</v>
       </c>
       <c r="D80">
-        <v>6.2038129409536529</v>
+        <v>-5.9465992137220827</v>
       </c>
       <c r="E80">
-        <v>-4.6343683668615085</v>
+        <v>0.63068111184611553</v>
       </c>
       <c r="F80">
-        <v>0.22381294095365245</v>
+        <v>2.3400786277917085E-2</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>2949.2</v>
+        <v>2899.4</v>
       </c>
       <c r="B81">
-        <v>7.95</v>
+        <v>-3.97</v>
       </c>
       <c r="C81">
-        <v>2945.1751037621561</v>
+        <v>2899.567424752172</v>
       </c>
       <c r="D81">
-        <v>8.2594709325838469</v>
+        <v>-3.9826986081984019</v>
       </c>
       <c r="E81">
-        <v>-4.0248962378436772</v>
+        <v>0.16742475217188257</v>
       </c>
       <c r="F81">
-        <v>0.30947093258384673</v>
+        <v>-1.269860819840174E-2</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>2949.2</v>
+        <v>2899.4</v>
       </c>
       <c r="B82">
-        <v>9.98</v>
+        <v>-1.97</v>
       </c>
       <c r="C82">
-        <v>2943.8309906933309</v>
+        <v>2897.7145241423987</v>
       </c>
       <c r="D82">
-        <v>10.318408489826421</v>
+        <v>-1.9673004816881328</v>
       </c>
       <c r="E82">
-        <v>-5.369009306668886</v>
+        <v>-1.6854758576014319</v>
       </c>
       <c r="F82">
-        <v>0.33840848982642058</v>
+        <v>2.6995183118672106E-3</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>2949.2</v>
+        <v>2899.4</v>
       </c>
       <c r="B83">
-        <v>11.98</v>
+        <v>0.03</v>
       </c>
       <c r="C83">
-        <v>2941.695834210479</v>
+        <v>2898.7067201690838</v>
       </c>
       <c r="D83">
-        <v>12.338236487776832</v>
+        <v>9.6442041735755549E-3</v>
       </c>
       <c r="E83">
-        <v>-7.5041657895208118</v>
+        <v>-0.69327983091625356</v>
       </c>
       <c r="F83">
-        <v>0.35823648777683204</v>
+        <v>-2.0355795826424446E-2</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>2949.2</v>
+        <v>2899.4</v>
       </c>
       <c r="B84">
-        <v>13.98</v>
+        <v>1.98</v>
       </c>
       <c r="C84">
-        <v>2941.6375975789624</v>
+        <v>2900.6573425093993</v>
       </c>
       <c r="D84">
-        <v>14.330210377875614</v>
+        <v>1.9987519543933829</v>
       </c>
       <c r="E84">
-        <v>-7.5624024210374046</v>
+        <v>1.2573425093992228</v>
       </c>
       <c r="F84">
-        <v>0.35021037787561404</v>
+        <v>1.8751954393382952E-2</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>2949.2</v>
+        <v>2899.4</v>
       </c>
       <c r="B85">
-        <v>15.93</v>
+        <v>4.03</v>
       </c>
       <c r="C85">
-        <v>2941.0065829109212</v>
+        <v>2900.0371326061863</v>
       </c>
       <c r="D85">
-        <v>15.928265501459112</v>
+        <v>4.0401938309453103</v>
       </c>
       <c r="E85">
-        <v>-8.1934170890785936</v>
+        <v>0.6371326061862419</v>
       </c>
       <c r="F85">
-        <v>-1.7344985408875857E-3</v>
+        <v>1.0193830945310012E-2</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>2949.2</v>
+        <v>2899.4</v>
       </c>
       <c r="B86">
-        <v>7.95</v>
+        <v>6</v>
       </c>
       <c r="C86">
-        <v>2945.1751037621561</v>
+        <v>2899.1023471006092</v>
       </c>
       <c r="D86">
-        <v>8.2594709325838469</v>
+        <v>6.0301359031279809</v>
       </c>
       <c r="E86">
-        <v>-4.0248962378436772</v>
+        <v>-0.2976528993908687</v>
       </c>
       <c r="F86">
-        <v>0.30947093258384673</v>
+        <v>3.0135903127980868E-2</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>2949.2</v>
+        <v>2899.4</v>
       </c>
       <c r="B87">
-        <v>9.98</v>
+        <v>7.98</v>
       </c>
       <c r="C87">
-        <v>2943.8309906933309</v>
+        <v>2899.6457987460049</v>
       </c>
       <c r="D87">
-        <v>10.318408489826421</v>
+        <v>8.0265781642452563</v>
       </c>
       <c r="E87">
-        <v>-5.369009306668886</v>
+        <v>0.24579874600476614</v>
       </c>
       <c r="F87">
-        <v>0.33840848982642058</v>
+        <v>4.6578164245255849E-2</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>2949.2</v>
+        <v>2899.4</v>
       </c>
       <c r="B88">
-        <v>11.98</v>
+        <v>10</v>
       </c>
       <c r="C88">
-        <v>2941.695834210479</v>
+        <v>2899.5199340405279</v>
       </c>
       <c r="D88">
-        <v>12.338236487776832</v>
+        <v>10.045519062030262</v>
       </c>
       <c r="E88">
-        <v>-7.5041657895208118</v>
+        <v>0.11993404052782353</v>
       </c>
       <c r="F88">
-        <v>0.35823648777683204</v>
+        <v>4.5519062030262347E-2</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>2949.2</v>
+        <v>2899.4</v>
       </c>
       <c r="B89">
-        <v>13.98</v>
+        <v>12</v>
       </c>
       <c r="C89">
-        <v>2941.6375975789624</v>
+        <v>2899.7034309559667</v>
       </c>
       <c r="D89">
-        <v>14.330210377875614</v>
+        <v>12.055453609190945</v>
       </c>
       <c r="E89">
-        <v>-7.5624024210374046</v>
+        <v>0.30343095596663261</v>
       </c>
       <c r="F89">
-        <v>0.35021037787561404</v>
+        <v>5.5453609190944775E-2</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>2949.2</v>
+        <v>2899.4</v>
       </c>
       <c r="B90">
-        <v>15.93</v>
+        <v>14</v>
       </c>
       <c r="C90">
-        <v>2941.0065829109212</v>
+        <v>2899.0545402603502</v>
       </c>
       <c r="D90">
-        <v>15.928265501459112</v>
+        <v>14.024580578834463</v>
       </c>
       <c r="E90">
-        <v>-8.1934170890785936</v>
+        <v>-0.34545973964986842</v>
       </c>
       <c r="F90">
-        <v>-1.7344985408875857E-3</v>
+        <v>2.4580578834463296E-2</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>2946.7</v>
+        <v>2899.4</v>
       </c>
       <c r="B91">
-        <v>16.03</v>
+        <v>15.97</v>
       </c>
       <c r="C91">
-        <v>2947.5953470803474</v>
+        <v>2900.0979648379657</v>
       </c>
       <c r="D91">
-        <v>16.049850605236244</v>
+        <v>16.000251945571424</v>
       </c>
       <c r="E91">
-        <v>0.89534708034761934</v>
+        <v>0.69796483796562825</v>
       </c>
       <c r="F91">
-        <v>1.9850605236243268E-2</v>
+        <v>3.0251945571423633E-2</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>3049.8</v>
+        <v>2999</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>3051.1009636540116</v>
+        <v>2998.9474697411711</v>
       </c>
       <c r="D92">
-        <v>-9.3369145127660588E-3</v>
+        <v>-3.1335371157492457E-2</v>
       </c>
       <c r="E92">
-        <v>1.3009636540114116</v>
+        <v>-5.2530258828937804E-2</v>
       </c>
       <c r="F92">
-        <v>-9.3369145127660588E-3</v>
+        <v>-3.1335371157492457E-2</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>3049.8</v>
+        <v>2999</v>
       </c>
       <c r="B93">
-        <v>-16.079999999999998</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="C93">
-        <v>3049.1716198440449</v>
+        <v>2998.0572510457027</v>
       </c>
       <c r="D93">
-        <v>-16.020720521158321</v>
+        <v>-15.93863001524188</v>
       </c>
       <c r="E93">
-        <v>-0.62838015595525576</v>
+        <v>-0.94274895429725802</v>
       </c>
       <c r="F93">
-        <v>5.9279478841677502E-2</v>
+        <v>0.16136998475812092</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>3049.8</v>
+        <v>2999</v>
       </c>
       <c r="B94">
-        <v>-14</v>
+        <v>-13.97</v>
       </c>
       <c r="C94">
-        <v>3048.3078671579906</v>
+        <v>2999.6775760754163</v>
       </c>
       <c r="D94">
-        <v>-13.925118739408296</v>
+        <v>-13.873007869499583</v>
       </c>
       <c r="E94">
-        <v>-1.4921328420095961</v>
+        <v>0.67757607541625475</v>
       </c>
       <c r="F94">
-        <v>7.4881260591704191E-2</v>
+        <v>9.6992130500417773E-2</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>3049.8</v>
+        <v>2999</v>
       </c>
       <c r="B95">
-        <v>-11.98</v>
+        <v>-11.97</v>
       </c>
       <c r="C95">
-        <v>3050.3389641088597</v>
+        <v>2998.5854328364539</v>
       </c>
       <c r="D95">
-        <v>-11.931501176489983</v>
+        <v>-11.907572728812246</v>
       </c>
       <c r="E95">
-        <v>0.53896410885954538</v>
+        <v>-0.41456716354605305</v>
       </c>
       <c r="F95">
-        <v>4.8498823510017885E-2</v>
+        <v>6.2427271187754485E-2</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>3049.8</v>
+        <v>2999</v>
       </c>
       <c r="B96">
-        <v>-9.98</v>
+        <v>-9.9700000000000006</v>
       </c>
       <c r="C96">
-        <v>3050.341485584881</v>
+        <v>2998.4375180938291</v>
       </c>
       <c r="D96">
-        <v>-9.9528684418877731</v>
+        <v>-9.9516331281840884</v>
       </c>
       <c r="E96">
-        <v>0.5414855848807747</v>
+        <v>-0.56248190617088767</v>
       </c>
       <c r="F96">
-        <v>2.7131558112227339E-2</v>
+        <v>1.8366871815912234E-2</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>3049.8</v>
+        <v>2999</v>
       </c>
       <c r="B97">
-        <v>-7.98</v>
+        <v>-7.97</v>
       </c>
       <c r="C97">
-        <v>3051.0677425289223</v>
+        <v>2998.9329827022507</v>
       </c>
       <c r="D97">
-        <v>-7.947910745445542</v>
+        <v>-7.9700000000000015</v>
       </c>
       <c r="E97">
-        <v>1.2677425289220992</v>
+        <v>-6.701729774931664E-2</v>
       </c>
       <c r="F97">
-        <v>3.2089254554458435E-2</v>
+        <v>-1.7763568394002505E-15</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>3049.8</v>
+        <v>2999</v>
       </c>
       <c r="B98">
-        <v>-5.98</v>
+        <v>-5.97</v>
       </c>
       <c r="C98">
-        <v>3049.9727475567056</v>
+        <v>2998.801814017027</v>
       </c>
       <c r="D98">
-        <v>-5.9590016263197878</v>
+        <v>-5.9920583927283273</v>
       </c>
       <c r="E98">
-        <v>0.17274755670541708</v>
+        <v>-0.19818598297297285</v>
       </c>
       <c r="F98">
-        <v>2.0998373680212623E-2</v>
+        <v>-2.2058392728327547E-2</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>3049.8</v>
+        <v>2999</v>
       </c>
       <c r="B99">
-        <v>-3.98</v>
+        <v>-4</v>
       </c>
       <c r="C99">
-        <v>3051.0271518107274</v>
+        <v>2999.8522911387245</v>
       </c>
       <c r="D99">
-        <v>-3.9549087542606638</v>
+        <v>-4.0138631277423817</v>
       </c>
       <c r="E99">
-        <v>1.2271518107272641</v>
+        <v>0.8522911387244676</v>
       </c>
       <c r="F99">
-        <v>2.5091245739336188E-2</v>
+        <v>-1.3863127742381742E-2</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>3049.8</v>
+        <v>2999</v>
       </c>
       <c r="B100">
-        <v>-1.98</v>
+        <v>-1.95</v>
       </c>
       <c r="C100">
-        <v>3051.2408564501434</v>
+        <v>2997.5576472342009</v>
       </c>
       <c r="D100">
-        <v>-1.9524368032274537</v>
+        <v>-1.9974921791124567</v>
       </c>
       <c r="E100">
-        <v>1.4408564501432011</v>
+        <v>-1.4423527657991144</v>
       </c>
       <c r="F100">
-        <v>2.7563196772546261E-2</v>
+        <v>-4.7492179112456734E-2</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>3049.8</v>
+        <v>2999</v>
       </c>
       <c r="B101">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C101">
-        <v>3051.3580984206619</v>
+        <v>2999.3017829475825</v>
       </c>
       <c r="D101">
-        <v>6.8094819925383826E-2</v>
+        <v>-3.0436061012574497E-2</v>
       </c>
       <c r="E101">
-        <v>1.5580984206617359</v>
+        <v>0.30178294758252378</v>
       </c>
       <c r="F101">
-        <v>4.8094819925383822E-2</v>
+        <v>-3.0436061012574497E-2</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>3049.8</v>
+        <v>2999</v>
       </c>
       <c r="B102">
         <v>2</v>
       </c>
       <c r="C102">
-        <v>3052.3641564998456</v>
+        <v>3000.0841369521868</v>
       </c>
       <c r="D102">
-        <v>2.072075064157417</v>
+        <v>1.9857387544368463</v>
       </c>
       <c r="E102">
-        <v>2.5641564998454669</v>
+        <v>1.0841369521867819</v>
       </c>
       <c r="F102">
-        <v>7.2075064157417046E-2</v>
+        <v>-1.4261245563153668E-2</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>3049.8</v>
+        <v>2999</v>
       </c>
       <c r="B103">
-        <v>4</v>
+        <v>4.03</v>
       </c>
       <c r="C103">
-        <v>3050.0503756433841</v>
+        <v>3000.5392109918939</v>
       </c>
       <c r="D103">
-        <v>4.1014412343967983</v>
+        <v>4.003337673857124</v>
       </c>
       <c r="E103">
-        <v>0.25037564338390439</v>
+        <v>1.5392109918939241</v>
       </c>
       <c r="F103">
-        <v>0.10144123439679831</v>
+        <v>-2.6662326142876225E-2</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>3049.8</v>
+        <v>2999</v>
       </c>
       <c r="B104">
         <v>6</v>
       </c>
       <c r="C104">
-        <v>3050.9302561381655</v>
+        <v>2998.9056273056713</v>
       </c>
       <c r="D104">
-        <v>6.1108718798474024</v>
+        <v>5.9938372496149581</v>
       </c>
       <c r="E104">
-        <v>1.1302561381653504</v>
+        <v>-9.4372694328740181E-2</v>
       </c>
       <c r="F104">
-        <v>0.11087187984740243</v>
+        <v>-6.1627503850418819E-3</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>3049.8</v>
+        <v>2999</v>
       </c>
       <c r="B105">
-        <v>7.98</v>
+        <v>7.97</v>
       </c>
       <c r="C105">
-        <v>3048.6027577930536</v>
+        <v>2999.6608698689602</v>
       </c>
       <c r="D105">
-        <v>8.1353314754393953</v>
+        <v>7.9914894981109912</v>
       </c>
       <c r="E105">
-        <v>-1.197242206946612</v>
+        <v>0.66086986896016242</v>
       </c>
       <c r="F105">
-        <v>0.15533147543939485</v>
+        <v>2.1489498110991434E-2</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>3049.8</v>
+        <v>2999</v>
       </c>
       <c r="B106">
-        <v>9.98</v>
+        <v>10</v>
       </c>
       <c r="C106">
-        <v>3048.7061208232299</v>
+        <v>2997.9359036924211</v>
       </c>
       <c r="D106">
-        <v>10.174777453453805</v>
+        <v>10.014360979797944</v>
       </c>
       <c r="E106">
-        <v>-1.0938791767703151</v>
+        <v>-1.0640963075788932</v>
       </c>
       <c r="F106">
-        <v>0.19477745345380448</v>
+        <v>1.436097979794404E-2</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>3049.8</v>
+        <v>2999</v>
       </c>
       <c r="B107">
-        <v>11.98</v>
+        <v>12</v>
       </c>
       <c r="C107">
-        <v>3049.9177927318506</v>
+        <v>2998.3519540689981</v>
       </c>
       <c r="D107">
-        <v>12.20576142007128</v>
+        <v>12.000000000000002</v>
       </c>
       <c r="E107">
-        <v>0.11779273185038619</v>
+        <v>-0.64804593100188868</v>
       </c>
       <c r="F107">
-        <v>0.22576142007127942</v>
+        <v>1.7763568394002505E-15</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>3049.8</v>
+        <v>2999</v>
       </c>
       <c r="B108">
-        <v>14</v>
+        <v>13.97</v>
       </c>
       <c r="C108">
-        <v>3051.020970041423</v>
+        <v>2997.8972009998511</v>
       </c>
       <c r="D108">
-        <v>14.22084819713716</v>
+        <v>13.985740873719491</v>
       </c>
       <c r="E108">
-        <v>1.2209700414227882</v>
+        <v>-1.1027990001489343</v>
       </c>
       <c r="F108">
-        <v>0.22084819713716008</v>
+        <v>1.5740873719490622E-2</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>3049.8</v>
+        <v>2999</v>
       </c>
       <c r="B109">
-        <v>15.95</v>
+        <v>16</v>
       </c>
       <c r="C109">
-        <v>3051.4473874581254</v>
+        <v>2998.6340985491147</v>
       </c>
       <c r="D109">
-        <v>16.199319380295073</v>
+        <v>15.992542007755997</v>
       </c>
       <c r="E109">
-        <v>1.6473874581251948</v>
+        <v>-0.36590145088530335</v>
       </c>
       <c r="F109">
-        <v>0.2493193802950735</v>
+        <v>-7.4579922440030089E-3</v>
       </c>
     </row>
   </sheetData>
